--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\coleccion_recursos\contenido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\ColeccionRecursosGespro\contenido\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="COLECCION" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XEF$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XEF$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'recursos '!$A$1:$XEI$99</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="220">
   <si>
     <t>Materia</t>
   </si>
@@ -785,12 +785,45 @@
   <si>
     <t>TOTAL DE IMÁGENES</t>
   </si>
+  <si>
+    <t>Plataforma Oferta Educativa</t>
+  </si>
+  <si>
+    <t>Orienta2</t>
+  </si>
+  <si>
+    <t>Matricula Preescolar-2020</t>
+  </si>
+  <si>
+    <t>Digital Resources Blog For Teachers and Students</t>
+  </si>
+  <si>
+    <t>I, II,III</t>
+  </si>
+  <si>
+    <t>Solicitar imágenes a Marquito</t>
+  </si>
+  <si>
+    <t>Cientec-Tendencias 2019</t>
+  </si>
+  <si>
+    <t>Interculturalidad</t>
+  </si>
+  <si>
+    <t>Orientación</t>
+  </si>
+  <si>
+    <t>Primera Infancia</t>
+  </si>
+  <si>
+    <t>Educacion Abierta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,8 +868,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +904,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -983,6 +1035,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -20439,21 +20527,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:XEF107"/>
+  <dimension ref="A1:XEF115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="24"/>
-    <col min="2" max="2" width="12.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22" style="12"/>
-    <col min="4" max="4" width="22" style="1"/>
-    <col min="5" max="5" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="48" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22" style="24"/>
+    <col min="5" max="5" width="5.6640625" style="34" customWidth="1"/>
     <col min="6" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
@@ -20481,10 +20569,10 @@
       <c r="C2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
     </row>
@@ -20498,10 +20586,10 @@
       <c r="C3" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -20515,10 +20603,10 @@
       <c r="C4" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
     </row>
@@ -20532,10 +20620,10 @@
       <c r="C5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -20549,14 +20637,14 @@
       <c r="C6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>176</v>
       </c>
@@ -20566,14 +20654,14 @@
       <c r="C7" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>2018</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>176</v>
       </c>
@@ -20583,14 +20671,14 @@
       <c r="C8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>2018</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>172</v>
       </c>
@@ -20600,10 +20688,10 @@
       <c r="C9" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <v>2018</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="41">
         <v>1</v>
       </c>
     </row>
@@ -20617,7 +20705,7 @@
       <c r="C10" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="40">
         <v>2017</v>
       </c>
       <c r="E10" s="9">
@@ -20634,14 +20722,14 @@
       <c r="C11" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="40">
         <v>2017</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16360" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16360" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>178</v>
       </c>
@@ -20651,10 +20739,10 @@
       <c r="C12" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>2019</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>1</v>
       </c>
       <c r="F12" s="7"/>
@@ -37023,10 +37111,10 @@
       <c r="C13" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37040,10 +37128,10 @@
       <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37057,10 +37145,10 @@
       <c r="C15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37074,10 +37162,10 @@
       <c r="C16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37091,10 +37179,10 @@
       <c r="C17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37108,10 +37196,10 @@
       <c r="C18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37125,10 +37213,10 @@
       <c r="C19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37142,10 +37230,10 @@
       <c r="C20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37159,10 +37247,10 @@
       <c r="C21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37176,10 +37264,10 @@
       <c r="C22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37193,10 +37281,10 @@
       <c r="C23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37210,10 +37298,10 @@
       <c r="C24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37227,10 +37315,10 @@
       <c r="C25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37244,10 +37332,10 @@
       <c r="C26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37261,10 +37349,10 @@
       <c r="C27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37278,10 +37366,10 @@
       <c r="C28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37295,10 +37383,10 @@
       <c r="C29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37312,10 +37400,10 @@
       <c r="C30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37329,10 +37417,10 @@
       <c r="C31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37346,10 +37434,10 @@
       <c r="C32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37363,10 +37451,10 @@
       <c r="C33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37380,10 +37468,10 @@
       <c r="C34" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37397,14 +37485,14 @@
       <c r="C35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>179</v>
       </c>
@@ -37414,10 +37502,10 @@
       <c r="C36" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="24">
         <v>2018</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="35">
         <v>1</v>
       </c>
     </row>
@@ -37431,10 +37519,10 @@
       <c r="C37" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37448,10 +37536,10 @@
       <c r="C38" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37465,10 +37553,10 @@
       <c r="C39" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37482,10 +37570,10 @@
       <c r="C40" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37499,10 +37587,10 @@
       <c r="C41" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37516,31 +37604,31 @@
       <c r="C42" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="24">
         <v>2017</v>
       </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>118</v>
+      <c r="B43" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="24">
         <v>2019</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>173</v>
       </c>
@@ -37550,14 +37638,14 @@
       <c r="C44" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="24">
         <v>2018</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>172</v>
       </c>
@@ -37567,14 +37655,14 @@
       <c r="C45" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="24">
         <v>2018</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
         <v>176</v>
       </c>
@@ -37584,14 +37672,14 @@
       <c r="C46" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="36">
         <v>2018</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
         <v>175</v>
       </c>
@@ -37601,10 +37689,10 @@
       <c r="C47" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="11">
         <v>2019</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37618,14 +37706,14 @@
       <c r="C48" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>181</v>
       </c>
@@ -37635,10 +37723,10 @@
       <c r="C49" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="36">
         <v>2019</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37652,10 +37740,10 @@
       <c r="C50" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37669,14 +37757,14 @@
       <c r="C51" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>173</v>
       </c>
@@ -37686,14 +37774,14 @@
       <c r="C52" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="24">
         <v>2018</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>176</v>
       </c>
@@ -37703,16 +37791,16 @@
       <c r="C53" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="24">
         <v>2018</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>46</v>
@@ -37720,10 +37808,10 @@
       <c r="C54" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="36">
         <v>2018</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="35">
         <v>1</v>
       </c>
     </row>
@@ -37737,10 +37825,10 @@
       <c r="C55" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37754,10 +37842,10 @@
       <c r="C56" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37771,14 +37859,14 @@
       <c r="C57" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>173</v>
       </c>
@@ -37788,10 +37876,10 @@
       <c r="C58" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="36">
         <v>2019</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37805,10 +37893,10 @@
       <c r="C59" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37822,10 +37910,10 @@
       <c r="C60" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37839,10 +37927,10 @@
       <c r="C61" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37856,10 +37944,10 @@
       <c r="C62" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37873,10 +37961,10 @@
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37890,10 +37978,10 @@
       <c r="C64" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37907,10 +37995,10 @@
       <c r="C65" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="11">
         <v>1</v>
       </c>
     </row>
@@ -37924,14 +38012,14 @@
       <c r="C66" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>180</v>
       </c>
@@ -37941,10 +38029,10 @@
       <c r="C67" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="24">
         <v>2018</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="41">
         <v>1</v>
       </c>
     </row>
@@ -37958,31 +38046,31 @@
       <c r="C68" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
         <v>176</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="36">
         <v>2019</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
         <v>174</v>
       </c>
@@ -37992,14 +38080,14 @@
       <c r="C70" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="24">
         <v>2018</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>174</v>
       </c>
@@ -38009,14 +38097,14 @@
       <c r="C71" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="24">
         <v>2018</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
         <v>172</v>
       </c>
@@ -38026,31 +38114,31 @@
       <c r="C72" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="34">
         <v>2018</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>176</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="34">
         <v>2018</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
         <v>176</v>
       </c>
@@ -38060,14 +38148,14 @@
       <c r="C74" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="24">
         <v>2018</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
         <v>172</v>
       </c>
@@ -38077,14 +38165,14 @@
       <c r="C75" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="24">
         <v>2018</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
         <v>181</v>
       </c>
@@ -38094,14 +38182,14 @@
       <c r="C76" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="24">
         <v>2018</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>178</v>
       </c>
@@ -38111,10 +38199,10 @@
       <c r="C77" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="24">
         <v>2018</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="35">
         <v>1</v>
       </c>
     </row>
@@ -38128,14 +38216,14 @@
       <c r="C78" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="24">
         <v>2017</v>
       </c>
       <c r="E78" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
         <v>176</v>
       </c>
@@ -38145,10 +38233,10 @@
       <c r="C79" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="34">
         <v>2018</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="41">
         <v>1</v>
       </c>
     </row>
@@ -38162,10 +38250,10 @@
       <c r="C80" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38179,10 +38267,10 @@
       <c r="C81" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38196,10 +38284,10 @@
       <c r="C82" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38213,10 +38301,10 @@
       <c r="C83" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38230,10 +38318,10 @@
       <c r="C84" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38247,10 +38335,10 @@
       <c r="C85" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38264,10 +38352,10 @@
       <c r="C86" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38281,10 +38369,10 @@
       <c r="C87" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38298,10 +38386,10 @@
       <c r="C88" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38315,10 +38403,10 @@
       <c r="C89" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38332,10 +38420,10 @@
       <c r="C90" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38349,14 +38437,14 @@
       <c r="C91" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
         <v>174</v>
       </c>
@@ -38366,10 +38454,10 @@
       <c r="C92" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="36">
         <v>2019</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38383,10 +38471,10 @@
       <c r="C93" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="11">
         <v>1</v>
       </c>
     </row>
@@ -38400,7 +38488,7 @@
       <c r="C94" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="11">
         <v>2017</v>
       </c>
       <c r="E94" s="9">
@@ -38417,14 +38505,14 @@
       <c r="C95" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="24">
         <v>2017</v>
       </c>
       <c r="E95" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
         <v>28</v>
       </c>
@@ -38434,14 +38522,14 @@
       <c r="C96" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="34">
         <v>2018</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
         <v>174</v>
       </c>
@@ -38451,14 +38539,14 @@
       <c r="C97" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>28</v>
       </c>
@@ -38468,14 +38556,14 @@
       <c r="C98" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="11">
         <v>2017</v>
       </c>
       <c r="E98" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>181</v>
       </c>
@@ -38485,80 +38573,189 @@
       <c r="C99" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="35">
         <v>2018</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
+    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" s="37">
+        <v>2019</v>
+      </c>
+      <c r="E100" s="11">
+        <v>1</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="101" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E101" s="1">
-        <f>SUBTOTAL(9,E2:E100)</f>
+    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" s="37">
+        <v>2019</v>
+      </c>
+      <c r="E101" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" s="37">
+        <v>2019</v>
+      </c>
+      <c r="E102" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D103" s="37">
+        <v>2019</v>
+      </c>
+      <c r="E103" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" s="37">
+        <v>2019</v>
+      </c>
+      <c r="E104" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+    </row>
+    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="35"/>
+    </row>
+    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="35"/>
+    </row>
+    <row r="108" spans="1:6" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="38"/>
+    </row>
+    <row r="109" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="34">
+        <f>SUBTOTAL(9,E2:E108)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B102" s="27">
-        <v>7</v>
-      </c>
-      <c r="E102" s="24"/>
+    <row r="113" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="27">
+        <v>33</v>
+      </c>
     </row>
-    <row r="103" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B103" s="27">
-        <v>22</v>
-      </c>
-      <c r="E103" s="24"/>
+    <row r="114" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B114" s="27">
+        <v>29</v>
+      </c>
     </row>
-    <row r="104" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B104" s="27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B105" s="27">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B106" s="27">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="29" t="s">
+    <row r="115" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B107" s="28">
-        <f>SUBTOTAL(9,B102:B106)</f>
-        <v>98</v>
+      <c r="B115" s="28">
+        <f>SUBTOTAL(9,B110:B114)</f>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XEF99">
+  <autoFilter ref="A1:XEF104">
     <filterColumn colId="3">
       <filters>
-        <filter val="2019"/>
+        <filter val="2018"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -38647,20 +38844,26 @@
     <hyperlink ref="C96" r:id="rId82"/>
     <hyperlink ref="C70" r:id="rId83" display="https://www.mep.go.cr/educatico/recursos-guia-setimo-ano"/>
     <hyperlink ref="C43" r:id="rId84"/>
-    <hyperlink ref="C69" r:id="rId85"/>
-    <hyperlink ref="C58" r:id="rId86"/>
-    <hyperlink ref="C99" r:id="rId87"/>
-    <hyperlink ref="C36" r:id="rId88"/>
-    <hyperlink ref="C46" r:id="rId89"/>
-    <hyperlink ref="C71" r:id="rId90"/>
-    <hyperlink ref="C6" r:id="rId91"/>
-    <hyperlink ref="C12" r:id="rId92"/>
-    <hyperlink ref="C47" r:id="rId93"/>
-    <hyperlink ref="C49" r:id="rId94"/>
-    <hyperlink ref="C92" r:id="rId95"/>
+    <hyperlink ref="C58" r:id="rId85"/>
+    <hyperlink ref="C99" r:id="rId86"/>
+    <hyperlink ref="C36" r:id="rId87"/>
+    <hyperlink ref="C46" r:id="rId88"/>
+    <hyperlink ref="C71" r:id="rId89"/>
+    <hyperlink ref="C6" r:id="rId90"/>
+    <hyperlink ref="C12" r:id="rId91"/>
+    <hyperlink ref="C47" r:id="rId92"/>
+    <hyperlink ref="C49" r:id="rId93"/>
+    <hyperlink ref="C92" r:id="rId94"/>
+    <hyperlink ref="C100" r:id="rId95"/>
+    <hyperlink ref="C101" r:id="rId96"/>
+    <hyperlink ref="C102" r:id="rId97"/>
+    <hyperlink ref="C103" r:id="rId98"/>
+    <hyperlink ref="C104" r:id="rId99" display="Cientec-Tendencias"/>
+    <hyperlink ref="C69" r:id="rId100"/>
+    <hyperlink ref="C73" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId96"/>
-  <drawing r:id="rId97"/>
+  <pageSetup orientation="portrait" r:id="rId102"/>
+  <drawing r:id="rId103"/>
 </worksheet>
 </file>
--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -20600,9 +20600,9 @@
   <dimension ref="A1:XEF117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20656,7 +20656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>176</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>174</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>176</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>176</v>
       </c>
@@ -20758,7 +20758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>172</v>
       </c>
@@ -37266,7 +37266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>173</v>
       </c>
@@ -37283,7 +37283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>173</v>
       </c>
@@ -37300,7 +37300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>173</v>
       </c>
@@ -37317,7 +37317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>188</v>
       </c>
@@ -37334,7 +37334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>188</v>
       </c>
@@ -37351,7 +37351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>188</v>
       </c>
@@ -37368,7 +37368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>177</v>
       </c>
@@ -37419,7 +37419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>173</v>
       </c>
@@ -37436,7 +37436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>188</v>
       </c>
@@ -37453,7 +37453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>188</v>
       </c>
@@ -37470,7 +37470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>173</v>
       </c>
@@ -37487,7 +37487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>188</v>
       </c>
@@ -37504,7 +37504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>173</v>
       </c>
@@ -37521,7 +37521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>180</v>
       </c>
@@ -37538,7 +37538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>180</v>
       </c>
@@ -37555,7 +37555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>181</v>
       </c>
@@ -37572,7 +37572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>218</v>
       </c>
@@ -37606,7 +37606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>177</v>
       </c>
@@ -37640,7 +37640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
         <v>181</v>
       </c>
@@ -37708,7 +37708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>173</v>
       </c>
@@ -37725,7 +37725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>172</v>
       </c>
@@ -37742,7 +37742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>176</v>
       </c>
@@ -37776,7 +37776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>174</v>
       </c>
@@ -37810,7 +37810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>178</v>
       </c>
@@ -37827,7 +37827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="46" t="s">
         <v>178</v>
       </c>
@@ -37844,7 +37844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>173</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
         <v>176</v>
       </c>
@@ -37878,7 +37878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
         <v>219</v>
       </c>
@@ -37963,7 +37963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="41" t="s">
         <v>173</v>
       </c>
@@ -37980,7 +37980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
         <v>173</v>
       </c>
@@ -37997,7 +37997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
         <v>173</v>
       </c>
@@ -38014,7 +38014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>188</v>
       </c>
@@ -38031,7 +38031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>188</v>
       </c>
@@ -38048,7 +38048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>188</v>
       </c>
@@ -38099,7 +38099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>180</v>
       </c>
@@ -38150,7 +38150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>174</v>
       </c>
@@ -38167,7 +38167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>174</v>
       </c>
@@ -38184,7 +38184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>172</v>
       </c>
@@ -38201,7 +38201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>176</v>
       </c>
@@ -38218,7 +38218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="41" t="s">
         <v>176</v>
       </c>
@@ -38235,7 +38235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>172</v>
       </c>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>181</v>
       </c>
@@ -38269,7 +38269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>178</v>
       </c>
@@ -38303,7 +38303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>176</v>
       </c>
@@ -38592,7 +38592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>28</v>
       </c>
@@ -38643,7 +38643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="36" t="s">
         <v>181</v>
       </c>
@@ -38660,7 +38660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="36" t="s">
         <v>221</v>
       </c>
@@ -38796,7 +38796,7 @@
     <row r="111" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E111" s="32">
         <f>SUBTOTAL(9,E3:E110)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -38852,7 +38852,7 @@
   <autoFilter ref="A1:XEF106">
     <filterColumn colId="3">
       <filters>
-        <filter val="2018"/>
+        <filter val="Otros"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -20596,20 +20596,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:XEF117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="24"/>
     <col min="2" max="2" width="17.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="48" style="12" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="22" style="24"/>
     <col min="5" max="5" width="5.6640625" style="32" customWidth="1"/>
     <col min="6" max="16384" width="22" style="1"/>
@@ -20630,7 +20629,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:16360" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16360" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>222</v>
       </c>
@@ -20639,7 +20638,7 @@
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
     </row>
-    <row r="3" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>181</v>
       </c>
@@ -20673,7 +20672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>174</v>
       </c>
@@ -20690,7 +20689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>180</v>
       </c>
@@ -20724,7 +20723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>176</v>
       </c>
@@ -20741,7 +20740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>176</v>
       </c>
@@ -20758,7 +20757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>172</v>
       </c>
@@ -20775,7 +20774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16360" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16360" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>178</v>
       </c>
@@ -20792,7 +20791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16360" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16360" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>178</v>
       </c>
@@ -20809,7 +20808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16360" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16360" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>178</v>
       </c>
@@ -37181,7 +37180,7 @@
       <c r="XEE13" s="7"/>
       <c r="XEF13" s="7"/>
     </row>
-    <row r="14" spans="1:16360" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>178</v>
       </c>
@@ -37198,7 +37197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16360" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16360" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>176</v>
       </c>
@@ -37215,7 +37214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16360" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16360" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>176</v>
       </c>
@@ -37232,7 +37231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>189</v>
       </c>
@@ -37249,7 +37248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>173</v>
       </c>
@@ -37385,7 +37384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>177</v>
       </c>
@@ -37402,7 +37401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>174</v>
       </c>
@@ -37572,7 +37571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>218</v>
       </c>
@@ -37589,7 +37588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>180</v>
       </c>
@@ -37623,7 +37622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
         <v>188</v>
       </c>
@@ -37657,7 +37656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>181</v>
       </c>
@@ -37674,7 +37673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>181</v>
       </c>
@@ -37691,7 +37690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>172</v>
       </c>
@@ -37708,7 +37707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>173</v>
       </c>
@@ -37725,7 +37724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>172</v>
       </c>
@@ -37742,7 +37741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>176</v>
       </c>
@@ -37759,7 +37758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>175</v>
       </c>
@@ -37793,7 +37792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>181</v>
       </c>
@@ -37844,7 +37843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>173</v>
       </c>
@@ -37861,7 +37860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
         <v>176</v>
       </c>
@@ -37878,7 +37877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
         <v>219</v>
       </c>
@@ -37895,7 +37894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
         <v>219</v>
       </c>
@@ -37912,7 +37911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
         <v>219</v>
       </c>
@@ -37929,7 +37928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41" t="s">
         <v>219</v>
       </c>
@@ -37946,7 +37945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="41" t="s">
         <v>173</v>
       </c>
@@ -38065,7 +38064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="41" t="s">
         <v>178</v>
       </c>
@@ -38082,7 +38081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>174</v>
       </c>
@@ -38099,7 +38098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>180</v>
       </c>
@@ -38116,7 +38115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>174</v>
       </c>
@@ -38133,7 +38132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>176</v>
       </c>
@@ -38150,7 +38149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>174</v>
       </c>
@@ -38167,7 +38166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>174</v>
       </c>
@@ -38184,7 +38183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>172</v>
       </c>
@@ -38201,7 +38200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>176</v>
       </c>
@@ -38218,7 +38217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="41" t="s">
         <v>176</v>
       </c>
@@ -38235,7 +38234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>172</v>
       </c>
@@ -38252,7 +38251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>181</v>
       </c>
@@ -38269,7 +38268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>178</v>
       </c>
@@ -38286,7 +38285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="41" t="s">
         <v>174</v>
       </c>
@@ -38303,7 +38302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>176</v>
       </c>
@@ -38320,7 +38319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>181</v>
       </c>
@@ -38337,7 +38336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>28</v>
       </c>
@@ -38354,7 +38353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="41" t="s">
         <v>190</v>
       </c>
@@ -38371,7 +38370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>181</v>
       </c>
@@ -38388,7 +38387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>173</v>
       </c>
@@ -38405,7 +38404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>173</v>
       </c>
@@ -38422,7 +38421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>173</v>
       </c>
@@ -38439,7 +38438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>173</v>
       </c>
@@ -38456,7 +38455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>188</v>
       </c>
@@ -38473,7 +38472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="41" t="s">
         <v>173</v>
       </c>
@@ -38490,7 +38489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>173</v>
       </c>
@@ -38507,7 +38506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>173</v>
       </c>
@@ -38524,7 +38523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>174</v>
       </c>
@@ -38541,7 +38540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>178</v>
       </c>
@@ -38558,7 +38557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="36" t="s">
         <v>28</v>
       </c>
@@ -38575,7 +38574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="41" t="s">
         <v>28</v>
       </c>
@@ -38592,7 +38591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>28</v>
       </c>
@@ -38609,7 +38608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="41" t="s">
         <v>174</v>
       </c>
@@ -38626,7 +38625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="36" t="s">
         <v>28</v>
       </c>
@@ -38643,7 +38642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="36" t="s">
         <v>181</v>
       </c>
@@ -38660,7 +38659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="36" t="s">
         <v>221</v>
       </c>
@@ -38677,7 +38676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="36" t="s">
         <v>178</v>
       </c>
@@ -38697,7 +38696,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="36" t="s">
         <v>181</v>
       </c>
@@ -38714,7 +38713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="41" t="s">
         <v>218</v>
       </c>
@@ -38731,7 +38730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="36" t="s">
         <v>213</v>
       </c>
@@ -38748,7 +38747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="41" t="s">
         <v>178</v>
       </c>
@@ -38796,7 +38795,7 @@
     <row r="111" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E111" s="32">
         <f>SUBTOTAL(9,E3:E110)</f>
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -38849,13 +38848,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XEF106">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Otros"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:XEF106"/>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>

--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -20599,9 +20599,9 @@
   <dimension ref="A1:XEF117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20648,7 +20648,7 @@
       <c r="C3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="42" t="s">
         <v>203</v>
       </c>
       <c r="E3" s="36">
@@ -20682,7 +20682,7 @@
       <c r="C5" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="42" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="36">
@@ -20699,7 +20699,7 @@
       <c r="C6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="42" t="s">
         <v>203</v>
       </c>
       <c r="E6" s="36">
@@ -37190,7 +37190,7 @@
       <c r="C14" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="42" t="s">
         <v>203</v>
       </c>
       <c r="E14" s="36">
@@ -37207,7 +37207,7 @@
       <c r="C15" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E15" s="36">
@@ -37224,7 +37224,7 @@
       <c r="C16" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E16" s="36">
@@ -37241,7 +37241,7 @@
       <c r="C17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E17" s="36">
@@ -37258,7 +37258,7 @@
       <c r="C18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E18" s="36">
@@ -37394,7 +37394,7 @@
       <c r="C26" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E26" s="36">
@@ -37598,7 +37598,7 @@
       <c r="C38" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E38" s="36">
@@ -37632,7 +37632,7 @@
       <c r="C40" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="42" t="s">
         <v>203</v>
       </c>
       <c r="E40" s="36">
@@ -37666,7 +37666,7 @@
       <c r="C42" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E42" s="36">
@@ -37904,7 +37904,7 @@
       <c r="C56" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E56" s="36">
@@ -37921,7 +37921,7 @@
       <c r="C57" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E57" s="36">
@@ -37938,7 +37938,7 @@
       <c r="C58" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E58" s="36">
@@ -38074,7 +38074,7 @@
       <c r="C66" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E66" s="36">
@@ -38091,7 +38091,7 @@
       <c r="C67" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E67" s="36">
@@ -38125,7 +38125,7 @@
       <c r="C69" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E69" s="36">
@@ -38329,7 +38329,7 @@
       <c r="C81" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E81" s="36">
@@ -38346,7 +38346,7 @@
       <c r="C82" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E82" s="36">
@@ -38363,7 +38363,7 @@
       <c r="C83" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E83" s="36">
@@ -38380,7 +38380,7 @@
       <c r="C84" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E84" s="36">
@@ -38431,7 +38431,7 @@
       <c r="C87" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E87" s="36">
@@ -38448,7 +38448,7 @@
       <c r="C88" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E88" s="36">
@@ -38465,7 +38465,7 @@
       <c r="C89" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D89" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E89" s="36">
@@ -38482,7 +38482,7 @@
       <c r="C90" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E90" s="36">
@@ -38516,7 +38516,7 @@
       <c r="C92" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E92" s="36">

--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\ColeccionRecursosGespro\contenido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ColeccionRecursosGespro\contenido\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13332" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="recursos " sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XEF$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'recursos '!$A$1:$XEI$99</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1540,7 +1540,7 @@
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="6"/>
     <col min="2" max="2" width="22" style="5"/>
@@ -1552,7 +1552,7 @@
     <col min="9" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>181</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>176</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>174</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>180</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>174</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>176</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>176</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>172</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>178</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>178</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>178</v>
       </c>
@@ -18216,7 +18216,7 @@
       <c r="XEH12" s="7"/>
       <c r="XEI12" s="7"/>
     </row>
-    <row r="13" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>178</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>176</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>176</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>189</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>173</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>173</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>173</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>173</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>188</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>188</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>188</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>177</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>177</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>174</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>173</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>188</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>188</v>
       </c>
@@ -18658,7 +18658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>173</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>188</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>173</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>180</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>180</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>181</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>179</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>180</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>177</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>188</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>181</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>181</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>172</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>173</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>172</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>176</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>175</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>174</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>181</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>178</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>178</v>
       </c>
@@ -19230,7 +19230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>173</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>176</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>187</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>187</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>187</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>187</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>173</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>173</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>173</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>173</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>188</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>188</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>188</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>178</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>174</v>
       </c>
@@ -19620,7 +19620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>180</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>174</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>176</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>174</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>174</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>172</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>176</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>176</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>172</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>181</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>178</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>174</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>176</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>181</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>28</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>190</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>181</v>
       </c>
@@ -20062,7 +20062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>173</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>173</v>
       </c>
@@ -20114,7 +20114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>173</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>173</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>188</v>
       </c>
@@ -20192,7 +20192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>173</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>173</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>173</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>174</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>178</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>28</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>28</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>28</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>174</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>28</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>181</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="18" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -20486,7 +20486,7 @@
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
     </row>
-    <row r="104" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="26"/>
     </row>
   </sheetData>
@@ -20599,22 +20599,22 @@
   <dimension ref="A1:XEF117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="24"/>
-    <col min="2" max="2" width="17.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="22" style="24"/>
-    <col min="5" max="5" width="5.6640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="32" customWidth="1"/>
     <col min="6" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16360" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16360" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:16360" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16360" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>222</v>
       </c>
@@ -20638,7 +20638,7 @@
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
     </row>
-    <row r="3" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>181</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>176</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>174</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>180</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>174</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>176</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>176</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>172</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16360" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16360" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>178</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16360" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16360" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>178</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16360" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16360" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>178</v>
       </c>
@@ -37180,7 +37180,7 @@
       <c r="XEE13" s="7"/>
       <c r="XEF13" s="7"/>
     </row>
-    <row r="14" spans="1:16360" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>178</v>
       </c>
@@ -37197,7 +37197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16360" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16360" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>176</v>
       </c>
@@ -37214,7 +37214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16360" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16360" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>176</v>
       </c>
@@ -37231,7 +37231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>189</v>
       </c>
@@ -37248,7 +37248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>173</v>
       </c>
@@ -37265,7 +37265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>173</v>
       </c>
@@ -37282,7 +37282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>173</v>
       </c>
@@ -37299,7 +37299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>173</v>
       </c>
@@ -37316,7 +37316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>188</v>
       </c>
@@ -37333,7 +37333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>188</v>
       </c>
@@ -37350,7 +37350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>188</v>
       </c>
@@ -37367,7 +37367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>177</v>
       </c>
@@ -37384,7 +37384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>177</v>
       </c>
@@ -37401,7 +37401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>174</v>
       </c>
@@ -37418,7 +37418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>173</v>
       </c>
@@ -37435,7 +37435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>188</v>
       </c>
@@ -37452,7 +37452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>188</v>
       </c>
@@ -37469,7 +37469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>173</v>
       </c>
@@ -37486,7 +37486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>188</v>
       </c>
@@ -37503,7 +37503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>173</v>
       </c>
@@ -37520,7 +37520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>180</v>
       </c>
@@ -37537,7 +37537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>180</v>
       </c>
@@ -37554,7 +37554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>181</v>
       </c>
@@ -37571,7 +37571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>218</v>
       </c>
@@ -37588,7 +37588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>180</v>
       </c>
@@ -37605,7 +37605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>177</v>
       </c>
@@ -37622,7 +37622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>188</v>
       </c>
@@ -37639,7 +37639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>181</v>
       </c>
@@ -37656,7 +37656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>181</v>
       </c>
@@ -37673,7 +37673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>181</v>
       </c>
@@ -37690,7 +37690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>172</v>
       </c>
@@ -37707,7 +37707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>173</v>
       </c>
@@ -37724,7 +37724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>172</v>
       </c>
@@ -37741,7 +37741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>176</v>
       </c>
@@ -37758,7 +37758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>175</v>
       </c>
@@ -37775,7 +37775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>174</v>
       </c>
@@ -37792,7 +37792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>181</v>
       </c>
@@ -37809,7 +37809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>178</v>
       </c>
@@ -37826,7 +37826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="46" t="s">
         <v>178</v>
       </c>
@@ -37843,7 +37843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>173</v>
       </c>
@@ -37860,7 +37860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>176</v>
       </c>
@@ -37877,7 +37877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>219</v>
       </c>
@@ -37894,7 +37894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
         <v>219</v>
       </c>
@@ -37911,7 +37911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>219</v>
       </c>
@@ -37928,7 +37928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>219</v>
       </c>
@@ -37945,7 +37945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
         <v>173</v>
       </c>
@@ -37962,7 +37962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
         <v>173</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
         <v>173</v>
       </c>
@@ -37996,7 +37996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
         <v>173</v>
       </c>
@@ -38013,7 +38013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
         <v>188</v>
       </c>
@@ -38030,7 +38030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>188</v>
       </c>
@@ -38047,7 +38047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>188</v>
       </c>
@@ -38064,7 +38064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>178</v>
       </c>
@@ -38081,7 +38081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>174</v>
       </c>
@@ -38098,7 +38098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="41" t="s">
         <v>180</v>
       </c>
@@ -38115,7 +38115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="41" t="s">
         <v>174</v>
       </c>
@@ -38132,7 +38132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="41" t="s">
         <v>176</v>
       </c>
@@ -38149,7 +38149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
         <v>174</v>
       </c>
@@ -38166,7 +38166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
         <v>174</v>
       </c>
@@ -38183,7 +38183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="41" t="s">
         <v>172</v>
       </c>
@@ -38200,7 +38200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="41" t="s">
         <v>176</v>
       </c>
@@ -38217,7 +38217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="41" t="s">
         <v>176</v>
       </c>
@@ -38234,7 +38234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="41" t="s">
         <v>172</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="41" t="s">
         <v>181</v>
       </c>
@@ -38268,7 +38268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="41" t="s">
         <v>178</v>
       </c>
@@ -38285,7 +38285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="41" t="s">
         <v>174</v>
       </c>
@@ -38302,7 +38302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="41" t="s">
         <v>176</v>
       </c>
@@ -38319,7 +38319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="s">
         <v>181</v>
       </c>
@@ -38336,7 +38336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="41" t="s">
         <v>28</v>
       </c>
@@ -38353,7 +38353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="41" t="s">
         <v>190</v>
       </c>
@@ -38370,7 +38370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="41" t="s">
         <v>181</v>
       </c>
@@ -38387,7 +38387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="41" t="s">
         <v>173</v>
       </c>
@@ -38404,7 +38404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="41" t="s">
         <v>173</v>
       </c>
@@ -38421,7 +38421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="41" t="s">
         <v>173</v>
       </c>
@@ -38438,7 +38438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="41" t="s">
         <v>173</v>
       </c>
@@ -38455,7 +38455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="41" t="s">
         <v>188</v>
       </c>
@@ -38472,7 +38472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="41" t="s">
         <v>173</v>
       </c>
@@ -38489,7 +38489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="41" t="s">
         <v>173</v>
       </c>
@@ -38506,7 +38506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>173</v>
       </c>
@@ -38523,7 +38523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="41" t="s">
         <v>174</v>
       </c>
@@ -38540,7 +38540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
         <v>178</v>
       </c>
@@ -38557,7 +38557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
         <v>28</v>
       </c>
@@ -38574,7 +38574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="41" t="s">
         <v>28</v>
       </c>
@@ -38591,7 +38591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="41" t="s">
         <v>28</v>
       </c>
@@ -38608,7 +38608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="41" t="s">
         <v>174</v>
       </c>
@@ -38625,7 +38625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
         <v>28</v>
       </c>
@@ -38642,7 +38642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
         <v>181</v>
       </c>
@@ -38659,7 +38659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>221</v>
       </c>
@@ -38676,7 +38676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
         <v>178</v>
       </c>
@@ -38696,7 +38696,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
         <v>181</v>
       </c>
@@ -38713,7 +38713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="41" t="s">
         <v>218</v>
       </c>
@@ -38730,7 +38730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
         <v>213</v>
       </c>
@@ -38747,7 +38747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="41" t="s">
         <v>178</v>
       </c>
@@ -38764,41 +38764,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="31"/>
       <c r="C107" s="16"/>
       <c r="D107" s="11"/>
       <c r="E107" s="33"/>
     </row>
-    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="10"/>
       <c r="C108" s="16"/>
       <c r="D108" s="11"/>
       <c r="E108" s="33"/>
     </row>
-    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="10"/>
       <c r="C109" s="16"/>
       <c r="D109" s="11"/>
       <c r="E109" s="33"/>
     </row>
-    <row r="110" spans="1:6" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" s="18" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
       <c r="E110" s="34"/>
     </row>
-    <row r="111" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E111" s="32">
         <f>SUBTOTAL(9,E3:E110)</f>
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
         <v>205</v>
       </c>
@@ -38806,7 +38806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
         <v>206</v>
       </c>
@@ -38814,7 +38814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>207</v>
       </c>
@@ -38822,7 +38822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>203</v>
       </c>
@@ -38830,7 +38830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>204</v>
       </c>
@@ -38838,7 +38838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="29" t="s">
         <v>208</v>
       </c>

--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ColeccionRecursosGespro\contenido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\ColeccionRecursosGespro\contenido\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13332" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="recursos " sheetId="1" r:id="rId1"/>
     <sheet name="COLECCION" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XEF$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XED$263</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'recursos '!$A$1:$XEI$99</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="382">
   <si>
     <t>Materia</t>
   </si>
@@ -801,9 +801,6 @@
     <t>I, II,III</t>
   </si>
   <si>
-    <t>Solicitar imágenes a Marquito</t>
-  </si>
-  <si>
     <t>Cientec-Tendencias 2019</t>
   </si>
   <si>
@@ -827,11 +824,491 @@
   <si>
     <t>En amarillo las imágenes que me hacen falta</t>
   </si>
+  <si>
+    <t>Biotecnología: sus técnicas y aplicaciones</t>
+  </si>
+  <si>
+    <t>Profe en casa</t>
+  </si>
+  <si>
+    <t>Afectividad y sexualidad integral</t>
+  </si>
+  <si>
+    <t>Ciencias, Afectividad y Sexualidad</t>
+  </si>
+  <si>
+    <t> III Ciclo</t>
+  </si>
+  <si>
+    <t>Educación Diversificada</t>
+  </si>
+  <si>
+    <t>Campaña Nacional 1856-1857, redescubriendo nuestra historia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generalidades de América </t>
+  </si>
+  <si>
+    <t>Los procesos de democratización en Centroamérica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segunda etapa de la Campaña Nacional </t>
+  </si>
+  <si>
+    <t>Climas de Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consecuencias económicas de la Segunda Guerra Mundial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El origen de los estados nacionales </t>
+  </si>
+  <si>
+    <t>Generalidades de América</t>
+  </si>
+  <si>
+    <t>Expansión comercial europea a América de 1492 a 1580</t>
+  </si>
+  <si>
+    <t>Relieve del Orbe</t>
+  </si>
+  <si>
+    <t>Legado cultural de las civilizaciones americanas en Costa Rica</t>
+  </si>
+  <si>
+    <t>Problemas ambientales en América</t>
+  </si>
+  <si>
+    <t>Física</t>
+  </si>
+  <si>
+    <t>Conversiones</t>
+  </si>
+  <si>
+    <t>Vectores</t>
+  </si>
+  <si>
+    <t>Conservación del momento lineal</t>
+  </si>
+  <si>
+    <t>Impulso y momento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Física </t>
+  </si>
+  <si>
+    <t>Experimentos de comprobación de las leyes de hidrostática</t>
+  </si>
+  <si>
+    <t>Energía</t>
+  </si>
+  <si>
+    <t>Leyes de Newton</t>
+  </si>
+  <si>
+    <t>Parler de l`environnement</t>
+  </si>
+  <si>
+    <t>Demander des informations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exprimer des faits futurs </t>
+  </si>
+  <si>
+    <t>Rendre compte des activités accomplies par quelqu'un</t>
+  </si>
+  <si>
+    <t>Le futur simple</t>
+  </si>
+  <si>
+    <t>Décrire les différentes activités de la vie quotidienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier quelque chose </t>
+  </si>
+  <si>
+    <t>Les nombres du zéro au cinquante neuf</t>
+  </si>
+  <si>
+    <t>Les nombres du 60 au 100</t>
+  </si>
+  <si>
+    <t>Se situer dans l’espace 2</t>
+  </si>
+  <si>
+    <t>Se situer dans l’espace 1</t>
+  </si>
+  <si>
+    <t>Poser des questions</t>
+  </si>
+  <si>
+    <t>Caractériser des objets et des lieux</t>
+  </si>
+  <si>
+    <t>Caractériser des personnes</t>
+  </si>
+  <si>
+    <t>Artes Industriales</t>
+  </si>
+  <si>
+    <t>Hidrostática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizacion espacial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiración celular: cadena respiratoria </t>
+  </si>
+  <si>
+    <t>Respiración celular: fermentación</t>
+  </si>
+  <si>
+    <t>Respiración celular: formación de acetil coenzima A y ciclo de Krebs</t>
+  </si>
+  <si>
+    <t>Respiración celular: glucólisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biotecnología: sus técnicas y apliaciones </t>
+  </si>
+  <si>
+    <t>Biotecnología: cultivos celulares y reproducción asistida</t>
+  </si>
+  <si>
+    <t>Ciclo celular: mitosis</t>
+  </si>
+  <si>
+    <t>Biomoléculas</t>
+  </si>
+  <si>
+    <t>Ecología</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolución </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fotosíntesis </t>
+  </si>
+  <si>
+    <t>ADN y ARN</t>
+  </si>
+  <si>
+    <t>Cruces: herencia no mendeliana</t>
+  </si>
+  <si>
+    <t>Cruces monohíbridos</t>
+  </si>
+  <si>
+    <t>Conceptos básicos de genética: cruces</t>
+  </si>
+  <si>
+    <t>Ciencias</t>
+  </si>
+  <si>
+    <t>Conceptos de fuerza y trabajo</t>
+  </si>
+  <si>
+    <t>Mediciones</t>
+  </si>
+  <si>
+    <t>El peso</t>
+  </si>
+  <si>
+    <t>El peso y la masa</t>
+  </si>
+  <si>
+    <t>Realidad Aumentada aplicada a la educación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afectividad y sexualidad integral </t>
+  </si>
+  <si>
+    <t>Afectividad y sexualidad</t>
+  </si>
+  <si>
+    <t>Recurso hídrico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrelaciones entre aspectos anatómicos, fisiológicos de los sistemas del cuerpo humano </t>
+  </si>
+  <si>
+    <t>Clasificación compuestos binarios</t>
+  </si>
+  <si>
+    <t>La célula y el ciclo celular</t>
+  </si>
+  <si>
+    <t>Formas de expresar afecto para la vivencia de una sexualidad responsable y placentera</t>
+  </si>
+  <si>
+    <t>Amenazas naturales: inundaciones</t>
+  </si>
+  <si>
+    <t>Amenazas naturales: sismos y terremotos</t>
+  </si>
+  <si>
+    <t>Régimen político: democracia y dictadura</t>
+  </si>
+  <si>
+    <t>Derechos Humanos</t>
+  </si>
+  <si>
+    <t>Organización institucional de Costa Rica</t>
+  </si>
+  <si>
+    <t>Abolición del ejército</t>
+  </si>
+  <si>
+    <t>Voseo en Costa Rica</t>
+  </si>
+  <si>
+    <t>Oraciones compuestas por yuxtaposición y coordinación</t>
+  </si>
+  <si>
+    <t>Oraciones compuestas por subordinación</t>
+  </si>
+  <si>
+    <t>Leyes de acentuación y ley del hiato</t>
+  </si>
+  <si>
+    <t>El hablante en primera persona como recurso coloquial</t>
+  </si>
+  <si>
+    <t>El párrafo</t>
+  </si>
+  <si>
+    <t>La relación del texto con el contexto, género literario y movimiento literario</t>
+  </si>
+  <si>
+    <t>Empleo de letras: b, v, c, z, s, g, j, h</t>
+  </si>
+  <si>
+    <t>Oración impersonal</t>
+  </si>
+  <si>
+    <t>Formas de tratamiento</t>
+  </si>
+  <si>
+    <t>Oración pasiva</t>
+  </si>
+  <si>
+    <t>Interpretación del lenguaje connotativo</t>
+  </si>
+  <si>
+    <t>Paradigma verbal</t>
+  </si>
+  <si>
+    <t>Registros del habla</t>
+  </si>
+  <si>
+    <t>Partes de la oración: sustantivo</t>
+  </si>
+  <si>
+    <t>Partes de la oración: adjetivo y artículo</t>
+  </si>
+  <si>
+    <t>Las partes de la oración: el verbo</t>
+  </si>
+  <si>
+    <t>Verbos regulares e irregulares</t>
+  </si>
+  <si>
+    <t>El pronombre, las conjunciones, la interjección, la preposición y el adverbio</t>
+  </si>
+  <si>
+    <t>Falacias</t>
+  </si>
+  <si>
+    <t>Usos de la mayúscula</t>
+  </si>
+  <si>
+    <t>La inferencia</t>
+  </si>
+  <si>
+    <t>Tablas de verdad</t>
+  </si>
+  <si>
+    <t>Figuras literarias</t>
+  </si>
+  <si>
+    <t>Signos de puntuación</t>
+  </si>
+  <si>
+    <t>El razonamiento</t>
+  </si>
+  <si>
+    <t>El interés simple y el interés compuesto</t>
+  </si>
+  <si>
+    <t>Química</t>
+  </si>
+  <si>
+    <t>Los módelos atómicos</t>
+  </si>
+  <si>
+    <t>Estado de la materia</t>
+  </si>
+  <si>
+    <t>Tabla Periódica: generalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla periódica: números cuánticos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla periódica: configuraciones electrónicas </t>
+  </si>
+  <si>
+    <t>Solubilidad</t>
+  </si>
+  <si>
+    <t>Fuerzas intermoleculares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polaridad </t>
+  </si>
+  <si>
+    <t>Geometría molecular</t>
+  </si>
+  <si>
+    <t>Estructura de Lewis</t>
+  </si>
+  <si>
+    <t>Enlace iónico y metálico</t>
+  </si>
+  <si>
+    <t>Enlaces químicos</t>
+  </si>
+  <si>
+    <t>Enlaces químicos covalentes</t>
+  </si>
+  <si>
+    <t>Estequiometría: resolución de problemas</t>
+  </si>
+  <si>
+    <t>Conceptos básicos de estequiometría</t>
+  </si>
+  <si>
+    <t>Combinación de operaciones con paréntesis</t>
+  </si>
+  <si>
+    <t>Patrones y sucesiones</t>
+  </si>
+  <si>
+    <t>Funciones inversas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuaciones fraccionarias y literales </t>
+  </si>
+  <si>
+    <t>Ángulos de elevación, ángulos de depresión</t>
+  </si>
+  <si>
+    <t>Homotecias</t>
+  </si>
+  <si>
+    <t>Productos notables</t>
+  </si>
+  <si>
+    <t>Mínimo múltiplo común y máximo divisor común</t>
+  </si>
+  <si>
+    <t>Variables cuantitativas discretas y variables cuantitativas continuas</t>
+  </si>
+  <si>
+    <t>Semejanza y congruencia de triángulos</t>
+  </si>
+  <si>
+    <t>Estimación de áreas de figuras planas no poligonales</t>
+  </si>
+  <si>
+    <t>Aplicando probabilidades para la toma de decisiones</t>
+  </si>
+  <si>
+    <t>Ecuaciones logarítmicas II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantear y resolver problemas utilizando ecuaciones de segundo grado con una incógnita </t>
+  </si>
+  <si>
+    <t>Plantear y resolver problemas utilizando sistemas de dos ecuaciones con dos incógnitas</t>
+  </si>
+  <si>
+    <t>Proporcionalidad directa e inversa</t>
+  </si>
+  <si>
+    <t>Conceptos básicos de la función logarítmica</t>
+  </si>
+  <si>
+    <t>Conceptos básicos de la función exponencial</t>
+  </si>
+  <si>
+    <t>Resolución de problemas con funciones exponenciales</t>
+  </si>
+  <si>
+    <t>Resolución de problemas con ecuaciones logarítmicas</t>
+  </si>
+  <si>
+    <t>Resolución de problemas con polígonos regulares</t>
+  </si>
+  <si>
+    <t>Aplicaciones de los logaritmos</t>
+  </si>
+  <si>
+    <t>Resolución de problemas con polígonos inscritos o circunscritos 2</t>
+  </si>
+  <si>
+    <t>Resolución de problemas con polígonos inscritos o circunscritos 1</t>
+  </si>
+  <si>
+    <t>High tech high touch</t>
+  </si>
+  <si>
+    <t>Fragile world handle with care</t>
+  </si>
+  <si>
+    <t>Identification of family members and partner´s relatives</t>
+  </si>
+  <si>
+    <t>Acceptance and refusal of goods and services</t>
+  </si>
+  <si>
+    <t>Personal travel plans</t>
+  </si>
+  <si>
+    <t>Our democratic tradition</t>
+  </si>
+  <si>
+    <t>Computers and technology in our lives</t>
+  </si>
+  <si>
+    <t>Operating electrical appliances</t>
+  </si>
+  <si>
+    <t>Job demand in Costa Rica: job interview</t>
+  </si>
+  <si>
+    <t>Jobs, careers and lifestyles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describing objects </t>
+  </si>
+  <si>
+    <t>Location of people and objects</t>
+  </si>
+  <si>
+    <t>Identification of oneself to others: personal information</t>
+  </si>
+  <si>
+    <t>Identification of oneself to others: using personal information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Profe en casa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -878,8 +1355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -923,7 +1400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -983,12 +1460,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1077,19 +1567,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,6 +1611,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1540,7 +2036,7 @@
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="6"/>
     <col min="2" max="2" width="22" style="5"/>
@@ -1552,7 +2048,7 @@
     <col min="9" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
@@ -1575,7 +2071,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>181</v>
       </c>
@@ -1601,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>176</v>
       </c>
@@ -1627,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>174</v>
       </c>
@@ -1653,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>180</v>
       </c>
@@ -1679,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>174</v>
       </c>
@@ -1705,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>176</v>
       </c>
@@ -1731,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>176</v>
       </c>
@@ -1757,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>172</v>
       </c>
@@ -1783,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>178</v>
       </c>
@@ -1809,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>178</v>
       </c>
@@ -1835,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>178</v>
       </c>
@@ -18216,7 +18712,7 @@
       <c r="XEH12" s="7"/>
       <c r="XEI12" s="7"/>
     </row>
-    <row r="13" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>178</v>
       </c>
@@ -18242,7 +18738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>176</v>
       </c>
@@ -18268,7 +18764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>176</v>
       </c>
@@ -18294,7 +18790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>189</v>
       </c>
@@ -18320,7 +18816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>173</v>
       </c>
@@ -18346,7 +18842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>173</v>
       </c>
@@ -18372,7 +18868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>173</v>
       </c>
@@ -18398,7 +18894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>173</v>
       </c>
@@ -18424,7 +18920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>188</v>
       </c>
@@ -18450,7 +18946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>188</v>
       </c>
@@ -18476,7 +18972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>188</v>
       </c>
@@ -18502,7 +18998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>177</v>
       </c>
@@ -18528,7 +19024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>177</v>
       </c>
@@ -18554,7 +19050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>174</v>
       </c>
@@ -18580,7 +19076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>173</v>
       </c>
@@ -18606,7 +19102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>188</v>
       </c>
@@ -18632,7 +19128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>188</v>
       </c>
@@ -18658,7 +19154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>173</v>
       </c>
@@ -18684,7 +19180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>188</v>
       </c>
@@ -18710,7 +19206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>173</v>
       </c>
@@ -18736,7 +19232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>180</v>
       </c>
@@ -18762,7 +19258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>180</v>
       </c>
@@ -18788,7 +19284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>181</v>
       </c>
@@ -18814,7 +19310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>179</v>
       </c>
@@ -18840,7 +19336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>180</v>
       </c>
@@ -18866,7 +19362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>177</v>
       </c>
@@ -18892,7 +19388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>188</v>
       </c>
@@ -18918,7 +19414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>181</v>
       </c>
@@ -18944,7 +19440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>181</v>
       </c>
@@ -18970,7 +19466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
@@ -18996,7 +19492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>172</v>
       </c>
@@ -19022,7 +19518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>173</v>
       </c>
@@ -19048,7 +19544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>172</v>
       </c>
@@ -19074,7 +19570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>176</v>
       </c>
@@ -19100,7 +19596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>175</v>
       </c>
@@ -19126,7 +19622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>174</v>
       </c>
@@ -19152,7 +19648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>181</v>
       </c>
@@ -19178,7 +19674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>178</v>
       </c>
@@ -19204,7 +19700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>178</v>
       </c>
@@ -19230,7 +19726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>173</v>
       </c>
@@ -19256,7 +19752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>176</v>
       </c>
@@ -19282,7 +19778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>187</v>
       </c>
@@ -19308,7 +19804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>187</v>
       </c>
@@ -19334,7 +19830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>187</v>
       </c>
@@ -19360,7 +19856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>187</v>
       </c>
@@ -19386,7 +19882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>173</v>
       </c>
@@ -19412,7 +19908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>173</v>
       </c>
@@ -19438,7 +19934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>173</v>
       </c>
@@ -19464,7 +19960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>173</v>
       </c>
@@ -19490,7 +19986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>188</v>
       </c>
@@ -19516,7 +20012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>188</v>
       </c>
@@ -19542,7 +20038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>188</v>
       </c>
@@ -19568,7 +20064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>178</v>
       </c>
@@ -19594,7 +20090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>174</v>
       </c>
@@ -19620,7 +20116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>180</v>
       </c>
@@ -19646,7 +20142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>174</v>
       </c>
@@ -19672,7 +20168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>176</v>
       </c>
@@ -19698,7 +20194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>174</v>
       </c>
@@ -19724,7 +20220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>174</v>
       </c>
@@ -19750,7 +20246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>172</v>
       </c>
@@ -19776,7 +20272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>176</v>
       </c>
@@ -19802,7 +20298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>176</v>
       </c>
@@ -19828,7 +20324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>172</v>
       </c>
@@ -19854,7 +20350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>181</v>
       </c>
@@ -19880,7 +20376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>178</v>
       </c>
@@ -19906,7 +20402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>174</v>
       </c>
@@ -19932,7 +20428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>176</v>
       </c>
@@ -19958,7 +20454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>181</v>
       </c>
@@ -19984,7 +20480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>28</v>
       </c>
@@ -20010,7 +20506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
         <v>190</v>
       </c>
@@ -20036,7 +20532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>181</v>
       </c>
@@ -20062,7 +20558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>173</v>
       </c>
@@ -20088,7 +20584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>173</v>
       </c>
@@ -20114,7 +20610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>173</v>
       </c>
@@ -20140,7 +20636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>173</v>
       </c>
@@ -20166,7 +20662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>188</v>
       </c>
@@ -20192,7 +20688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>173</v>
       </c>
@@ -20218,7 +20714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>173</v>
       </c>
@@ -20244,7 +20740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>173</v>
       </c>
@@ -20270,7 +20766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="23" t="s">
         <v>174</v>
       </c>
@@ -20296,7 +20792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>178</v>
       </c>
@@ -20322,7 +20818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>28</v>
       </c>
@@ -20348,7 +20844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>28</v>
       </c>
@@ -20374,7 +20870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>28</v>
       </c>
@@ -20400,7 +20896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>174</v>
       </c>
@@ -20426,7 +20922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>28</v>
       </c>
@@ -20452,7 +20948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>181</v>
       </c>
@@ -20478,7 +20974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="18" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -20486,7 +20982,7 @@
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
     </row>
-    <row r="104" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D104" s="26"/>
     </row>
   </sheetData>
@@ -20596,25 +21092,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEF117"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:XED264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="24"/>
-    <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="22" style="24"/>
-    <col min="5" max="5" width="5.7109375" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="22" style="1"/>
+    <col min="5" max="5" width="5.6640625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="47" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16360" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16358" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
@@ -20629,199 +21127,199 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:16360" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+    <row r="2" spans="1:16358" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
-    <row r="3" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="32">
         <v>2018</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="32">
         <v>2018</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="32">
         <v>2018</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16360" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="40">
         <v>2017</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16360" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="40">
         <v>2017</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16360" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="39">
         <v>2019</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="32">
         <v>1</v>
       </c>
       <c r="F13" s="7"/>
@@ -37177,1678 +37675,4259 @@
       <c r="XEB13" s="7"/>
       <c r="XEC13" s="7"/>
       <c r="XED13" s="7"/>
-      <c r="XEE13" s="7"/>
-      <c r="XEF13" s="7"/>
     </row>
-    <row r="14" spans="1:16360" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16360" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:16358" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16360" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:16358" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+    <row r="33" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+    <row r="36" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" s="46" t="s">
+    <row r="37" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="37">
         <v>2018</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
+    <row r="42" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+    <row r="43" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="37">
         <v>2017</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
         <v>172</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="37">
         <v>2019</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+    <row r="45" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="37">
         <v>2018</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+    <row r="46" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="37">
         <v>2018</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="35" t="s">
         <v>168</v>
       </c>
       <c r="D47" s="27">
         <v>2018</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="32">
         <v>2019</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
+    <row r="50" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="36" t="s">
         <v>195</v>
       </c>
       <c r="D50" s="27">
         <v>2019</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+    <row r="51" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46" t="s">
+    <row r="52" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+    <row r="53" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="37">
         <v>2018</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+    <row r="54" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="37">
         <v>2018</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" s="46" t="s">
+    <row r="55" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="35" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="27">
         <v>2018</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="46" t="s">
+    <row r="56" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="B57" s="46" t="s">
+    <row r="57" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="B58" s="46" t="s">
+    <row r="58" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E58" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
+    <row r="59" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="35" t="s">
         <v>162</v>
       </c>
       <c r="D59" s="27">
         <v>2019</v>
       </c>
-      <c r="E59" s="36">
+      <c r="E59" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
+    <row r="60" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E60" s="36">
+      <c r="E60" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
+    <row r="61" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
+    <row r="62" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
+    <row r="63" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+    <row r="64" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+    <row r="65" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
+    <row r="66" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E66" s="36">
+      <c r="E66" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
+    <row r="67" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E67" s="36">
+      <c r="E67" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+    <row r="68" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="37">
         <v>2018</v>
       </c>
-      <c r="E68" s="42">
+      <c r="E68" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
+    <row r="69" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="C69" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E69" s="36">
+      <c r="E69" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
+    <row r="70" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="44" t="s">
         <v>160</v>
       </c>
       <c r="D70" s="27">
         <v>2019</v>
       </c>
-      <c r="E70" s="36">
+      <c r="E70" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+    <row r="71" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="37">
         <v>2018</v>
       </c>
-      <c r="E71" s="42">
+      <c r="E71" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+    <row r="72" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="37">
         <v>2018</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+    <row r="73" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="35">
+      <c r="D73" s="31">
         <v>2018</v>
       </c>
-      <c r="E73" s="42">
+      <c r="E73" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
+    <row r="74" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="C74" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="35">
+      <c r="D74" s="31">
         <v>2018</v>
       </c>
-      <c r="E74" s="42">
+      <c r="E74" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41" t="s">
+    <row r="75" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="41">
+      <c r="D75" s="37">
         <v>2018</v>
       </c>
-      <c r="E75" s="42">
+      <c r="E75" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+    <row r="76" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="41">
+      <c r="D76" s="37">
         <v>2018</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
+    <row r="77" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D77" s="41">
+      <c r="D77" s="37">
         <v>2018</v>
       </c>
-      <c r="E77" s="42">
+      <c r="E77" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+    <row r="78" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="41">
+      <c r="D78" s="37">
         <v>2018</v>
       </c>
-      <c r="E78" s="42">
+      <c r="E78" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="41" t="s">
+    <row r="79" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="41">
+      <c r="D79" s="37">
         <v>2017</v>
       </c>
-      <c r="E79" s="36">
+      <c r="E79" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
+    <row r="80" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="35">
+      <c r="D80" s="31">
         <v>2018</v>
       </c>
-      <c r="E80" s="42">
+      <c r="E80" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="41" t="s">
+    <row r="81" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C81" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E81" s="36">
+      <c r="E81" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+    <row r="82" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E82" s="36">
+      <c r="E82" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="41" t="s">
+    <row r="83" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E83" s="36">
+      <c r="E83" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
+    <row r="84" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E84" s="36">
+      <c r="E84" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+    <row r="85" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B85" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="36" t="s">
         <v>94</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="36">
+      <c r="E85" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
+    <row r="86" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="35" t="s">
         <v>98</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="36">
+      <c r="E86" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="41" t="s">
+    <row r="87" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="36">
+      <c r="E87" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="41" t="s">
+    <row r="88" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E88" s="36">
+      <c r="E88" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="41" t="s">
+    <row r="89" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B89" s="46" t="s">
+      <c r="B89" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C89" s="39" t="s">
+      <c r="C89" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="36">
+      <c r="E89" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="41" t="s">
+    <row r="90" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="39" t="s">
+      <c r="C90" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E90" s="36">
+      <c r="E90" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
+    <row r="91" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="35" t="s">
         <v>104</v>
       </c>
       <c r="D91" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E91" s="36">
+      <c r="E91" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="41" t="s">
+    <row r="92" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E92" s="36">
+      <c r="E92" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
+    <row r="93" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="C93" s="41" t="s">
         <v>197</v>
       </c>
       <c r="D93" s="27">
         <v>2019</v>
       </c>
-      <c r="E93" s="36">
+      <c r="E93" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
+    <row r="94" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="39" t="s">
+      <c r="C94" s="35" t="s">
         <v>119</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E94" s="36">
+      <c r="E94" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36" t="s">
+    <row r="95" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D95" s="36">
+      <c r="D95" s="32">
         <v>2017</v>
       </c>
-      <c r="E95" s="36">
+      <c r="E95" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="41" t="s">
+    <row r="96" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="D96" s="41">
+      <c r="D96" s="37">
         <v>2017</v>
       </c>
-      <c r="E96" s="36">
+      <c r="E96" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="41" t="s">
+    <row r="97" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="47" t="s">
+      <c r="C97" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D97" s="35">
+      <c r="D97" s="31">
         <v>2018</v>
       </c>
-      <c r="E97" s="42">
+      <c r="E97" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="41" t="s">
+    <row r="98" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E98" s="36">
+      <c r="E98" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36" t="s">
+    <row r="99" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="39" t="s">
+      <c r="C99" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="D99" s="36">
+      <c r="D99" s="32">
         <v>2017</v>
       </c>
-      <c r="E99" s="36">
+      <c r="E99" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36" t="s">
+    <row r="100" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="39" t="s">
+      <c r="C100" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D100" s="42">
+      <c r="D100" s="38">
         <v>2018</v>
       </c>
-      <c r="E100" s="42">
+      <c r="E100" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101" s="36" t="s">
+    <row r="101" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C101" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="D101" s="42">
+      <c r="C101" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="38">
         <v>2018</v>
       </c>
-      <c r="E101" s="42">
+      <c r="E101" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36" t="s">
+    <row r="102" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="40" t="s">
+      <c r="C102" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D102" s="38">
+      <c r="D102" s="34">
         <v>2019</v>
       </c>
-      <c r="E102" s="36">
+      <c r="E102" s="32">
         <v>1</v>
       </c>
-      <c r="F102" s="30" t="s">
+    </row>
+    <row r="103" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="34">
+        <v>2019</v>
+      </c>
+      <c r="E103" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" s="34">
+        <v>2019</v>
+      </c>
+      <c r="E104" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="34">
+        <v>2019</v>
+      </c>
+      <c r="E105" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="47" t="s">
         <v>214</v>
       </c>
+      <c r="D106" s="48">
+        <v>2019</v>
+      </c>
+      <c r="E106" s="46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C103" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="38">
-        <v>2019</v>
-      </c>
-      <c r="E103" s="36">
+    <row r="107" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" s="34">
+        <v>2016</v>
+      </c>
+      <c r="E107" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B104" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104" s="38">
-        <v>2019</v>
-      </c>
-      <c r="E104" s="36">
+    <row r="108" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" s="34">
+        <v>2016</v>
+      </c>
+      <c r="E108" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="B105" s="36" t="s">
+    <row r="109" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E109" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E110" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E111" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E112" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E113" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E114" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E115" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E116" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E117" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E118" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E119" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E120" s="32">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AJ120" s="1"/>
+      <c r="AK120" s="1"/>
+      <c r="AL120" s="1"/>
+      <c r="AM120" s="1"/>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
+      <c r="AP120" s="1"/>
+      <c r="AQ120" s="1"/>
+      <c r="AR120" s="1"/>
+      <c r="AS120" s="1"/>
+      <c r="AT120" s="1"/>
+      <c r="AU120" s="1"/>
+      <c r="AV120" s="1"/>
+      <c r="AW120" s="1"/>
+      <c r="AX120" s="1"/>
+      <c r="AY120" s="1"/>
+      <c r="AZ120" s="1"/>
+      <c r="BA120" s="1"/>
+      <c r="BB120" s="1"/>
+      <c r="BC120" s="1"/>
+    </row>
+    <row r="121" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E121" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E122" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E123" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D124" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E124" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E125" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E126" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E127" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D128" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E128" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E129" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E130" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D131" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E131" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D132" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E132" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="D133" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E133" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D134" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E134" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="D135" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E135" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D136" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E136" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D137" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E137" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E138" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B139" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D139" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E139" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D140" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E140" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D141" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E141" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B142" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D142" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E142" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E143" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="D144" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E144" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D145" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E145" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D146" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E146" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D147" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E147" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B148" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D148" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E148" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B149" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D149" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E149" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D150" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E150" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="D151" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E151" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="D152" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E152" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="D153" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E153" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D154" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E154" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D155" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E155" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="D156" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E156" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D157" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E157" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D158" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E158" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B159" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D159" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E159" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="D160" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E160" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B161" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D161" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E161" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="D162" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E162" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E163" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B164" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D164" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E164" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E165" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E166" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E167" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E168" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E169" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E170" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E171" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D172" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E172" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="D173" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E173" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D174" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E174" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="D175" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E175" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D176" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E176" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C177" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D177" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E177" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C178" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D178" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E178" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C179" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="D179" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E179" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C180" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="D180" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E180" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B181" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C181" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D181" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E181" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B182" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C182" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D182" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E182" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C183" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="D183" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E183" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B184" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C184" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D184" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E184" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B185" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C185" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D185" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E185" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B186" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C186" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D186" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E186" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B187" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C187" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D187" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E187" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B188" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C188" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D188" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E188" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B189" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C189" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D189" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E189" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B190" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C190" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D190" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E190" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B191" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C191" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D191" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E191" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B192" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C192" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D192" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E192" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B193" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C193" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D193" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E193" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B194" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C194" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D194" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E194" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B195" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C195" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D195" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E195" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B196" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C196" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D196" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E196" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B197" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C197" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D197" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E197" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B198" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="D198" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E198" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B199" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C199" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="D199" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E199" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B200" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C200" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D200" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E200" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B201" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C201" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D201" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E201" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B202" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C202" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D202" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E202" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B203" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C203" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="D203" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E203" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B204" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C204" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D204" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E204" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B205" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C205" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D205" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E205" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B206" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C206" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D206" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E206" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B207" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C207" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D207" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E207" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B208" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C208" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D208" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E208" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B209" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C209" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D209" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E209" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B210" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C210" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="D210" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E210" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B211" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C211" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="D211" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E211" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B212" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C212" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="D212" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E212" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B213" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C213" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D213" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E213" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B214" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C214" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D214" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E214" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B215" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C215" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="D215" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E215" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B216" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C216" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D216" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E216" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B217" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C217" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="D217" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E217" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B218" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C218" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D218" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E218" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B219" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C219" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D219" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E219" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B220" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C220" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D220" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E220" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B221" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C221" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D221" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E221" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B222" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C222" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="D222" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E222" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B223" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C223" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D223" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E223" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B224" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C224" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="D224" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E224" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B225" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C225" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D225" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E225" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B226" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C226" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="D226" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E226" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B227" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C227" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="D227" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E227" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B228" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C228" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="D228" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E228" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B229" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C229" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="D229" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E229" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B230" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C230" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="D230" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E230" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B231" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C231" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D231" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E231" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B232" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C232" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="D232" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E232" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B233" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C233" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="D233" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E233" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B234" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C234" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="D234" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E234" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B235" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C235" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D235" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E235" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B236" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C236" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="D236" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E236" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B237" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C237" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="D237" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E237" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B238" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C238" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="D238" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E238" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B239" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C239" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="D239" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E239" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B240" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C240" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="D240" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E240" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B241" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C241" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="D241" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E241" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B242" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C242" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="D242" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E242" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B243" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C105" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="D105" s="38">
-        <v>2019</v>
-      </c>
-      <c r="E105" s="36">
+      <c r="C243" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="D243" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E243" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" s="38">
-        <v>2019</v>
-      </c>
-      <c r="E106" s="36">
+    <row r="244" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B244" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C244" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="D244" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E244" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="33"/>
+    <row r="245" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B245" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C245" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="D245" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E245" s="32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="33"/>
+    <row r="246" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B246" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C246" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="D246" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E246" s="32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="33"/>
+    <row r="247" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B247" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C247" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="D247" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E247" s="32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:6" s="18" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="34"/>
+    <row r="248" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B248" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C248" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="D248" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E248" s="32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="111" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="32">
-        <f>SUBTOTAL(9,E3:E110)</f>
-        <v>104</v>
+    <row r="249" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B249" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C249" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D249" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E249" s="32">
+        <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="27" t="s">
+    <row r="250" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B250" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C250" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D250" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E250" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B251" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C251" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="D251" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E251" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B252" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C252" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="D252" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E252" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B253" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C253" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="D253" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E253" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B254" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C254" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="D254" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E254" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B255" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C255" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D255" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E255" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B256" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C256" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="D256" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E256" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E257" s="31">
+        <f>SUBTOTAL(9,E3:E256)</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B258" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="27" t="s">
+    <row r="259" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B113" s="27">
+      <c r="B259" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="27" t="s">
+    <row r="260" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B114" s="27">
+      <c r="B260" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="27" t="s">
+    <row r="261" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B115" s="27">
+      <c r="B261" s="27">
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="27" t="s">
+    <row r="262" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B116" s="27">
+      <c r="B262" s="27">
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="29" t="s">
+    <row r="263" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B263" s="27">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B117" s="28">
-        <f>SUBTOTAL(9,B112:B116)</f>
-        <v>103</v>
+      <c r="B264" s="28">
+        <f>SUBTOTAL(9,B258:B263)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XEF106"/>
+  <autoFilter ref="A1:XED263">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Profe en casa"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
@@ -38956,9 +42035,160 @@
     <hyperlink ref="C101" r:id="rId101"/>
     <hyperlink ref="C83" r:id="rId102"/>
     <hyperlink ref="C85" r:id="rId103"/>
+    <hyperlink ref="C107" r:id="rId104"/>
+    <hyperlink ref="C108" r:id="rId105"/>
+    <hyperlink ref="A108" r:id="rId106" display="https://www.mep.go.cr/educatico/nivel/iii-ciclo"/>
+    <hyperlink ref="A107" r:id="rId107" display="https://www.mep.go.cr/educatico/nivel/educacion-diversificada"/>
+    <hyperlink ref="C109" r:id="rId108"/>
+    <hyperlink ref="C111" r:id="rId109"/>
+    <hyperlink ref="C110" r:id="rId110"/>
+    <hyperlink ref="C112" r:id="rId111"/>
+    <hyperlink ref="C115" r:id="rId112"/>
+    <hyperlink ref="C114" r:id="rId113"/>
+    <hyperlink ref="C113" r:id="rId114"/>
+    <hyperlink ref="C117" r:id="rId115"/>
+    <hyperlink ref="C116" r:id="rId116"/>
+    <hyperlink ref="C119" r:id="rId117"/>
+    <hyperlink ref="C120" r:id="rId118"/>
+    <hyperlink ref="C121" r:id="rId119"/>
+    <hyperlink ref="C122" r:id="rId120"/>
+    <hyperlink ref="C127" r:id="rId121"/>
+    <hyperlink ref="C123" r:id="rId122"/>
+    <hyperlink ref="C124" r:id="rId123"/>
+    <hyperlink ref="C125" r:id="rId124"/>
+    <hyperlink ref="C126" r:id="rId125"/>
+    <hyperlink ref="C128" r:id="rId126"/>
+    <hyperlink ref="C129" r:id="rId127"/>
+    <hyperlink ref="C130" r:id="rId128"/>
+    <hyperlink ref="C131" r:id="rId129"/>
+    <hyperlink ref="C132" r:id="rId130"/>
+    <hyperlink ref="C133" r:id="rId131"/>
+    <hyperlink ref="C134" r:id="rId132"/>
+    <hyperlink ref="C135" r:id="rId133"/>
+    <hyperlink ref="C136" r:id="rId134"/>
+    <hyperlink ref="C137" r:id="rId135"/>
+    <hyperlink ref="C138" r:id="rId136"/>
+    <hyperlink ref="C139" r:id="rId137"/>
+    <hyperlink ref="C140" r:id="rId138"/>
+    <hyperlink ref="C141" r:id="rId139"/>
+    <hyperlink ref="C142" r:id="rId140" display="Hidroestática"/>
+    <hyperlink ref="C148" r:id="rId141"/>
+    <hyperlink ref="C149" r:id="rId142"/>
+    <hyperlink ref="C143" r:id="rId143"/>
+    <hyperlink ref="C144" r:id="rId144"/>
+    <hyperlink ref="C145" r:id="rId145"/>
+    <hyperlink ref="C146" r:id="rId146"/>
+    <hyperlink ref="C147" r:id="rId147"/>
+    <hyperlink ref="C150" r:id="rId148"/>
+    <hyperlink ref="C151" r:id="rId149"/>
+    <hyperlink ref="C152" r:id="rId150"/>
+    <hyperlink ref="C153" r:id="rId151"/>
+    <hyperlink ref="C154" r:id="rId152"/>
+    <hyperlink ref="C162" r:id="rId153"/>
+    <hyperlink ref="C161" r:id="rId154"/>
+    <hyperlink ref="C160" r:id="rId155"/>
+    <hyperlink ref="C155" r:id="rId156"/>
+    <hyperlink ref="C156" r:id="rId157"/>
+    <hyperlink ref="C157" r:id="rId158"/>
+    <hyperlink ref="C158" r:id="rId159"/>
+    <hyperlink ref="C159" r:id="rId160"/>
+    <hyperlink ref="C163" r:id="rId161"/>
+    <hyperlink ref="C164" r:id="rId162"/>
+    <hyperlink ref="C166" r:id="rId163"/>
+    <hyperlink ref="C165" r:id="rId164"/>
+    <hyperlink ref="C167" r:id="rId165"/>
+    <hyperlink ref="C168" r:id="rId166"/>
+    <hyperlink ref="C169" r:id="rId167"/>
+    <hyperlink ref="C170" r:id="rId168"/>
+    <hyperlink ref="C174" r:id="rId169"/>
+    <hyperlink ref="C173" r:id="rId170"/>
+    <hyperlink ref="C172" r:id="rId171"/>
+    <hyperlink ref="C171" r:id="rId172"/>
+    <hyperlink ref="C175" r:id="rId173"/>
+    <hyperlink ref="C176" r:id="rId174"/>
+    <hyperlink ref="C185" r:id="rId175"/>
+    <hyperlink ref="C187" r:id="rId176"/>
+    <hyperlink ref="C186" r:id="rId177"/>
+    <hyperlink ref="C184" r:id="rId178"/>
+    <hyperlink ref="C183" r:id="rId179"/>
+    <hyperlink ref="C182" r:id="rId180"/>
+    <hyperlink ref="C181" r:id="rId181"/>
+    <hyperlink ref="C180" r:id="rId182"/>
+    <hyperlink ref="C179" r:id="rId183"/>
+    <hyperlink ref="C178" r:id="rId184"/>
+    <hyperlink ref="C177" r:id="rId185"/>
+    <hyperlink ref="C195" r:id="rId186"/>
+    <hyperlink ref="C194" r:id="rId187"/>
+    <hyperlink ref="C189" r:id="rId188"/>
+    <hyperlink ref="C188" r:id="rId189"/>
+    <hyperlink ref="C193" r:id="rId190"/>
+    <hyperlink ref="C192" r:id="rId191"/>
+    <hyperlink ref="C191" r:id="rId192"/>
+    <hyperlink ref="C190" r:id="rId193"/>
+    <hyperlink ref="C196" r:id="rId194"/>
+    <hyperlink ref="C198" r:id="rId195"/>
+    <hyperlink ref="C197" r:id="rId196"/>
+    <hyperlink ref="C202" r:id="rId197"/>
+    <hyperlink ref="C201" r:id="rId198"/>
+    <hyperlink ref="C200" r:id="rId199"/>
+    <hyperlink ref="C199" r:id="rId200"/>
+    <hyperlink ref="C203" r:id="rId201"/>
+    <hyperlink ref="C207" r:id="rId202"/>
+    <hyperlink ref="C208" r:id="rId203"/>
+    <hyperlink ref="C204" r:id="rId204"/>
+    <hyperlink ref="C209" r:id="rId205"/>
+    <hyperlink ref="C210" r:id="rId206"/>
+    <hyperlink ref="C211" r:id="rId207"/>
+    <hyperlink ref="C212" r:id="rId208"/>
+    <hyperlink ref="C214" r:id="rId209"/>
+    <hyperlink ref="C213" r:id="rId210"/>
+    <hyperlink ref="C206" r:id="rId211"/>
+    <hyperlink ref="C215" r:id="rId212"/>
+    <hyperlink ref="C216" r:id="rId213"/>
+    <hyperlink ref="C217" r:id="rId214"/>
+    <hyperlink ref="C218" r:id="rId215"/>
+    <hyperlink ref="C205" r:id="rId216"/>
+    <hyperlink ref="C219" r:id="rId217"/>
+    <hyperlink ref="C220" r:id="rId218"/>
+    <hyperlink ref="C221" r:id="rId219"/>
+    <hyperlink ref="C222" r:id="rId220"/>
+    <hyperlink ref="C223" r:id="rId221"/>
+    <hyperlink ref="C224" r:id="rId222"/>
+    <hyperlink ref="C225" r:id="rId223"/>
+    <hyperlink ref="C226" r:id="rId224"/>
+    <hyperlink ref="C227" r:id="rId225"/>
+    <hyperlink ref="C228" r:id="rId226"/>
+    <hyperlink ref="C229" r:id="rId227"/>
+    <hyperlink ref="C230" r:id="rId228"/>
+    <hyperlink ref="C231" r:id="rId229"/>
+    <hyperlink ref="C232" r:id="rId230"/>
+    <hyperlink ref="C233" r:id="rId231"/>
+    <hyperlink ref="C234" r:id="rId232"/>
+    <hyperlink ref="C235" r:id="rId233"/>
+    <hyperlink ref="C236" r:id="rId234"/>
+    <hyperlink ref="C237" r:id="rId235"/>
+    <hyperlink ref="C238" r:id="rId236"/>
+    <hyperlink ref="C239" r:id="rId237"/>
+    <hyperlink ref="C240" r:id="rId238"/>
+    <hyperlink ref="C241" r:id="rId239"/>
+    <hyperlink ref="C242" r:id="rId240"/>
+    <hyperlink ref="C243" r:id="rId241"/>
+    <hyperlink ref="C244" r:id="rId242"/>
+    <hyperlink ref="C245" r:id="rId243"/>
+    <hyperlink ref="C246" r:id="rId244"/>
+    <hyperlink ref="C247" r:id="rId245"/>
+    <hyperlink ref="C248" r:id="rId246"/>
+    <hyperlink ref="C249" r:id="rId247"/>
+    <hyperlink ref="C250" r:id="rId248"/>
+    <hyperlink ref="C251" r:id="rId249"/>
+    <hyperlink ref="C252" r:id="rId250"/>
+    <hyperlink ref="C253" r:id="rId251"/>
+    <hyperlink ref="C254" r:id="rId252"/>
+    <hyperlink ref="C255" r:id="rId253"/>
+    <hyperlink ref="C256" r:id="rId254"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId104"/>
-  <drawing r:id="rId105"/>
+  <pageSetup orientation="portrait" r:id="rId255"/>
+  <drawing r:id="rId256"/>
 </worksheet>
 </file>
--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\ColeccionRecursosGespro\contenido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ColeccionRecursosGespro\contenido\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13332" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="recursos " sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XED$263</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'recursos '!$A$1:$XEI$99</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="462">
   <si>
     <t>Materia</t>
   </si>
@@ -1304,12 +1304,324 @@
   <si>
     <t xml:space="preserve"> Profe en casa</t>
   </si>
+  <si>
+    <t>Palabras claves</t>
+  </si>
+  <si>
+    <t>galería de fotografías, galería, fotografías, imágenes, naturaleza, paisajes, personas, plantas</t>
+  </si>
+  <si>
+    <t>Follow me, inglés, english, aplicación gratuita en inglés, free application for English,   patrones de vocabulario, cvc words, English pronunciation, English vocabulary, following patterns, game, grammar, vocabulario, android, app, apps,</t>
+  </si>
+  <si>
+    <t>Le Marché Aux Verbes, espagnol, temps de verbe en français, tiempos verbales en francés, présent, temps, verbaux,  francés, futur simple, passé composé, conjugación de verbos en francés, conjugaison des verbes en français, android, app, apps, espagnol,</t>
+  </si>
+  <si>
+    <t>Match-Verbal, espagnol, temps de verbe, tiempos verbales, présent, temps, verbaux,  francés, futur simple, passé composé, application éducative, aplicación educativa, conjugación de verbos, conjugaison des verbes, android, app, apps, espagnol</t>
+  </si>
+  <si>
+    <t>leyendas, Costa Rica, Barva, La cascada de la novia, El paso de la Vaca, El diablo del puente, Iztarú, Anayancy y la sabiduría, El misterio, Turrialba, piedra de San Isidro, comprensión lectora, Anancy, Barva, cascada, diablo, iztarú, literarios, misterio, novia, paso, piedra, San Isidro, textos, Turrialba, vaca</t>
+  </si>
+  <si>
+    <t>Kahoot, tics en el aula, tecnología en el aula, mediación pedagógica, plataforma para cuestionarios, manual de Kahoot, cuestionarios en línea, aprender jugando, recursos para docentes, dispositivos móviles, android, app, apps, cuestionarios, encuestas, IOS, juegos</t>
+  </si>
+  <si>
+    <t>Plickers, tics en el aula, uso de tecnología en el aula, realidad aumentada,manual de Plickers, guía para usar Plickers, cuestionarios en línea, aprender jugando, recursos para docentes, dispositivos móviles, android, app, apps, cuestionarios, encuestas, IOS, marcadores</t>
+  </si>
+  <si>
+    <t>Rocking verbs, inglés, english, ejercicios de inglés, free application for English, pronunciación en inglés, irregular verbs, verbos irregulares, grammar, rocking verbs, English pronunciation, following pattenrs, game, android, app, apps, </t>
+  </si>
+  <si>
+    <t>Costa Rica Pura Vida in Many Ways,aplicación gratuita, free application for English, juego educativo, inglés, educational game, english, Costa Rica, Amazing Costa Rica, atracción turística de Costa Rica, tourist attractions of Costa Rica,  amazing, android, app, apps, atracciones turísticas, Costa Rica, english, game, IOS, juego multimedial, </t>
+  </si>
+  <si>
+    <t>Un viaje por Costa Rica, aplicación para español, categorías gramaticales, conjugación verbal, español, español II ciclo, formas de tratamiento, tuteo, ustedeo, voseo, juego educativo, android, app, apps,</t>
+  </si>
+  <si>
+    <t>Olimpiadas matemáticas, educación matemática, matemática, prácticas de olimpíadas matemáticas, IV edición olimpiadas, cuadernillo, cuadernillos matemática, cuadernillos de preparación costarricenses, OLCOMEP, olimpiadas matemática</t>
+  </si>
+  <si>
+    <t>flora and fauna in Costa Rica, android, app, apps, AR, augmented reality, catálogos, Costa Rica, english, fauna, flora, inglés, RA, realidad aumentada</t>
+  </si>
+  <si>
+    <t>Holidays Around the World, android, app, apps, AR, english, holidays, celebrations around the world, inglés, IOS, RA, realidad aumentada, augmented reality, celebrations, Realidad aumentada</t>
+  </si>
+  <si>
+    <t>Aventura de Chantli, android, aplicativo, app, apps, aventura, biocapacidad, chantlí, déficit, estudios sociales, huella ecológica, IOS, juego, marcadores, realidad aumentada, recursos, reserva ecológica</t>
+  </si>
+  <si>
+    <t>Mi historia, mi herencia, app, comidas, patrimonio tangible, RA, símbolos nacionales, vestimentas, danzas, intangible, idioma, monumentos, Costa Rica, marcadores, historia de Costa Rica, estudios sociales, relieve de Costa Rica</t>
+  </si>
+  <si>
+    <r>
+      <t>Sitio de Recursos Liceos Experimentales, english, english resources, recursos Inglés, inglés, Liceos Experimentales Bilingües,  LEBs, g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rupos bilingues</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Krei, afiche, grafitti, meme, historieta, textos no literarios, herramienta para crear historietas, herramienta para hacer memes, herramienta para hacer afiches, herramienta para crear grafitti, android, app, apps, apk, </t>
+  </si>
+  <si>
+    <t>Templo de las mil puertas,aplicación gratuita para matemática, juego educativo, capacidad, conversión de unidades, conversiones, masa, matemática, medición, medidas, peso, longitud, sistema internacional de unidades, android, app, apps,conversiones</t>
+  </si>
+  <si>
+    <t>Sitio de Recursos Guía Sétimo Año, inglés, english, seventh grade, seventh level, english resources, recursos de inglés, recursos de inglés para sétimo año, English resources for seventh grade, recursos Inglés, sétimo, seventh level</t>
+  </si>
+  <si>
+    <t>Sitio de Recursos Guía Inglés Octavo Año, inglés, english, eighth grade, eighth level, english resources, recursos de inglés, recursos de inglés para octavo año, English resources for eighth grade</t>
+  </si>
+  <si>
+    <t>inglés, english, I and II cicles, english resources, recursos de inglés, recursos de inglés para I y II ciclos, English resources for I and II cicles,guia, recursos primaria,</t>
+  </si>
+  <si>
+    <t>Portal de Español mi cuento fantástico, antologías de capacitación para español, I y II ciclos, Español de I y II ciclos, recursos para español de primaria, recursos de español para I y II ciclos, Español, cuento, antología, ADA, Aula Edad, bibliotecas, Choco, colibrí, cuento fantástico, escritura creativa, </t>
+  </si>
+  <si>
+    <t>atube catcher no aparece</t>
+  </si>
+  <si>
+    <t>matricula 2019</t>
+  </si>
+  <si>
+    <r>
+      <t>aplicación gratuita para matemática, cuadEl metiche, rática</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, exponencial, función, funciones, historia del concepto de función, juego educativo, lineal, logarítmica, matemática, el metiche, apk, app, aplicativo</t>
+    </r>
+  </si>
+  <si>
+    <t> decreto N°40862, evaluación diagnóstica, evaluación formativa, prueba de ejecución, prueba escrita, prueba oral, comité de evaluación, orientaciones</t>
+  </si>
+  <si>
+    <t>Orientaciones para los procesos de evaluación de los aprendizajes, español, Piensa en Arte, mediación del español en primaria, I y II ciclos, español de I y II ciclos, clases de Piensa en Arte, arte, colección, escritura creativa, español,</t>
+  </si>
+  <si>
+    <t>Propuesta de Abordaje: ejemplos de planeamiento, Estudios sociales de primaria, estudios sociales, planeamiento didáctico, planeamiento, planeamiento para estudios sociales, ejemplos de planeamiento, I y II ciclos, plantilla de planeamiento didáctico, regiones de Costa Rica</t>
+  </si>
+  <si>
+    <t>Prácticas para bachillerato a tu medida #2, Prueba de bachillerato, bachillerato, bachillerato a tu medida, matemática, biología, ciencias, español, química, estudios sociales, cívica, inglés, francés, secundaria, prácticas, ejercicios, exámenes, bachi</t>
+  </si>
+  <si>
+    <t>Verb´s fair, aplicación gratuita para inglés, free application for English, english, grammar, irregular verbs, verbos irregulares, verbos en inglés, verbs in English, juego educativo, verbos, verbs, android, app, apps, english, grammar, irregular verbs, irregulares, juego,</t>
+  </si>
+  <si>
+    <r>
+      <t>Secretos de la Madre Tierra, conversiones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, distancia, fuerza, geometría, movimiento, números enteros, proporcionalidad</t>
+    </r>
+  </si>
+  <si>
+    <t>Trazando el cuerpo humano, borde, exterior, figuras, geometría, interior, líneas curvas, líneas mixtas, líneas quebradas, líneas rectas</t>
+  </si>
+  <si>
+    <t>La lista de los mandados, cuerpos sólidos, esfera, geometría, prismas, triángulo</t>
+  </si>
+  <si>
+    <r>
+      <t>Interpretando datos, encuesta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, estadística, gráfica de barras, pictograma</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> La búsqueda de la simetría, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>eje de simetría, geometría, homólogos, simetría</t>
+    </r>
+  </si>
+  <si>
+    <t>Rompecabezas, área, figuras geométricas, geometría, perímetro, polígonos</t>
+  </si>
+  <si>
+    <r>
+      <t>Midiendo mi ciudad, área</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, círculo, figuras geométricas, geometría, juego, perímetro, polígono, problemas, radio, sólidos</t>
+    </r>
+  </si>
+  <si>
+    <t>Semejanza y congruencia de triángulos, congruencia, geometría, matemática, octavo año, profe en casa, semejanza, triángulos, triángulos congruentes, triángulos semejantes, vídeo, vídeos, Yency Castro Barrantes</t>
+  </si>
+  <si>
+    <t>Catálogo de Educación Abierta Matemáticas-III Ciclo, adultos, álgebra, bachillerato, educación abierta, geometría, matemática, relaciones y álgebra, Térraba, Ujarrás, Zapandí</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Catálogo de Educación Abierta Matemáticas-Secundaria, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>adultos, álgebra, bachillerato, educación abierta, estadística, funciones, geometría, matemática, probabilidad, recursos, relaciones y álgebra, secundaria</t>
+    </r>
+  </si>
+  <si>
+    <t>Catálogo de Educación Abierta Matemáticas-Primaria, adultos, álgebra, educación abierta, estadística, geometría, medidas, números, primaria, probabilidad, recursos, relaciones y álgebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El hablante en primera persona como recurso coloquial, profe en casa, acercamiento plural, creativo, crítico, lectura,  profe en casa, séptimo año, sétimo año, español, hablante discursivo, función conativa, función expresiva, Milena Ramírez Porras, </t>
+  </si>
+  <si>
+    <t>Oración pasiva, profe en casa oración pasiva, verbo pasivo, complemento agente, oraciones pasivas completas, oraciones pasivas incompletas, oraciones pasivas con "se", grupo nominal, grupo verbal, Milena Ramírez Porras, sétimo año, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruces: herencia no mendeliana (2013), herencia ligada al sexo, herencia no mendeliana, Ericka Muñoz Rodríguez herencia genética, genética, biología, cruce genético, cruces, profe en casa, bachillerato, cruces monohíbridos, undécimo </t>
+  </si>
+  <si>
+    <t> Cruces monohíbridos, profe en casa,  ADN, alelo, biología, cruce, dominancia,  fenotipo, gen,  monohíbridos, gene, genética, genotipo, heterocigota, homocigoto, Mendel, profe en casa, recesividad, herencia mendeliana,fenotipo, gen, gene, genética, genotipo, herencia, heterocigota, homocigoto, Mendel, recesividad, undécimo año, vídeo, vídeos,  Erika Muñoz Rodríguez, </t>
+  </si>
+  <si>
+    <t>oraciones compuestas por subordinación,profe en casa, oraciones subordinadas, subordinadas sustantivas, subordinadas circunstanciales, subordinadas adjetivas, Elki Sibaja Obando, bachillerato, coordinada, oración compuesta,  subordinada, tipos de subordinada, undécimo año, vídeo, vídeos, yuxtaposición</t>
+  </si>
+  <si>
+    <t> Elki Sibaja Obando, oración compuesta, oración compuesta por yuxtaposición, oración coordinada, oración compuesta coordinada, oración yuxtapuesta, producción textual, profe en casa,  vídeo, vídeos, bachillerato, </t>
+  </si>
+  <si>
+    <t>partes de la oración, sustantivo, sustantivos propios, sustantivos comunes, sustantivo común individual, sustantivo común colectivo, accidentes del sustantivo, modificadores del sustantivo, Olga Camacho Bermúdez, profe en casa, modificador del sustantivo, séptimo año, sétimo año, sustantivo, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Partes de la oración, adjetivo y artículo, modificadores del sustantivo, artículo, adjetivo,  profe en casa, partes de la oración, adjetivo calificativo, adjetivo determinativo, artículo definido, artículo indefinido, Olga Camacho Bermúdez, séptimo año, sétimo año, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Respiración celular, glucólisis,  profe en casa, célula, ATP, energía, biomoléculas, proceso catabólico, NAD, NADH, piruvato, ácido pirúvico, glucosa, fructosa, Verny López Nieto, vídeo, vídeos, bachillerato, biología,</t>
+  </si>
+  <si>
+    <t>tabla periódica, profe en casa, notación electrónica, electrones, química, diagrama de moles, diagrama de Moeller, principio de exclusión, regla de Hund, electrón diferenciante, Fabián Mora Granados,elementos químicos,  tabla periódica, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Conceptos básicos de estequiometría,profe en casa, masa molar, masa atómica, número atómico,  masa molecular, partículas elementales, química, estequeometría, Fabián Mora Granado,  masa molar, masa atómica, número atómico, número de avogadro, masa molecular, partículas elementales, química, estequeometría, Fabián Mora Granado, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Conceptos de fuerza y trabajo,  profe en casa, fuerza, trabajo, fuerzas opuestas, dinamómetro, peso, masa, aceleración, fuerza resultante, peso, desplazamiento y distancia, Antonio Cortés Solano, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hidrostática,profe en casa,Arquímedes, principio de Arquímedes, hidrostática, física, empuje hidrostático, natación, fluidos, fuerza de flotación, densidad, fluidos incompresibles, Eliécer Quesada Brenes,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Respiración celular, profe en casa, cadena respiratoria, mitocondria, respiración celular, ciclo de Krebs, Acetil Co enzima A, glucolisis, Verny López Nieto, bachillerato</t>
+  </si>
+  <si>
+    <t>tabla periódica, profe en casa, elemento químico, elementos, equivalencias, isótopos, masa atómica, número atómico, número másico, química, representación de elementos,símbolos,  Roma Mata Apui, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clima de Costa Rica, profe en casa, trópico, zona tórrida, zona ecuatorial, zonas climáticas, zonas climáticas, cambios biogeográficos, factores astronómicos, Marlon Miranda Blanco, vídeo, vídeos, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">colisiones, profe en casa,momento lineal, conservación del momento, transferencia de energía, energía, energía cinética, física, ley de conservación de la energía, Fernando Álvarez Molina,vídeo, vídeos </t>
+  </si>
+  <si>
+    <t>Impulso y momento, profe en casa, impulso, momento, fuerza, ímpetu de un cuerpo, física, Fernando Álvarez Molina, vector, velocidad, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Empleo de letras,  b, v, c, z, s, g, j, h, be,profe en casa, ese, ge, hache, jota, ortografía, escritura de palabras, uso de la b, uso de la v, uso de la c, uso de la z, uso de la s, uso de la g, uso de la j y uso de la h, Leda Picado Navarro, </t>
+  </si>
+  <si>
+    <t>estequiometría, profe en casa, gramos, mol, moles, átomos, moléculas, iones, masa molar, masa molecular, partículas elementales, número de Avogadro, conversiones, química, Fabián Mora Granados, cálculo, ciencias, conversiones,vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>oración impersonal, profe en casa, impersonal eventual, impersonal natural, impersonal típica,  natural, impersonal gramatical, impersonales con se, Minor Fallas Fallas, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>registro del habla, profe en casa, registro culto, registro coloquial, registro técnico, registro literario, estilos del habla, estilo coloquial, técnico, estilo, estilo literario, Olga Camacho Bermúdez,  vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Tabla periódica,profe en casa, química, características físicas, características químicas, elementos químicos, números cuánticos, tabla periódica, orbitales, Schrödinger,  modelo mecánico cuántico, Fabián Mora Granados,vídeo, vídeos  </t>
+  </si>
+  <si>
+    <t>números, operaciones, prioridad de operaciones, profe en casa, sétimo año, vídeo, vídeos, Yency Castro Barrantes, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>German Quirós Quirós, ley de formación, números, profe en casa, secuencias, sétimo año, sucesión, teoría de números, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Visualización espacial, cilindro circular recto, cilindros, décimo año, esferas, geometría, sección circular, vídeo, visualización espacial, secciones planas, círculo, elipse, hipérbola, parábola, Angie Herrera, profe en casa, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Angie Herrera, bachillerato, función cuadrática, función lineal, funciones inversas, profe en casa, restricción de una función, undécimo año, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>álgebra, ecuación, ecuaciones, ecuaciones fraccionarias, ecuaciones literales, Eithel Vega, fraccionaria, literal, octavo año, profe en casa, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>ángulo de depresión, ángulo de elevación, ángulos, noveno año, profe en casa, trigonometría, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>geometría, homotecia, plano cartesiano, profe en casa, puntos homólgos, razón, vídeo, vídeos, Yency Castro Barrantes</t>
+  </si>
+  <si>
+    <t>Productos notables, profe en casa, álgebra, fórmulas notables, octavo año, polinomios, producto notable, profe en casa, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Mínimo múltiplo común y máximo divisor común, profe de casa, divisor, divisores, German Quirós Quirós, máximo divisor común, mínimo múltiplo común, múltiplos, números, primos, profe en casa, sétimo año, teoría de números, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Estimación de áreas de figuras planas no poligonales, áreas, décimo año, estimación, aproximación, figuras planas, geometría, geometría analítica, no polígonos, vídeo,  aproximación de áreas, no poligonales, Carlos Esquivel Villalobos, profe en casa, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Ecuaciones logarítmicas,profe en casa, bachillerato, base 10, disolución, logaritmo, preimágenes, profe en casa, undécimo año, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Aplicando probabilidades para la toma de decisiones, profe en cas, evento, eventos mutuamente excluyentes, Laplace, octavo año, probabilidad, regla de Laplace, toma de decisiones, eventos excluyentes, vídeos, Eithel G. Vega Rodrígueza, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Variables cuantitativas discretas y variables cuantitativas continuas, cuantitativa, estadística, historia, Mariela Jiménez Quesada, profe en casa, sétimo año, variable, variable cuantitativa continua, variable cuantitativa discreta, variables, variables estadísticas, vídeo, vídeos</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leyendas, Costa Rica, Barva, La cascada de la novia, El paso de la Vaca, El diablo del puente, Iztarú, Anayancy y la sabiduría, El misterio, Turrialba, piedra de San Isidro, comprensión lectora, Anancy, Barva, cascada, diablo, iztarú, literarios, misterio, novia, paso, piedra, San Isidro, textos, Turrialba, vaca, interculturalidad, lengua, </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,8 +1673,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1399,8 +1716,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1438,17 +1761,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1473,12 +1785,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1561,12 +1893,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1575,9 +1901,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1609,19 +1932,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1630,13 +1950,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2031,12 +2384,12 @@
   <dimension ref="A1:XEI104"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="6"/>
     <col min="2" max="2" width="22" style="5"/>
@@ -2048,7 +2401,7 @@
     <col min="9" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
@@ -2071,7 +2424,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>181</v>
       </c>
@@ -2097,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>176</v>
       </c>
@@ -2123,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>174</v>
       </c>
@@ -2149,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>180</v>
       </c>
@@ -2175,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>174</v>
       </c>
@@ -2201,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>176</v>
       </c>
@@ -2227,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>176</v>
       </c>
@@ -2253,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>172</v>
       </c>
@@ -2279,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>178</v>
       </c>
@@ -2305,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>178</v>
       </c>
@@ -2331,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>178</v>
       </c>
@@ -18712,7 +19065,7 @@
       <c r="XEH12" s="7"/>
       <c r="XEI12" s="7"/>
     </row>
-    <row r="13" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>178</v>
       </c>
@@ -18738,7 +19091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>176</v>
       </c>
@@ -18764,7 +19117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>176</v>
       </c>
@@ -18790,7 +19143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>189</v>
       </c>
@@ -18816,7 +19169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>173</v>
       </c>
@@ -18842,7 +19195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>173</v>
       </c>
@@ -18868,7 +19221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>173</v>
       </c>
@@ -18894,7 +19247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>173</v>
       </c>
@@ -18920,7 +19273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>188</v>
       </c>
@@ -18946,7 +19299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>188</v>
       </c>
@@ -18972,7 +19325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>188</v>
       </c>
@@ -18998,7 +19351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>177</v>
       </c>
@@ -19024,7 +19377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>177</v>
       </c>
@@ -19050,7 +19403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>174</v>
       </c>
@@ -19076,7 +19429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>173</v>
       </c>
@@ -19102,7 +19455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>188</v>
       </c>
@@ -19128,7 +19481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>188</v>
       </c>
@@ -19154,7 +19507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>173</v>
       </c>
@@ -19180,7 +19533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>188</v>
       </c>
@@ -19206,7 +19559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>173</v>
       </c>
@@ -19232,7 +19585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>180</v>
       </c>
@@ -19258,7 +19611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>180</v>
       </c>
@@ -19284,7 +19637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>181</v>
       </c>
@@ -19310,7 +19663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>179</v>
       </c>
@@ -19336,7 +19689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>180</v>
       </c>
@@ -19362,7 +19715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>177</v>
       </c>
@@ -19388,7 +19741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>188</v>
       </c>
@@ -19414,7 +19767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>181</v>
       </c>
@@ -19440,7 +19793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>181</v>
       </c>
@@ -19466,7 +19819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
@@ -19492,7 +19845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>172</v>
       </c>
@@ -19518,7 +19871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>173</v>
       </c>
@@ -19544,7 +19897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>172</v>
       </c>
@@ -19570,7 +19923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>176</v>
       </c>
@@ -19596,7 +19949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>175</v>
       </c>
@@ -19622,7 +19975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>174</v>
       </c>
@@ -19648,7 +20001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>181</v>
       </c>
@@ -19674,7 +20027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>178</v>
       </c>
@@ -19700,7 +20053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>178</v>
       </c>
@@ -19726,7 +20079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>173</v>
       </c>
@@ -19752,7 +20105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>176</v>
       </c>
@@ -19778,7 +20131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>187</v>
       </c>
@@ -19804,7 +20157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>187</v>
       </c>
@@ -19830,7 +20183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>187</v>
       </c>
@@ -19856,7 +20209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>187</v>
       </c>
@@ -19882,7 +20235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>173</v>
       </c>
@@ -19908,7 +20261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>173</v>
       </c>
@@ -19934,7 +20287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>173</v>
       </c>
@@ -19960,7 +20313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>173</v>
       </c>
@@ -19986,7 +20339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>188</v>
       </c>
@@ -20012,7 +20365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>188</v>
       </c>
@@ -20038,7 +20391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>188</v>
       </c>
@@ -20064,7 +20417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>178</v>
       </c>
@@ -20090,7 +20443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>174</v>
       </c>
@@ -20116,7 +20469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>180</v>
       </c>
@@ -20142,7 +20495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>174</v>
       </c>
@@ -20168,7 +20521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>176</v>
       </c>
@@ -20194,7 +20547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>174</v>
       </c>
@@ -20220,7 +20573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>174</v>
       </c>
@@ -20246,7 +20599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>172</v>
       </c>
@@ -20272,7 +20625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>176</v>
       </c>
@@ -20298,7 +20651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>176</v>
       </c>
@@ -20324,7 +20677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>172</v>
       </c>
@@ -20350,7 +20703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>181</v>
       </c>
@@ -20376,7 +20729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>178</v>
       </c>
@@ -20402,7 +20755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>174</v>
       </c>
@@ -20428,7 +20781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>176</v>
       </c>
@@ -20454,7 +20807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>181</v>
       </c>
@@ -20480,7 +20833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>28</v>
       </c>
@@ -20506,7 +20859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>190</v>
       </c>
@@ -20532,7 +20885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>181</v>
       </c>
@@ -20558,7 +20911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>173</v>
       </c>
@@ -20584,7 +20937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>173</v>
       </c>
@@ -20610,7 +20963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>173</v>
       </c>
@@ -20636,7 +20989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>173</v>
       </c>
@@ -20662,7 +21015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>188</v>
       </c>
@@ -20688,7 +21041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>173</v>
       </c>
@@ -20714,7 +21067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>173</v>
       </c>
@@ -20740,7 +21093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>173</v>
       </c>
@@ -20766,7 +21119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>174</v>
       </c>
@@ -20792,7 +21145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>178</v>
       </c>
@@ -20818,7 +21171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>28</v>
       </c>
@@ -20844,7 +21197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>28</v>
       </c>
@@ -20870,7 +21223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>28</v>
       </c>
@@ -20896,7 +21249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>174</v>
       </c>
@@ -20922,7 +21275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>28</v>
       </c>
@@ -20948,7 +21301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>181</v>
       </c>
@@ -20974,7 +21327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="18" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -20982,7 +21335,7 @@
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
     </row>
-    <row r="104" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="26"/>
     </row>
   </sheetData>
@@ -21093,26 +21446,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:XED264"/>
+  <dimension ref="A1:XED271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomLeft" activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="24"/>
-    <col min="2" max="2" width="17.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="22" style="24"/>
-    <col min="5" max="5" width="5.6640625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="47" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="22" style="1"/>
+    <col min="5" max="5" width="5.7109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="89.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16358" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
@@ -21126,204 +21480,248 @@
         <v>202</v>
       </c>
       <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="2" spans="1:16358" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="30">
         <v>1</v>
       </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="30">
         <v>1</v>
       </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="30">
         <v>1</v>
       </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <v>1</v>
       </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="30">
         <v>1</v>
       </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="30">
         <v>2018</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="35">
         <v>1</v>
       </c>
+      <c r="F8" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="30">
         <v>2018</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="35">
         <v>1</v>
       </c>
+      <c r="F9" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="G9" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="30">
         <v>2018</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="35">
         <v>1</v>
       </c>
+      <c r="F10" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="37">
         <v>2017</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="30">
         <v>1</v>
       </c>
+      <c r="F11" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="37">
         <v>2017</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <v>1</v>
       </c>
+      <c r="F12" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="36">
         <v>2019</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="30">
         <v>1</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -37676,1826 +38074,2178 @@
       <c r="XEC13" s="7"/>
       <c r="XED13" s="7"/>
     </row>
-    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="30">
         <v>1</v>
       </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:16358" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="30">
         <v>1</v>
       </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:16358" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="30">
         <v>1</v>
       </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="30">
         <v>1</v>
       </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="30">
         <v>1</v>
       </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="30">
         <v>1</v>
       </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="30">
         <v>1</v>
       </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="30">
         <v>1</v>
       </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="30">
         <v>1</v>
       </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="30">
         <v>1</v>
       </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="30">
         <v>1</v>
       </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="30">
         <v>1</v>
       </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="30">
         <v>1</v>
       </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="30">
         <v>1</v>
       </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="30">
         <v>1</v>
       </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="30">
         <v>1</v>
       </c>
+      <c r="F29" s="48"/>
+      <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+    <row r="30" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="30">
         <v>1</v>
       </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="30">
         <v>1</v>
       </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="34"/>
     </row>
-    <row r="32" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+    <row r="32" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="30">
         <v>1</v>
       </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="34"/>
     </row>
-    <row r="33" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+    <row r="33" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="30">
         <v>1</v>
       </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="34"/>
     </row>
-    <row r="34" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="30">
         <v>1</v>
       </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="34"/>
     </row>
-    <row r="35" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="30">
         <v>1</v>
       </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="34"/>
     </row>
-    <row r="36" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="30">
         <v>1</v>
       </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="34"/>
     </row>
-    <row r="37" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+    <row r="37" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="34">
         <v>2018</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="35">
         <v>1</v>
       </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="34"/>
     </row>
-    <row r="38" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+    <row r="38" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="30">
         <v>1</v>
       </c>
+      <c r="F38" s="48"/>
+      <c r="G38" s="34"/>
     </row>
-    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="30">
         <v>1</v>
       </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="30">
         <v>1</v>
       </c>
+      <c r="F40" s="48"/>
+      <c r="G40" s="30"/>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="30">
         <v>1</v>
       </c>
+      <c r="F41" s="48"/>
+      <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="37" t="s">
+    <row r="42" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="30">
         <v>1</v>
       </c>
+      <c r="F42" s="48"/>
+      <c r="G42" s="34"/>
     </row>
-    <row r="43" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="34">
         <v>2017</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="30">
         <v>1</v>
       </c>
+      <c r="F43" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="G43" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
         <v>172</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="34">
         <v>2019</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="30">
         <v>1</v>
       </c>
+      <c r="F44" s="48" t="s">
+        <v>461</v>
+      </c>
+      <c r="G44" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
+    <row r="45" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="34">
         <v>2018</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="35">
         <v>1</v>
       </c>
+      <c r="F45" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="G45" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
+    <row r="46" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="34">
         <v>2018</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="35">
         <v>1</v>
       </c>
+      <c r="F46" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="G46" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+    <row r="47" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="32" t="s">
         <v>168</v>
       </c>
       <c r="D47" s="27">
         <v>2018</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="35">
         <v>1</v>
       </c>
+      <c r="F47" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="G47" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="30">
         <v>2019</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="30">
         <v>1</v>
       </c>
+      <c r="F48" s="48"/>
+      <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="30">
         <v>1</v>
       </c>
+      <c r="F49" s="48"/>
+      <c r="G49" s="34"/>
     </row>
-    <row r="50" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="37" t="s">
+    <row r="50" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="33" t="s">
         <v>195</v>
       </c>
       <c r="D50" s="27">
         <v>2019</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="30">
         <v>1</v>
       </c>
+      <c r="F50" s="48"/>
+      <c r="G50" s="52"/>
     </row>
-    <row r="51" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="37" t="s">
+    <row r="51" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="30">
         <v>1</v>
       </c>
+      <c r="F51" s="48"/>
+      <c r="G51" s="34"/>
     </row>
-    <row r="52" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
+    <row r="52" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="30">
         <v>1</v>
       </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="34"/>
     </row>
-    <row r="53" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="37" t="s">
+    <row r="53" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="34">
         <v>2018</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="35">
         <v>1</v>
       </c>
+      <c r="F53" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G53" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="37" t="s">
+    <row r="54" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="34">
         <v>2018</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="35">
         <v>1</v>
       </c>
+      <c r="F54" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="G54" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
+    <row r="55" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="27">
         <v>2018</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="35">
         <v>1</v>
       </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="34"/>
     </row>
-    <row r="56" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+    <row r="56" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="30">
         <v>1</v>
       </c>
+      <c r="F56" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="G56" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+    <row r="57" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="30">
         <v>1</v>
       </c>
+      <c r="F57" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="G57" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="37" t="s">
+    <row r="58" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="30">
         <v>1</v>
       </c>
+      <c r="F58" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G58" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="37" t="s">
+    <row r="59" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="32" t="s">
         <v>162</v>
       </c>
       <c r="D59" s="27">
         <v>2019</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E59" s="30">
         <v>1</v>
       </c>
+      <c r="F59" s="48"/>
+      <c r="G59" s="34"/>
     </row>
-    <row r="60" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
+    <row r="60" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E60" s="30">
         <v>1</v>
       </c>
+      <c r="F60" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G60" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="37" t="s">
+    <row r="61" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="30">
         <v>1</v>
       </c>
+      <c r="F61" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="G61" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="37" t="s">
+    <row r="62" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="30">
         <v>1</v>
       </c>
+      <c r="F62" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G62" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="37" t="s">
+    <row r="63" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="30">
         <v>1</v>
       </c>
+      <c r="F63" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="G63" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
+    <row r="64" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E64" s="30">
         <v>1</v>
       </c>
+      <c r="F64" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="G64" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="37" t="s">
+    <row r="65" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="32">
+      <c r="E65" s="30">
         <v>1</v>
       </c>
+      <c r="F65" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="G65" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
+    <row r="66" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E66" s="30">
         <v>1</v>
       </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="34"/>
     </row>
-    <row r="67" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="37" t="s">
+    <row r="67" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="30">
         <v>1</v>
       </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="34"/>
     </row>
-    <row r="68" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="s">
+    <row r="68" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D68" s="37">
+      <c r="D68" s="34">
         <v>2018</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68" s="35">
         <v>1</v>
       </c>
+      <c r="F68" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="G68" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
+    <row r="69" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E69" s="32">
+      <c r="E69" s="30">
         <v>1</v>
       </c>
+      <c r="F69" s="48"/>
+      <c r="G69" s="34"/>
     </row>
-    <row r="70" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="37" t="s">
+    <row r="70" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="47" t="s">
         <v>160</v>
       </c>
       <c r="D70" s="27">
         <v>2019</v>
       </c>
-      <c r="E70" s="32">
+      <c r="E70" s="30">
         <v>1</v>
       </c>
+      <c r="F70" s="48"/>
+      <c r="G70" s="34"/>
     </row>
-    <row r="71" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="37" t="s">
+    <row r="71" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="34">
         <v>2018</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="35">
         <v>1</v>
       </c>
+      <c r="F71" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G71" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="37" t="s">
+    <row r="72" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D72" s="37">
+      <c r="D72" s="34">
         <v>2018</v>
       </c>
-      <c r="E72" s="38">
+      <c r="E72" s="35">
         <v>1</v>
       </c>
+      <c r="F72" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="G72" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="37" t="s">
+    <row r="73" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="31">
+      <c r="D73" s="29">
         <v>2018</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E73" s="35">
         <v>1</v>
       </c>
+      <c r="F73" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="G73" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="37" t="s">
+    <row r="74" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="31">
+      <c r="D74" s="29">
         <v>2018</v>
       </c>
-      <c r="E74" s="38">
+      <c r="E74" s="35">
         <v>1</v>
       </c>
+      <c r="F74" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="G74" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+    <row r="75" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="37">
+      <c r="D75" s="34">
         <v>2018</v>
       </c>
-      <c r="E75" s="38">
+      <c r="E75" s="35">
         <v>1</v>
       </c>
+      <c r="F75" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="G75" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="37" t="s">
+    <row r="76" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="37">
+      <c r="D76" s="34">
         <v>2018</v>
       </c>
-      <c r="E76" s="38">
+      <c r="E76" s="35">
         <v>1</v>
       </c>
+      <c r="F76" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G76" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+    <row r="77" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D77" s="37">
+      <c r="D77" s="34">
         <v>2018</v>
       </c>
-      <c r="E77" s="38">
+      <c r="E77" s="35">
         <v>1</v>
       </c>
+      <c r="F77" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="G77" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="37" t="s">
+    <row r="78" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="37">
+      <c r="D78" s="34">
         <v>2018</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78" s="35">
         <v>1</v>
       </c>
+      <c r="F78" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="G78" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+    <row r="79" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="37">
+      <c r="D79" s="34">
         <v>2017</v>
       </c>
-      <c r="E79" s="32">
+      <c r="E79" s="30">
         <v>1</v>
       </c>
+      <c r="F79" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="G79" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+    <row r="80" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="31">
+      <c r="D80" s="29">
         <v>2018</v>
       </c>
-      <c r="E80" s="38">
+      <c r="E80" s="35">
         <v>1</v>
       </c>
+      <c r="F80" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="G80" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+    <row r="81" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E81" s="30">
         <v>1</v>
       </c>
+      <c r="F81" s="48"/>
+      <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
+    <row r="82" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E82" s="30">
         <v>1</v>
       </c>
+      <c r="F82" s="48"/>
+      <c r="G82" s="34"/>
     </row>
-    <row r="83" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+    <row r="83" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E83" s="32">
+      <c r="E83" s="30">
         <v>1</v>
       </c>
+      <c r="F83" s="48"/>
+      <c r="G83" s="34"/>
     </row>
-    <row r="84" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="37" t="s">
+    <row r="84" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="42" t="s">
+      <c r="B84" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E84" s="32">
+      <c r="E84" s="30">
         <v>1</v>
       </c>
+      <c r="F84" s="48"/>
+      <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+    <row r="85" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="32">
+      <c r="E85" s="30">
         <v>1</v>
       </c>
+      <c r="F85" s="48"/>
+      <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="37" t="s">
+    <row r="86" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="42" t="s">
+      <c r="B86" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="32" t="s">
         <v>98</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="32">
+      <c r="E86" s="30">
         <v>1</v>
       </c>
+      <c r="F86" s="48"/>
+      <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+    <row r="87" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="32">
+      <c r="E87" s="30">
         <v>1</v>
       </c>
+      <c r="F87" s="48"/>
+      <c r="G87" s="34"/>
     </row>
-    <row r="88" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="37" t="s">
+    <row r="88" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E88" s="32">
+      <c r="E88" s="30">
         <v>1</v>
       </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="34"/>
     </row>
-    <row r="89" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+    <row r="89" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="32">
+      <c r="E89" s="30">
         <v>1</v>
       </c>
+      <c r="F89" s="48"/>
+      <c r="G89" s="34"/>
     </row>
-    <row r="90" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="37" t="s">
+    <row r="90" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E90" s="32">
+      <c r="E90" s="30">
         <v>1</v>
       </c>
+      <c r="F90" s="48"/>
+      <c r="G90" s="34"/>
     </row>
-    <row r="91" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="37" t="s">
+    <row r="91" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="32" t="s">
         <v>104</v>
       </c>
       <c r="D91" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E91" s="32">
+      <c r="E91" s="30">
         <v>1</v>
       </c>
+      <c r="F91" s="48"/>
+      <c r="G91" s="34"/>
     </row>
-    <row r="92" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="37" t="s">
+    <row r="92" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E92" s="32">
+      <c r="E92" s="30">
         <v>1</v>
       </c>
+      <c r="F92" s="48"/>
+      <c r="G92" s="34"/>
     </row>
-    <row r="93" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="37" t="s">
+    <row r="93" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="38" t="s">
         <v>197</v>
       </c>
       <c r="D93" s="27">
         <v>2019</v>
       </c>
-      <c r="E93" s="32">
+      <c r="E93" s="30">
         <v>1</v>
       </c>
+      <c r="F93" s="48"/>
+      <c r="G93" s="34"/>
     </row>
-    <row r="94" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="37" t="s">
+    <row r="94" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B94" s="42" t="s">
+      <c r="B94" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="32" t="s">
         <v>119</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E94" s="32">
+      <c r="E94" s="30">
         <v>1</v>
       </c>
+      <c r="F94" s="48"/>
+      <c r="G94" s="34"/>
     </row>
-    <row r="95" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="32" t="s">
+    <row r="95" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="32" t="s">
+      <c r="B95" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D95" s="32">
+      <c r="D95" s="30">
         <v>2017</v>
       </c>
-      <c r="E95" s="32">
+      <c r="E95" s="30">
         <v>1</v>
       </c>
+      <c r="F95" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="G95" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="37" t="s">
+    <row r="96" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D96" s="37">
+      <c r="D96" s="34">
         <v>2017</v>
       </c>
-      <c r="E96" s="32">
+      <c r="E96" s="30">
         <v>1</v>
       </c>
+      <c r="F96" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G96" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="97" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="37" t="s">
+    <row r="97" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D97" s="31">
+      <c r="D97" s="29">
         <v>2018</v>
       </c>
-      <c r="E97" s="38">
+      <c r="E97" s="35">
         <v>1</v>
       </c>
+      <c r="F97" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="G97" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="98" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="37" t="s">
+    <row r="98" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E98" s="32">
+      <c r="E98" s="30">
         <v>1</v>
       </c>
+      <c r="F98" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="G98" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="99" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
+    <row r="99" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B99" s="32" t="s">
+      <c r="B99" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="D99" s="32">
+      <c r="D99" s="30">
         <v>2017</v>
       </c>
-      <c r="E99" s="32">
+      <c r="E99" s="30">
         <v>1</v>
       </c>
+      <c r="F99" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G99" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="32" t="s">
+    <row r="100" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D100" s="38">
+      <c r="D100" s="35">
         <v>2018</v>
       </c>
-      <c r="E100" s="38">
+      <c r="E100" s="35">
         <v>1</v>
       </c>
+      <c r="F100" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="G100" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="32" t="s">
+    <row r="101" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D101" s="38">
+      <c r="D101" s="35">
         <v>2018</v>
       </c>
-      <c r="E101" s="38">
+      <c r="E101" s="35">
         <v>1</v>
       </c>
+      <c r="F101" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="G101" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="102" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="32" t="s">
+    <row r="102" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="D102" s="34">
+      <c r="D102" s="31">
         <v>2019</v>
       </c>
-      <c r="E102" s="32">
+      <c r="E102" s="30">
         <v>1</v>
       </c>
+      <c r="F102" s="48"/>
+      <c r="G102" s="30"/>
     </row>
-    <row r="103" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="32" t="s">
+    <row r="103" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="34">
+      <c r="D103" s="31">
         <v>2019</v>
       </c>
-      <c r="E103" s="32">
+      <c r="E103" s="30">
         <v>1</v>
       </c>
+      <c r="F103" s="48"/>
+      <c r="G103" s="30"/>
     </row>
-    <row r="104" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="37" t="s">
+    <row r="104" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="D104" s="34">
+      <c r="D104" s="31">
         <v>2019</v>
       </c>
-      <c r="E104" s="32">
+      <c r="E104" s="30">
         <v>1</v>
       </c>
+      <c r="F104" s="48"/>
+      <c r="G104" s="30"/>
     </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="32" t="s">
+    <row r="105" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="34">
+      <c r="D105" s="31">
         <v>2019</v>
       </c>
-      <c r="E105" s="32">
+      <c r="E105" s="30">
         <v>1</v>
       </c>
+      <c r="F105" s="48"/>
+      <c r="G105" s="30"/>
     </row>
-    <row r="106" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="45" t="s">
+    <row r="106" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B106" s="46" t="s">
+      <c r="B106" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="47" t="s">
+      <c r="C106" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="48">
+      <c r="D106" s="44">
         <v>2019</v>
       </c>
-      <c r="E106" s="46">
+      <c r="E106" s="42">
         <v>1</v>
       </c>
+      <c r="F106" s="48"/>
+      <c r="G106" s="30"/>
     </row>
-    <row r="107" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="37" t="s">
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="49" t="s">
+      <c r="C107" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="D107" s="34">
+      <c r="D107" s="31">
         <v>2016</v>
       </c>
-      <c r="E107" s="46">
+      <c r="E107" s="42">
         <v>1</v>
       </c>
+      <c r="F107" s="48"/>
+      <c r="G107" s="30"/>
     </row>
-    <row r="108" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="37" t="s">
+    <row r="108" spans="1:7" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C108" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="D108" s="34">
+      <c r="D108" s="31">
         <v>2016</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="42">
         <v>1</v>
       </c>
+      <c r="F108" s="48"/>
+      <c r="G108" s="30"/>
     </row>
-    <row r="109" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="32" t="s">
+    <row r="109" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="D109" s="34" t="s">
+      <c r="D109" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E109" s="32">
+      <c r="E109" s="30">
         <v>1</v>
       </c>
+      <c r="F109" s="48"/>
+      <c r="G109" s="30"/>
     </row>
-    <row r="110" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="32" t="s">
+    <row r="110" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D110" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E110" s="32">
+      <c r="E110" s="30">
         <v>1</v>
       </c>
+      <c r="F110" s="48"/>
+      <c r="G110" s="30"/>
     </row>
-    <row r="111" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="32" t="s">
+    <row r="111" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B111" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="D111" s="34" t="s">
+      <c r="D111" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E111" s="32">
+      <c r="E111" s="30">
         <v>1</v>
       </c>
+      <c r="F111" s="48"/>
+      <c r="G111" s="30"/>
     </row>
-    <row r="112" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="32" t="s">
+    <row r="112" spans="1:7" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D112" s="34" t="s">
+      <c r="D112" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E112" s="32">
+      <c r="E112" s="30">
         <v>1</v>
       </c>
+      <c r="F112" s="48"/>
+      <c r="G112" s="30"/>
     </row>
-    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="32" t="s">
+    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D113" s="34" t="s">
+      <c r="D113" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E113" s="32">
+      <c r="E113" s="30">
         <v>1</v>
       </c>
+      <c r="F113" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="G113" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="32" t="s">
+    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E114" s="32">
+      <c r="E114" s="30">
         <v>1</v>
       </c>
+      <c r="F114" s="48"/>
+      <c r="G114" s="30"/>
     </row>
-    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="32" t="s">
+    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="34" t="s">
+      <c r="D115" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E115" s="32">
+      <c r="E115" s="30">
         <v>1</v>
       </c>
+      <c r="F115" s="48"/>
+      <c r="G115" s="30"/>
     </row>
-    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="32" t="s">
+    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="50" t="s">
+      <c r="C116" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="34" t="s">
+      <c r="D116" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E116" s="32">
+      <c r="E116" s="30">
         <v>1</v>
       </c>
+      <c r="F116" s="48"/>
+      <c r="G116" s="30"/>
     </row>
-    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="32" t="s">
+    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D117" s="34" t="s">
+      <c r="D117" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E117" s="32">
+      <c r="E117" s="30">
         <v>1</v>
       </c>
+      <c r="F117" s="48"/>
+      <c r="G117" s="30"/>
     </row>
-    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="32" t="s">
+    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B118" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D118" s="34" t="s">
+      <c r="D118" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E118" s="32">
+      <c r="E118" s="30">
         <v>1</v>
       </c>
+      <c r="F118" s="48"/>
+      <c r="G118" s="30"/>
     </row>
-    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="32" t="s">
+    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B119" s="32" t="s">
+      <c r="B119" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="D119" s="34" t="s">
+      <c r="D119" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E119" s="32">
+      <c r="E119" s="30">
         <v>1</v>
       </c>
+      <c r="F119" s="48"/>
+      <c r="G119" s="30"/>
     </row>
-    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="32" t="s">
+    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B120" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D120" s="34" t="s">
+      <c r="D120" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E120" s="32">
+      <c r="E120" s="30">
         <v>1</v>
       </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="34"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -39545,2325 +40295,2745 @@
       <c r="BB120" s="1"/>
       <c r="BC120" s="1"/>
     </row>
-    <row r="121" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="32" t="s">
+    <row r="121" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B121" s="32" t="s">
+      <c r="B121" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D121" s="34" t="s">
+      <c r="D121" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E121" s="32">
+      <c r="E121" s="30">
         <v>1</v>
       </c>
+      <c r="F121" s="48"/>
+      <c r="G121" s="34"/>
     </row>
-    <row r="122" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="32" t="s">
+    <row r="122" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="B122" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C122" s="35" t="s">
+      <c r="C122" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="D122" s="34" t="s">
+      <c r="D122" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E122" s="32">
+      <c r="E122" s="30">
         <v>1</v>
       </c>
+      <c r="F122" s="48"/>
+      <c r="G122" s="34"/>
     </row>
-    <row r="123" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="32" t="s">
+    <row r="123" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="32" t="s">
+      <c r="B123" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E123" s="32">
+      <c r="E123" s="30">
         <v>1</v>
       </c>
+      <c r="F123" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="G123" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="124" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="32" t="s">
+    <row r="124" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B124" s="32" t="s">
+      <c r="B124" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E124" s="32">
+      <c r="E124" s="30">
         <v>1</v>
       </c>
+      <c r="F124" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="G124" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="125" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="32" t="s">
+    <row r="125" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B125" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E125" s="32">
+      <c r="E125" s="30">
         <v>1</v>
       </c>
+      <c r="F125" s="48"/>
+      <c r="G125" s="34"/>
     </row>
-    <row r="126" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="32" t="s">
+    <row r="126" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C126" s="35" t="s">
+      <c r="C126" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D126" s="34" t="s">
+      <c r="D126" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E126" s="32">
+      <c r="E126" s="30">
         <v>1</v>
       </c>
+      <c r="F126" s="48"/>
+      <c r="G126" s="34"/>
     </row>
-    <row r="127" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="32" t="s">
+    <row r="127" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B127" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C127" s="35" t="s">
+      <c r="C127" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D127" s="34" t="s">
+      <c r="D127" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E127" s="32">
+      <c r="E127" s="30">
         <v>1</v>
       </c>
+      <c r="F127" s="48"/>
+      <c r="G127" s="34"/>
     </row>
-    <row r="128" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="39" t="s">
+    <row r="128" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B128" s="39" t="s">
+      <c r="B128" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="35" t="s">
+      <c r="C128" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="D128" s="34" t="s">
+      <c r="D128" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E128" s="32">
+      <c r="E128" s="30">
         <v>1</v>
       </c>
+      <c r="F128" s="48"/>
+      <c r="G128" s="34"/>
     </row>
-    <row r="129" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="39" t="s">
+    <row r="129" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B129" s="39" t="s">
+      <c r="B129" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D129" s="34" t="s">
+      <c r="D129" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E129" s="32">
+      <c r="E129" s="30">
         <v>1</v>
       </c>
+      <c r="F129" s="48"/>
+      <c r="G129" s="34"/>
     </row>
-    <row r="130" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="39" t="s">
+    <row r="130" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B130" s="39" t="s">
+      <c r="B130" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C130" s="35" t="s">
+      <c r="C130" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D130" s="34" t="s">
+      <c r="D130" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E130" s="32">
+      <c r="E130" s="30">
         <v>1</v>
       </c>
+      <c r="F130" s="48"/>
+      <c r="G130" s="34"/>
     </row>
-    <row r="131" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="39" t="s">
+    <row r="131" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="D131" s="34" t="s">
+      <c r="D131" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E131" s="32">
+      <c r="E131" s="30">
         <v>1</v>
       </c>
+      <c r="F131" s="48"/>
+      <c r="G131" s="34"/>
     </row>
-    <row r="132" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="39" t="s">
+    <row r="132" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C132" s="35" t="s">
+      <c r="C132" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D132" s="34" t="s">
+      <c r="D132" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E132" s="32">
+      <c r="E132" s="30">
         <v>1</v>
       </c>
+      <c r="F132" s="48"/>
+      <c r="G132" s="34"/>
     </row>
-    <row r="133" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="39" t="s">
+    <row r="133" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="D133" s="34" t="s">
+      <c r="D133" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E133" s="32">
+      <c r="E133" s="30">
         <v>1</v>
       </c>
+      <c r="F133" s="48"/>
+      <c r="G133" s="34"/>
     </row>
-    <row r="134" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="39" t="s">
+    <row r="134" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="D134" s="34" t="s">
+      <c r="D134" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E134" s="32">
+      <c r="E134" s="30">
         <v>1</v>
       </c>
+      <c r="F134" s="48"/>
+      <c r="G134" s="34"/>
     </row>
-    <row r="135" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="39" t="s">
+    <row r="135" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B135" s="39" t="s">
+      <c r="B135" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C135" s="50" t="s">
+      <c r="C135" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="D135" s="34" t="s">
+      <c r="D135" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E135" s="32">
+      <c r="E135" s="30">
         <v>1</v>
       </c>
+      <c r="F135" s="48"/>
+      <c r="G135" s="34"/>
     </row>
-    <row r="136" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="39" t="s">
+    <row r="136" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="D136" s="34" t="s">
+      <c r="D136" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E136" s="32">
+      <c r="E136" s="30">
         <v>1</v>
       </c>
+      <c r="F136" s="48"/>
+      <c r="G136" s="34"/>
     </row>
-    <row r="137" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="39" t="s">
+    <row r="137" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="D137" s="34" t="s">
+      <c r="D137" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E137" s="32">
+      <c r="E137" s="30">
         <v>1</v>
       </c>
+      <c r="F137" s="48"/>
+      <c r="G137" s="34"/>
     </row>
-    <row r="138" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="39" t="s">
+    <row r="138" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="D138" s="34" t="s">
+      <c r="D138" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E138" s="32">
+      <c r="E138" s="30">
         <v>1</v>
       </c>
+      <c r="F138" s="48"/>
+      <c r="G138" s="34"/>
     </row>
-    <row r="139" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="39" t="s">
+    <row r="139" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="39" t="s">
+      <c r="B139" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C139" s="35" t="s">
+      <c r="C139" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="D139" s="34" t="s">
+      <c r="D139" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E139" s="32">
+      <c r="E139" s="30">
         <v>1</v>
       </c>
+      <c r="F139" s="48"/>
+      <c r="G139" s="34"/>
     </row>
-    <row r="140" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="39" t="s">
+    <row r="140" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="39" t="s">
+      <c r="B140" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C140" s="35" t="s">
+      <c r="C140" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="D140" s="34" t="s">
+      <c r="D140" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E140" s="32">
+      <c r="E140" s="30">
         <v>1</v>
       </c>
+      <c r="F140" s="48"/>
+      <c r="G140" s="34"/>
     </row>
-    <row r="141" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="39" t="s">
+    <row r="141" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B141" s="39" t="s">
+      <c r="B141" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="D141" s="34" t="s">
+      <c r="D141" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E141" s="32">
+      <c r="E141" s="30">
         <v>1</v>
       </c>
+      <c r="F141" s="48"/>
+      <c r="G141" s="34"/>
     </row>
-    <row r="142" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="37" t="s">
+    <row r="142" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="C142" s="35" t="s">
+      <c r="C142" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="D142" s="34" t="s">
+      <c r="D142" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E142" s="32">
+      <c r="E142" s="30">
         <v>1</v>
       </c>
+      <c r="F142" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="G142" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="143" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="37" t="s">
+    <row r="143" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B143" s="39" t="s">
+      <c r="B143" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="D143" s="34" t="s">
+      <c r="D143" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E143" s="32">
+      <c r="E143" s="30">
         <v>1</v>
       </c>
+      <c r="F143" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="G143" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="144" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="32" t="s">
+    <row r="144" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="B144" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="35" t="s">
+      <c r="C144" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D144" s="34" t="s">
+      <c r="D144" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E144" s="32">
+      <c r="E144" s="30">
         <v>1</v>
       </c>
+      <c r="F144" s="48"/>
+      <c r="G144" s="34"/>
     </row>
-    <row r="145" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="32" t="s">
+    <row r="145" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B145" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="D145" s="34" t="s">
+      <c r="D145" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E145" s="32">
+      <c r="E145" s="30">
         <v>1</v>
       </c>
+      <c r="F145" s="48"/>
+      <c r="G145" s="34"/>
     </row>
-    <row r="146" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="32" t="s">
+    <row r="146" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="B146" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="35" t="s">
+      <c r="C146" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="D146" s="34" t="s">
+      <c r="D146" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E146" s="32">
+      <c r="E146" s="30">
         <v>1</v>
       </c>
+      <c r="F146" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="G146" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="147" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="32" t="s">
+    <row r="147" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B147" s="32" t="s">
+      <c r="B147" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="35" t="s">
+      <c r="C147" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="D147" s="34" t="s">
+      <c r="D147" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E147" s="32">
+      <c r="E147" s="30">
         <v>1</v>
       </c>
+      <c r="F147" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="G147" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="148" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="37" t="s">
+    <row r="148" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="35" t="s">
+      <c r="C148" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="D148" s="34" t="s">
+      <c r="D148" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E148" s="32">
+      <c r="E148" s="30">
         <v>1</v>
       </c>
+      <c r="F148" s="48"/>
+      <c r="G148" s="34"/>
     </row>
-    <row r="149" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="37" t="s">
+    <row r="149" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="B149" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="35" t="s">
+      <c r="C149" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D149" s="34" t="s">
+      <c r="D149" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E149" s="32">
+      <c r="E149" s="30">
         <v>1</v>
       </c>
+      <c r="F149" s="48"/>
+      <c r="G149" s="34"/>
     </row>
-    <row r="150" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="37" t="s">
+    <row r="150" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B150" s="39" t="s">
+      <c r="B150" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D150" s="34" t="s">
+      <c r="D150" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E150" s="32">
+      <c r="E150" s="30">
         <v>1</v>
       </c>
+      <c r="F150" s="48"/>
+      <c r="G150" s="34"/>
     </row>
-    <row r="151" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="37" t="s">
+    <row r="151" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B151" s="39" t="s">
+      <c r="B151" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="35" t="s">
+      <c r="C151" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="D151" s="34" t="s">
+      <c r="D151" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E151" s="32">
+      <c r="E151" s="30">
         <v>1</v>
       </c>
+      <c r="F151" s="48"/>
+      <c r="G151" s="34"/>
     </row>
-    <row r="152" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="37" t="s">
+    <row r="152" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B152" s="39" t="s">
+      <c r="B152" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="35" t="s">
+      <c r="C152" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="D152" s="34" t="s">
+      <c r="D152" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E152" s="32">
+      <c r="E152" s="30">
         <v>1</v>
       </c>
+      <c r="F152" s="48"/>
+      <c r="G152" s="34"/>
     </row>
-    <row r="153" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="37" t="s">
+    <row r="153" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="35" t="s">
+      <c r="C153" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="D153" s="34" t="s">
+      <c r="D153" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E153" s="32">
+      <c r="E153" s="30">
         <v>1</v>
       </c>
+      <c r="F153" s="48"/>
+      <c r="G153" s="34"/>
     </row>
-    <row r="154" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="37" t="s">
+    <row r="154" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B154" s="42" t="s">
+      <c r="B154" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="35" t="s">
+      <c r="C154" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="D154" s="34" t="s">
+      <c r="D154" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E154" s="32">
+      <c r="E154" s="30">
         <v>1</v>
       </c>
+      <c r="F154" s="48"/>
+      <c r="G154" s="34"/>
     </row>
-    <row r="155" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="37" t="s">
+    <row r="155" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B155" s="42" t="s">
+      <c r="B155" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="35" t="s">
+      <c r="C155" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="D155" s="34" t="s">
+      <c r="D155" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E155" s="32">
+      <c r="E155" s="30">
         <v>1</v>
       </c>
+      <c r="F155" s="48"/>
+      <c r="G155" s="34"/>
     </row>
-    <row r="156" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="37" t="s">
+    <row r="156" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="42" t="s">
+      <c r="B156" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C156" s="35" t="s">
+      <c r="C156" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="D156" s="34" t="s">
+      <c r="D156" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E156" s="32">
+      <c r="E156" s="30">
         <v>1</v>
       </c>
+      <c r="F156" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="G156" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="157" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="37" t="s">
+    <row r="157" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B157" s="42" t="s">
+      <c r="B157" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="35" t="s">
+      <c r="C157" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="D157" s="34" t="s">
+      <c r="D157" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E157" s="32">
+      <c r="E157" s="30">
         <v>1</v>
       </c>
+      <c r="F157" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="G157" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="158" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="37" t="s">
+    <row r="158" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B158" s="42" t="s">
+      <c r="B158" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="35" t="s">
+      <c r="C158" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="D158" s="34" t="s">
+      <c r="D158" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E158" s="32">
+      <c r="E158" s="30">
         <v>1</v>
       </c>
+      <c r="F158" s="48"/>
+      <c r="G158" s="34"/>
     </row>
-    <row r="159" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="37" t="s">
+    <row r="159" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B159" s="42" t="s">
+      <c r="B159" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="C159" s="35" t="s">
+      <c r="C159" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="D159" s="34" t="s">
+      <c r="D159" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E159" s="32">
+      <c r="E159" s="30">
         <v>1</v>
       </c>
+      <c r="F159" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="G159" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="160" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="37" t="s">
+    <row r="160" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B160" s="42" t="s">
+      <c r="B160" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="C160" s="35" t="s">
+      <c r="C160" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="D160" s="34" t="s">
+      <c r="D160" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E160" s="32">
+      <c r="E160" s="30">
         <v>1</v>
       </c>
+      <c r="F160" s="48"/>
+      <c r="G160" s="34"/>
     </row>
-    <row r="161" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="37" t="s">
+    <row r="161" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B161" s="42" t="s">
+      <c r="B161" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="D161" s="34" t="s">
+      <c r="D161" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E161" s="32">
+      <c r="E161" s="30">
         <v>1</v>
       </c>
+      <c r="F161" s="48"/>
+      <c r="G161" s="34"/>
     </row>
-    <row r="162" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="37" t="s">
+    <row r="162" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B162" s="42" t="s">
+      <c r="B162" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="C162" s="35" t="s">
+      <c r="C162" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="D162" s="34" t="s">
+      <c r="D162" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E162" s="32">
+      <c r="E162" s="30">
         <v>1</v>
       </c>
+      <c r="F162" s="48"/>
+      <c r="G162" s="34"/>
     </row>
-    <row r="163" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="37" t="s">
+    <row r="163" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="B163" s="39" t="s">
+      <c r="B163" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C163" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="D163" s="34" t="s">
+      <c r="D163" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E163" s="32">
+      <c r="E163" s="30">
         <v>1</v>
       </c>
+      <c r="F163" s="48"/>
+      <c r="G163" s="34"/>
     </row>
-    <row r="164" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="37" t="s">
+    <row r="164" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B164" s="42" t="s">
+      <c r="B164" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="35" t="s">
+      <c r="C164" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="D164" s="34" t="s">
+      <c r="D164" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E164" s="32">
+      <c r="E164" s="30">
         <v>1</v>
       </c>
+      <c r="F164" s="48"/>
+      <c r="G164" s="34"/>
     </row>
-    <row r="165" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="37" t="s">
+    <row r="165" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B165" s="42" t="s">
+      <c r="B165" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="36" t="s">
+      <c r="C165" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D165" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E165" s="32">
+      <c r="E165" s="30">
         <v>1</v>
       </c>
+      <c r="F165" s="48"/>
+      <c r="G165" s="34"/>
     </row>
-    <row r="166" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="37" t="s">
+    <row r="166" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B166" s="42" t="s">
+      <c r="B166" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="43" t="s">
+      <c r="C166" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="D166" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E166" s="32">
+      <c r="E166" s="30">
         <v>1</v>
       </c>
+      <c r="F166" s="48"/>
+      <c r="G166" s="34"/>
     </row>
-    <row r="167" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="37" t="s">
+    <row r="167" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B167" s="42" t="s">
+      <c r="B167" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="35" t="s">
+      <c r="C167" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="D167" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E167" s="32">
+      <c r="E167" s="30">
         <v>1</v>
       </c>
+      <c r="F167" s="48"/>
+      <c r="G167" s="34"/>
     </row>
-    <row r="168" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="37" t="s">
+    <row r="168" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="42" t="s">
+      <c r="B168" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C168" s="35" t="s">
+      <c r="C168" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="D168" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E168" s="32">
+      <c r="E168" s="30">
         <v>1</v>
       </c>
+      <c r="F168" s="48"/>
+      <c r="G168" s="34"/>
     </row>
-    <row r="169" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="37" t="s">
+    <row r="169" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="42" t="s">
+      <c r="B169" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C169" s="35" t="s">
+      <c r="C169" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="D169" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E169" s="32">
+      <c r="E169" s="30">
         <v>1</v>
       </c>
+      <c r="F169" s="48"/>
+      <c r="G169" s="34"/>
     </row>
-    <row r="170" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="37" t="s">
+    <row r="170" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B170" s="42" t="s">
+      <c r="B170" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="35" t="s">
+      <c r="C170" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="D170" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E170" s="32">
+      <c r="E170" s="30">
         <v>1</v>
       </c>
+      <c r="F170" s="48"/>
+      <c r="G170" s="34"/>
     </row>
-    <row r="171" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="37" t="s">
+    <row r="171" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B171" s="32" t="s">
+      <c r="B171" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C171" s="35" t="s">
+      <c r="C171" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="D171" s="34" t="s">
+      <c r="D171" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E171" s="32">
+      <c r="E171" s="30">
         <v>1</v>
       </c>
+      <c r="F171" s="48"/>
+      <c r="G171" s="34"/>
     </row>
-    <row r="172" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="37" t="s">
+    <row r="172" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B172" s="32" t="s">
+      <c r="B172" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C172" s="35" t="s">
+      <c r="C172" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D172" s="34" t="s">
+      <c r="D172" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E172" s="32">
+      <c r="E172" s="30">
         <v>1</v>
       </c>
+      <c r="F172" s="48"/>
+      <c r="G172" s="34"/>
     </row>
-    <row r="173" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="32" t="s">
+    <row r="173" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B173" s="32" t="s">
+      <c r="B173" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C173" s="35" t="s">
+      <c r="C173" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D173" s="34" t="s">
+      <c r="D173" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E173" s="32">
+      <c r="E173" s="30">
         <v>1</v>
       </c>
+      <c r="F173" s="48"/>
+      <c r="G173" s="34"/>
     </row>
-    <row r="174" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="37" t="s">
+    <row r="174" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="42" t="s">
+      <c r="B174" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="D174" s="34" t="s">
+      <c r="D174" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E174" s="32">
+      <c r="E174" s="30">
         <v>1</v>
       </c>
+      <c r="F174" s="48"/>
+      <c r="G174" s="34"/>
     </row>
-    <row r="175" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="37" t="s">
+    <row r="175" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="42" t="s">
+      <c r="B175" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C175" s="35" t="s">
+      <c r="C175" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D175" s="34" t="s">
+      <c r="D175" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E175" s="32">
+      <c r="E175" s="30">
         <v>1</v>
       </c>
+      <c r="F175" s="48"/>
+      <c r="G175" s="34"/>
     </row>
-    <row r="176" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="37" t="s">
+    <row r="176" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B176" s="42" t="s">
+      <c r="B176" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C176" s="35" t="s">
+      <c r="C176" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="D176" s="34" t="s">
+      <c r="D176" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E176" s="32">
+      <c r="E176" s="30">
         <v>1</v>
       </c>
+      <c r="F176" s="48"/>
+      <c r="G176" s="34"/>
     </row>
-    <row r="177" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="32" t="s">
+    <row r="177" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B177" s="32" t="s">
+      <c r="B177" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C177" s="35" t="s">
+      <c r="C177" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D177" s="34" t="s">
+      <c r="D177" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E177" s="32">
+      <c r="E177" s="30">
         <v>1</v>
       </c>
+      <c r="F177" s="48"/>
+      <c r="G177" s="34"/>
     </row>
-    <row r="178" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="32" t="s">
+    <row r="178" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B178" s="32" t="s">
+      <c r="B178" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C178" s="35" t="s">
+      <c r="C178" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="D178" s="34" t="s">
+      <c r="D178" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E178" s="32">
+      <c r="E178" s="30">
         <v>1</v>
       </c>
+      <c r="F178" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G178" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="179" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="32" t="s">
+    <row r="179" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="32" t="s">
+      <c r="B179" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C179" s="50" t="s">
+      <c r="C179" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D179" s="34" t="s">
+      <c r="D179" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E179" s="32">
+      <c r="E179" s="30">
         <v>1</v>
       </c>
+      <c r="F179" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G179" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="180" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="32" t="s">
+    <row r="180" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="B180" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C180" s="35" t="s">
+      <c r="C180" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="D180" s="34" t="s">
+      <c r="D180" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E180" s="32">
+      <c r="E180" s="30">
         <v>1</v>
       </c>
+      <c r="F180" s="48"/>
+      <c r="G180" s="34"/>
     </row>
-    <row r="181" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="32" t="s">
+    <row r="181" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B181" s="32" t="s">
+      <c r="B181" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C181" s="35" t="s">
+      <c r="C181" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="D181" s="34" t="s">
+      <c r="D181" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E181" s="32">
+      <c r="E181" s="30">
         <v>1</v>
       </c>
+      <c r="F181" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="G181" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="182" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="32" t="s">
+    <row r="182" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B182" s="32" t="s">
+      <c r="B182" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C182" s="35" t="s">
+      <c r="C182" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="D182" s="34" t="s">
+      <c r="D182" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E182" s="32">
+      <c r="E182" s="30">
         <v>1</v>
       </c>
+      <c r="F182" s="48"/>
+      <c r="G182" s="34"/>
     </row>
-    <row r="183" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="32" t="s">
+    <row r="183" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B183" s="32" t="s">
+      <c r="B183" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C183" s="35" t="s">
+      <c r="C183" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="D183" s="34" t="s">
+      <c r="D183" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E183" s="32">
+      <c r="E183" s="30">
         <v>1</v>
       </c>
+      <c r="F183" s="48"/>
+      <c r="G183" s="34"/>
     </row>
-    <row r="184" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="32" t="s">
+    <row r="184" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B184" s="32" t="s">
+      <c r="B184" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C184" s="35" t="s">
+      <c r="C184" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="D184" s="34" t="s">
+      <c r="D184" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E184" s="32">
+      <c r="E184" s="30">
         <v>1</v>
       </c>
+      <c r="F184" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="G184" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="185" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="32" t="s">
+    <row r="185" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B185" s="32" t="s">
+      <c r="B185" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C185" s="35" t="s">
+      <c r="C185" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="D185" s="34" t="s">
+      <c r="D185" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E185" s="32">
+      <c r="E185" s="30">
         <v>1</v>
       </c>
+      <c r="F185" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="G185" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="186" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="32" t="s">
+    <row r="186" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B186" s="32" t="s">
+      <c r="B186" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C186" s="35" t="s">
+      <c r="C186" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="D186" s="34" t="s">
+      <c r="D186" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E186" s="32">
+      <c r="E186" s="30">
         <v>1</v>
       </c>
+      <c r="F186" s="48"/>
+      <c r="G186" s="34"/>
     </row>
-    <row r="187" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="32" t="s">
+    <row r="187" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B187" s="32" t="s">
+      <c r="B187" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C187" s="35" t="s">
+      <c r="C187" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="D187" s="34" t="s">
+      <c r="D187" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E187" s="32">
+      <c r="E187" s="30">
         <v>1</v>
       </c>
+      <c r="F187" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="G187" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="188" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="32" t="s">
+    <row r="188" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B188" s="32" t="s">
+      <c r="B188" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C188" s="50" t="s">
+      <c r="C188" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="D188" s="34" t="s">
+      <c r="D188" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E188" s="32">
+      <c r="E188" s="30">
         <v>1</v>
       </c>
+      <c r="F188" s="48"/>
+      <c r="G188" s="34"/>
     </row>
-    <row r="189" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="32" t="s">
+    <row r="189" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B189" s="32" t="s">
+      <c r="B189" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C189" s="35" t="s">
+      <c r="C189" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="D189" s="34" t="s">
+      <c r="D189" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E189" s="32">
+      <c r="E189" s="30">
         <v>1</v>
       </c>
+      <c r="F189" s="48"/>
+      <c r="G189" s="34"/>
     </row>
-    <row r="190" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="32" t="s">
+    <row r="190" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B190" s="32" t="s">
+      <c r="B190" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C190" s="35" t="s">
+      <c r="C190" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="D190" s="34" t="s">
+      <c r="D190" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E190" s="32">
+      <c r="E190" s="30">
         <v>1</v>
       </c>
+      <c r="F190" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="G190" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="191" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="32" t="s">
+    <row r="191" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B191" s="32" t="s">
+      <c r="B191" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C191" s="35" t="s">
+      <c r="C191" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="D191" s="34" t="s">
+      <c r="D191" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E191" s="32">
+      <c r="E191" s="30">
         <v>1</v>
       </c>
+      <c r="F191" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="G191" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="192" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="32" t="s">
+    <row r="192" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B192" s="32" t="s">
+      <c r="B192" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C192" s="35" t="s">
+      <c r="C192" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="D192" s="34" t="s">
+      <c r="D192" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E192" s="32">
+      <c r="E192" s="30">
         <v>1</v>
       </c>
+      <c r="F192" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="G192" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="193" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="32" t="s">
+    <row r="193" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="32" t="s">
+      <c r="B193" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C193" s="35" t="s">
+      <c r="C193" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="D193" s="34" t="s">
+      <c r="D193" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E193" s="32">
+      <c r="E193" s="30">
         <v>1</v>
       </c>
+      <c r="F193" s="48"/>
+      <c r="G193" s="34"/>
     </row>
-    <row r="194" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="32" t="s">
+    <row r="194" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B194" s="32" t="s">
+      <c r="B194" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C194" s="35" t="s">
+      <c r="C194" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="D194" s="34" t="s">
+      <c r="D194" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E194" s="32">
+      <c r="E194" s="30">
         <v>1</v>
       </c>
+      <c r="F194" s="48"/>
+      <c r="G194" s="34"/>
     </row>
-    <row r="195" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="32" t="s">
+    <row r="195" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B195" s="32" t="s">
+      <c r="B195" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C195" s="35" t="s">
+      <c r="C195" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="D195" s="34" t="s">
+      <c r="D195" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E195" s="32">
+      <c r="E195" s="30">
         <v>1</v>
       </c>
+      <c r="F195" s="48"/>
+      <c r="G195" s="34"/>
     </row>
-    <row r="196" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="32" t="s">
+    <row r="196" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="B196" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C196" s="35" t="s">
+      <c r="C196" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="D196" s="34" t="s">
+      <c r="D196" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E196" s="32">
+      <c r="E196" s="30">
         <v>1</v>
       </c>
+      <c r="F196" s="48"/>
+      <c r="G196" s="34"/>
     </row>
-    <row r="197" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="37" t="s">
+    <row r="197" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B197" s="42" t="s">
+      <c r="B197" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C197" s="35" t="s">
+      <c r="C197" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="D197" s="34" t="s">
+      <c r="D197" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E197" s="32">
+      <c r="E197" s="30">
         <v>1</v>
       </c>
+      <c r="F197" s="48"/>
+      <c r="G197" s="34"/>
     </row>
-    <row r="198" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="37" t="s">
+    <row r="198" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B198" s="42" t="s">
+      <c r="B198" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C198" s="35" t="s">
+      <c r="C198" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="D198" s="34" t="s">
+      <c r="D198" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E198" s="32">
+      <c r="E198" s="30">
         <v>1</v>
       </c>
+      <c r="F198" s="48"/>
+      <c r="G198" s="34"/>
     </row>
-    <row r="199" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="37" t="s">
+    <row r="199" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B199" s="42" t="s">
+      <c r="B199" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C199" s="35" t="s">
+      <c r="C199" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="D199" s="34" t="s">
+      <c r="D199" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E199" s="32">
+      <c r="E199" s="30">
         <v>1</v>
       </c>
+      <c r="F199" s="48"/>
+      <c r="G199" s="34"/>
     </row>
-    <row r="200" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="37" t="s">
+    <row r="200" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B200" s="42" t="s">
+      <c r="B200" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C200" s="35" t="s">
+      <c r="C200" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="D200" s="34" t="s">
+      <c r="D200" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E200" s="32">
+      <c r="E200" s="30">
         <v>1</v>
       </c>
+      <c r="F200" s="48"/>
+      <c r="G200" s="34"/>
     </row>
-    <row r="201" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="37" t="s">
+    <row r="201" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B201" s="42" t="s">
+      <c r="B201" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C201" s="35" t="s">
+      <c r="C201" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="D201" s="34" t="s">
+      <c r="D201" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E201" s="32">
+      <c r="E201" s="30">
         <v>1</v>
       </c>
+      <c r="F201" s="48"/>
+      <c r="G201" s="34"/>
     </row>
-    <row r="202" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="37" t="s">
+    <row r="202" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B202" s="42" t="s">
+      <c r="B202" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C202" s="35" t="s">
+      <c r="C202" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="D202" s="34" t="s">
+      <c r="D202" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E202" s="32">
+      <c r="E202" s="30">
         <v>1</v>
       </c>
+      <c r="F202" s="48"/>
+      <c r="G202" s="34"/>
     </row>
-    <row r="203" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="37" t="s">
+    <row r="203" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B203" s="42" t="s">
+      <c r="B203" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C203" s="35" t="s">
+      <c r="C203" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="D203" s="34" t="s">
+      <c r="D203" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E203" s="32">
+      <c r="E203" s="30">
         <v>1</v>
       </c>
+      <c r="F203" s="48"/>
+      <c r="G203" s="34"/>
     </row>
-    <row r="204" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="37" t="s">
+    <row r="204" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B204" s="42" t="s">
+      <c r="B204" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C204" s="35" t="s">
+      <c r="C204" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="D204" s="34" t="s">
+      <c r="D204" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E204" s="32">
+      <c r="E204" s="30">
         <v>1</v>
       </c>
+      <c r="F204" s="48"/>
+      <c r="G204" s="34"/>
     </row>
-    <row r="205" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="37" t="s">
+    <row r="205" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B205" s="42" t="s">
+      <c r="B205" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C205" s="35" t="s">
+      <c r="C205" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="D205" s="34" t="s">
+      <c r="D205" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E205" s="32">
+      <c r="E205" s="30">
         <v>1</v>
       </c>
+      <c r="F205" s="48"/>
+      <c r="G205" s="34"/>
     </row>
-    <row r="206" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="37" t="s">
+    <row r="206" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B206" s="42" t="s">
+      <c r="B206" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C206" s="35" t="s">
+      <c r="C206" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="D206" s="34" t="s">
+      <c r="D206" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E206" s="32">
+      <c r="E206" s="30">
         <v>1</v>
       </c>
+      <c r="F206" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="G206" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="207" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="37" t="s">
+    <row r="207" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B207" s="42" t="s">
+      <c r="B207" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C207" s="35" t="s">
+      <c r="C207" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="D207" s="34" t="s">
+      <c r="D207" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E207" s="32">
+      <c r="E207" s="30">
         <v>1</v>
       </c>
+      <c r="F207" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="G207" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="208" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="37" t="s">
+    <row r="208" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B208" s="42" t="s">
+      <c r="B208" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C208" s="35" t="s">
+      <c r="C208" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="D208" s="34" t="s">
+      <c r="D208" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E208" s="32">
+      <c r="E208" s="30">
         <v>1</v>
       </c>
+      <c r="F208" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="G208" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="209" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="37" t="s">
+    <row r="209" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B209" s="42" t="s">
+      <c r="B209" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C209" s="35" t="s">
+      <c r="C209" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="D209" s="34" t="s">
+      <c r="D209" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E209" s="32">
+      <c r="E209" s="30">
         <v>1</v>
       </c>
+      <c r="F209" s="48"/>
+      <c r="G209" s="34"/>
     </row>
-    <row r="210" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="37" t="s">
+    <row r="210" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B210" s="42" t="s">
+      <c r="B210" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C210" s="35" t="s">
+      <c r="C210" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D210" s="34" t="s">
+      <c r="D210" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E210" s="32">
+      <c r="E210" s="30">
         <v>1</v>
       </c>
+      <c r="F210" s="48"/>
+      <c r="G210" s="34"/>
     </row>
-    <row r="211" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="37" t="s">
+    <row r="211" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B211" s="42" t="s">
+      <c r="B211" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C211" s="35" t="s">
+      <c r="C211" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="D211" s="34" t="s">
+      <c r="D211" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E211" s="32">
+      <c r="E211" s="30">
         <v>1</v>
       </c>
+      <c r="F211" s="48"/>
+      <c r="G211" s="34"/>
     </row>
-    <row r="212" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="37" t="s">
+    <row r="212" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B212" s="42" t="s">
+      <c r="B212" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C212" s="35" t="s">
+      <c r="C212" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="D212" s="34" t="s">
+      <c r="D212" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E212" s="32">
+      <c r="E212" s="30">
         <v>1</v>
       </c>
+      <c r="F212" s="48"/>
+      <c r="G212" s="34"/>
     </row>
-    <row r="213" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="37" t="s">
+    <row r="213" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B213" s="42" t="s">
+      <c r="B213" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C213" s="35" t="s">
+      <c r="C213" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="D213" s="34" t="s">
+      <c r="D213" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E213" s="32">
+      <c r="E213" s="30">
         <v>1</v>
       </c>
+      <c r="F213" s="48"/>
+      <c r="G213" s="34"/>
     </row>
-    <row r="214" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="37" t="s">
+    <row r="214" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B214" s="42" t="s">
+      <c r="B214" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C214" s="35" t="s">
+      <c r="C214" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="D214" s="34" t="s">
+      <c r="D214" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E214" s="32">
+      <c r="E214" s="30">
         <v>1</v>
       </c>
+      <c r="F214" s="48"/>
+      <c r="G214" s="34"/>
     </row>
-    <row r="215" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="37" t="s">
+    <row r="215" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B215" s="42" t="s">
+      <c r="B215" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C215" s="35" t="s">
+      <c r="C215" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="D215" s="34" t="s">
+      <c r="D215" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E215" s="32">
+      <c r="E215" s="30">
         <v>1</v>
       </c>
+      <c r="F215" s="48"/>
+      <c r="G215" s="34"/>
     </row>
-    <row r="216" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="37" t="s">
+    <row r="216" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B216" s="42" t="s">
+      <c r="B216" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C216" s="35" t="s">
+      <c r="C216" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="D216" s="34" t="s">
+      <c r="D216" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E216" s="32">
+      <c r="E216" s="30">
         <v>1</v>
       </c>
+      <c r="F216" s="48"/>
+      <c r="G216" s="34"/>
     </row>
-    <row r="217" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="37" t="s">
+    <row r="217" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B217" s="42" t="s">
+      <c r="B217" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C217" s="35" t="s">
+      <c r="C217" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="D217" s="34" t="s">
+      <c r="D217" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E217" s="32">
+      <c r="E217" s="30">
         <v>1</v>
       </c>
+      <c r="F217" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="G217" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="218" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="37" t="s">
+    <row r="218" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B218" s="42" t="s">
+      <c r="B218" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C218" s="35" t="s">
+      <c r="C218" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="D218" s="34" t="s">
+      <c r="D218" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E218" s="32">
+      <c r="E218" s="30">
         <v>1</v>
       </c>
+      <c r="F218" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="G218" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="219" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="37" t="s">
+    <row r="219" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B219" s="42" t="s">
+      <c r="B219" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C219" s="35" t="s">
+      <c r="C219" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="D219" s="34" t="s">
+      <c r="D219" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E219" s="32">
+      <c r="E219" s="30">
         <v>1</v>
       </c>
+      <c r="F219" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="G219" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="220" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="37" t="s">
+    <row r="220" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B220" s="42" t="s">
+      <c r="B220" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C220" s="35" t="s">
+      <c r="C220" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="D220" s="34" t="s">
+      <c r="D220" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E220" s="32">
+      <c r="E220" s="30">
         <v>1</v>
       </c>
+      <c r="F220" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="G220" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="221" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="37" t="s">
+    <row r="221" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B221" s="42" t="s">
+      <c r="B221" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C221" s="35" t="s">
+      <c r="C221" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="D221" s="34" t="s">
+      <c r="D221" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E221" s="32">
+      <c r="E221" s="30">
         <v>1</v>
       </c>
+      <c r="F221" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="G221" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="222" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="37" t="s">
+    <row r="222" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B222" s="42" t="s">
+      <c r="B222" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C222" s="35" t="s">
+      <c r="C222" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="D222" s="34" t="s">
+      <c r="D222" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E222" s="32">
+      <c r="E222" s="30">
         <v>1</v>
       </c>
+      <c r="F222" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="G222" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="223" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="37" t="s">
+    <row r="223" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B223" s="42" t="s">
+      <c r="B223" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C223" s="35" t="s">
+      <c r="C223" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="D223" s="34" t="s">
+      <c r="D223" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E223" s="32">
+      <c r="E223" s="30">
         <v>1</v>
       </c>
+      <c r="F223" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="G223" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="224" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="37" t="s">
+    <row r="224" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B224" s="42" t="s">
+      <c r="B224" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C224" s="35" t="s">
+      <c r="C224" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="D224" s="34" t="s">
+      <c r="D224" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E224" s="32">
+      <c r="E224" s="30">
         <v>1</v>
       </c>
+      <c r="F224" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="G224" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="225" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="37" t="s">
+    <row r="225" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B225" s="42" t="s">
+      <c r="B225" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C225" s="35" t="s">
+      <c r="C225" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="D225" s="34" t="s">
+      <c r="D225" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E225" s="32">
+      <c r="E225" s="30">
         <v>1</v>
       </c>
+      <c r="F225" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="G225" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="226" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="37" t="s">
+    <row r="226" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B226" s="42" t="s">
+      <c r="B226" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C226" s="35" t="s">
+      <c r="C226" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="D226" s="34" t="s">
+      <c r="D226" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E226" s="32">
+      <c r="E226" s="30">
         <v>1</v>
       </c>
+      <c r="F226" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="G226" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="227" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="37" t="s">
+    <row r="227" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B227" s="42" t="s">
+      <c r="B227" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C227" s="35" t="s">
+      <c r="C227" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D227" s="34" t="s">
+      <c r="D227" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E227" s="32">
+      <c r="E227" s="30">
         <v>1</v>
       </c>
+      <c r="F227" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="G227" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="228" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="37" t="s">
+    <row r="228" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B228" s="42" t="s">
+      <c r="B228" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C228" s="35" t="s">
+      <c r="C228" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="D228" s="34" t="s">
+      <c r="D228" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E228" s="32">
+      <c r="E228" s="30">
         <v>1</v>
       </c>
+      <c r="F228" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="G228" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="229" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="37" t="s">
+    <row r="229" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B229" s="42" t="s">
+      <c r="B229" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C229" s="35" t="s">
+      <c r="C229" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="D229" s="34" t="s">
+      <c r="D229" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E229" s="32">
+      <c r="E229" s="30">
         <v>1</v>
       </c>
+      <c r="F229" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="G229" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="230" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="37" t="s">
+    <row r="230" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B230" s="42" t="s">
+      <c r="B230" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C230" s="35" t="s">
+      <c r="C230" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="D230" s="34" t="s">
+      <c r="D230" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E230" s="32">
+      <c r="E230" s="30">
         <v>1</v>
       </c>
+      <c r="F230" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="G230" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="231" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="37" t="s">
+    <row r="231" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B231" s="42" t="s">
+      <c r="B231" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C231" s="43" t="s">
+      <c r="C231" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="D231" s="34" t="s">
+      <c r="D231" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E231" s="32">
+      <c r="E231" s="30">
         <v>1</v>
       </c>
+      <c r="F231" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="G231" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="232" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="37" t="s">
+    <row r="232" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B232" s="42" t="s">
+      <c r="B232" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C232" s="35" t="s">
+      <c r="C232" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="D232" s="34" t="s">
+      <c r="D232" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E232" s="32">
+      <c r="E232" s="30">
         <v>1</v>
       </c>
+      <c r="F232" s="48"/>
+      <c r="G232" s="34"/>
     </row>
-    <row r="233" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="37" t="s">
+    <row r="233" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B233" s="42" t="s">
+      <c r="B233" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C233" s="35" t="s">
+      <c r="C233" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="D233" s="34" t="s">
+      <c r="D233" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E233" s="32">
+      <c r="E233" s="30">
         <v>1</v>
       </c>
+      <c r="F233" s="48"/>
+      <c r="G233" s="34"/>
     </row>
-    <row r="234" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="37" t="s">
+    <row r="234" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B234" s="42" t="s">
+      <c r="B234" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C234" s="35" t="s">
+      <c r="C234" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="D234" s="34" t="s">
+      <c r="D234" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E234" s="32">
+      <c r="E234" s="30">
         <v>1</v>
       </c>
+      <c r="F234" s="48"/>
+      <c r="G234" s="34"/>
     </row>
-    <row r="235" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="37" t="s">
+    <row r="235" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B235" s="42" t="s">
+      <c r="B235" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C235" s="35" t="s">
+      <c r="C235" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="D235" s="34" t="s">
+      <c r="D235" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E235" s="32">
+      <c r="E235" s="30">
         <v>1</v>
       </c>
+      <c r="F235" s="48"/>
+      <c r="G235" s="34"/>
     </row>
-    <row r="236" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="37" t="s">
+    <row r="236" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B236" s="42" t="s">
+      <c r="B236" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C236" s="35" t="s">
+      <c r="C236" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="D236" s="34" t="s">
+      <c r="D236" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E236" s="32">
+      <c r="E236" s="30">
         <v>1</v>
       </c>
+      <c r="F236" s="48"/>
+      <c r="G236" s="34"/>
     </row>
-    <row r="237" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="37" t="s">
+    <row r="237" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B237" s="42" t="s">
+      <c r="B237" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C237" s="35" t="s">
+      <c r="C237" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="D237" s="34" t="s">
+      <c r="D237" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E237" s="32">
+      <c r="E237" s="30">
         <v>1</v>
       </c>
+      <c r="F237" s="48"/>
+      <c r="G237" s="34"/>
     </row>
-    <row r="238" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="37" t="s">
+    <row r="238" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B238" s="42" t="s">
+      <c r="B238" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C238" s="35" t="s">
+      <c r="C238" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="D238" s="34" t="s">
+      <c r="D238" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E238" s="32">
+      <c r="E238" s="30">
         <v>1</v>
       </c>
+      <c r="F238" s="48"/>
+      <c r="G238" s="34"/>
     </row>
-    <row r="239" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="37" t="s">
+    <row r="239" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B239" s="42" t="s">
+      <c r="B239" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C239" s="35" t="s">
+      <c r="C239" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="D239" s="34" t="s">
+      <c r="D239" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E239" s="32">
+      <c r="E239" s="30">
         <v>1</v>
       </c>
+      <c r="F239" s="48"/>
+      <c r="G239" s="34"/>
     </row>
-    <row r="240" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="37" t="s">
+    <row r="240" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B240" s="42" t="s">
+      <c r="B240" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C240" s="35" t="s">
+      <c r="C240" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="D240" s="34" t="s">
+      <c r="D240" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="32">
+      <c r="E240" s="30">
         <v>1</v>
       </c>
+      <c r="F240" s="48"/>
+      <c r="G240" s="34"/>
     </row>
-    <row r="241" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="37" t="s">
+    <row r="241" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B241" s="42" t="s">
+      <c r="B241" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C241" s="35" t="s">
+      <c r="C241" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="D241" s="34" t="s">
+      <c r="D241" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E241" s="32">
+      <c r="E241" s="30">
         <v>1</v>
       </c>
+      <c r="F241" s="48"/>
+      <c r="G241" s="34"/>
     </row>
-    <row r="242" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="37" t="s">
+    <row r="242" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B242" s="42" t="s">
+      <c r="B242" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C242" s="35" t="s">
+      <c r="C242" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="D242" s="34" t="s">
+      <c r="D242" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E242" s="32">
+      <c r="E242" s="30">
         <v>1</v>
       </c>
+      <c r="F242" s="48"/>
+      <c r="G242" s="34"/>
     </row>
-    <row r="243" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="37" t="s">
+    <row r="243" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B243" s="42" t="s">
+      <c r="B243" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C243" s="35" t="s">
+      <c r="C243" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="D243" s="34" t="s">
+      <c r="D243" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E243" s="32">
+      <c r="E243" s="30">
         <v>1</v>
       </c>
+      <c r="F243" s="48"/>
+      <c r="G243" s="34"/>
     </row>
-    <row r="244" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="37" t="s">
+    <row r="244" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B244" s="42" t="s">
+      <c r="B244" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C244" s="35" t="s">
+      <c r="C244" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="D244" s="34" t="s">
+      <c r="D244" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E244" s="32">
+      <c r="E244" s="30">
         <v>1</v>
       </c>
+      <c r="F244" s="48"/>
+      <c r="G244" s="34"/>
     </row>
-    <row r="245" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="37" t="s">
+    <row r="245" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B245" s="42" t="s">
+      <c r="B245" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C245" s="35" t="s">
+      <c r="C245" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="D245" s="34" t="s">
+      <c r="D245" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E245" s="32">
+      <c r="E245" s="30">
         <v>1</v>
       </c>
+      <c r="F245" s="48"/>
+      <c r="G245" s="34"/>
     </row>
-    <row r="246" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="37" t="s">
+    <row r="246" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B246" s="42" t="s">
+      <c r="B246" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C246" s="35" t="s">
+      <c r="C246" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="D246" s="34" t="s">
+      <c r="D246" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E246" s="32">
+      <c r="E246" s="30">
         <v>1</v>
       </c>
+      <c r="F246" s="48"/>
+      <c r="G246" s="34"/>
     </row>
-    <row r="247" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="37" t="s">
+    <row r="247" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B247" s="42" t="s">
+      <c r="B247" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C247" s="35" t="s">
+      <c r="C247" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="D247" s="34" t="s">
+      <c r="D247" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E247" s="32">
+      <c r="E247" s="30">
         <v>1</v>
       </c>
+      <c r="F247" s="48"/>
+      <c r="G247" s="34"/>
     </row>
-    <row r="248" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="37" t="s">
+    <row r="248" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B248" s="42" t="s">
+      <c r="B248" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C248" s="35" t="s">
+      <c r="C248" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="D248" s="34" t="s">
+      <c r="D248" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E248" s="32">
+      <c r="E248" s="30">
         <v>1</v>
       </c>
+      <c r="F248" s="48"/>
+      <c r="G248" s="34"/>
     </row>
-    <row r="249" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="37" t="s">
+    <row r="249" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B249" s="42" t="s">
+      <c r="B249" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C249" s="35" t="s">
+      <c r="C249" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="D249" s="34" t="s">
+      <c r="D249" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E249" s="32">
+      <c r="E249" s="30">
         <v>1</v>
       </c>
+      <c r="F249" s="48"/>
+      <c r="G249" s="34"/>
     </row>
-    <row r="250" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="37" t="s">
+    <row r="250" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B250" s="42" t="s">
+      <c r="B250" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C250" s="35" t="s">
+      <c r="C250" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="D250" s="34" t="s">
+      <c r="D250" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E250" s="32">
+      <c r="E250" s="30">
         <v>1</v>
       </c>
+      <c r="F250" s="48"/>
+      <c r="G250" s="34"/>
     </row>
-    <row r="251" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="37" t="s">
+    <row r="251" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B251" s="42" t="s">
+      <c r="B251" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C251" s="35" t="s">
+      <c r="C251" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="D251" s="34" t="s">
+      <c r="D251" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E251" s="32">
+      <c r="E251" s="30">
         <v>1</v>
       </c>
+      <c r="F251" s="48"/>
+      <c r="G251" s="34"/>
     </row>
-    <row r="252" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="37" t="s">
+    <row r="252" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B252" s="42" t="s">
+      <c r="B252" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C252" s="35" t="s">
+      <c r="C252" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="D252" s="34" t="s">
+      <c r="D252" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E252" s="32">
+      <c r="E252" s="30">
         <v>1</v>
       </c>
+      <c r="F252" s="48"/>
+      <c r="G252" s="34"/>
     </row>
-    <row r="253" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="37" t="s">
+    <row r="253" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B253" s="42" t="s">
+      <c r="B253" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C253" s="35" t="s">
+      <c r="C253" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="D253" s="34" t="s">
+      <c r="D253" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E253" s="32">
+      <c r="E253" s="30">
         <v>1</v>
       </c>
+      <c r="F253" s="48"/>
+      <c r="G253" s="34"/>
     </row>
-    <row r="254" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="37" t="s">
+    <row r="254" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B254" s="42" t="s">
+      <c r="B254" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C254" s="35" t="s">
+      <c r="C254" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="D254" s="34" t="s">
+      <c r="D254" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E254" s="32">
+      <c r="E254" s="30">
         <v>1</v>
       </c>
+      <c r="F254" s="48"/>
+      <c r="G254" s="34"/>
     </row>
-    <row r="255" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="37" t="s">
+    <row r="255" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B255" s="42" t="s">
+      <c r="B255" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C255" s="35" t="s">
+      <c r="C255" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="D255" s="34" t="s">
+      <c r="D255" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E255" s="32">
+      <c r="E255" s="30">
         <v>1</v>
       </c>
+      <c r="F255" s="48"/>
+      <c r="G255" s="34"/>
     </row>
-    <row r="256" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="37" t="s">
+    <row r="256" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B256" s="42" t="s">
+      <c r="B256" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C256" s="35" t="s">
+      <c r="C256" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="D256" s="34" t="s">
+      <c r="D256" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E256" s="32">
+      <c r="E256" s="30">
         <v>1</v>
       </c>
+      <c r="F256" s="48"/>
+      <c r="G256" s="34"/>
     </row>
-    <row r="257" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E257" s="31">
+    <row r="257" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E257" s="53">
         <f>SUBTOTAL(9,E3:E256)</f>
-        <v>148</v>
+        <v>2</v>
+      </c>
+      <c r="G257" s="53">
+        <f>SUM(G2:G256)</f>
+        <v>76</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="27" t="s">
         <v>205</v>
       </c>
@@ -41871,7 +43041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="27" t="s">
         <v>206</v>
       </c>
@@ -41879,7 +43049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="27" t="s">
         <v>207</v>
       </c>
@@ -41887,7 +43057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="27" t="s">
         <v>203</v>
       </c>
@@ -41895,7 +43065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="27" t="s">
         <v>204</v>
       </c>
@@ -41903,7 +43073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="27" t="s">
         <v>223</v>
       </c>
@@ -41911,25 +43081,56 @@
         <v>148</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="29" t="s">
+    <row r="264" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="B264" s="28">
+      <c r="B264" s="60">
         <f>SUBTOTAL(9,B258:B263)</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="267" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="54" t="s">
+        <v>460</v>
+      </c>
+      <c r="B267" s="55"/>
+    </row>
+    <row r="268" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="B268" s="57"/>
+    </row>
+    <row r="269" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="B269" s="57"/>
+    </row>
+    <row r="270" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="58"/>
+      <c r="B270" s="59"/>
+    </row>
+    <row r="271" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="58"/>
+      <c r="B271" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:XED263">
     <filterColumn colId="3">
       <filters>
-        <filter val="Profe en casa"/>
+        <filter val="2016"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
+  <mergeCells count="6">
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>

--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="383">
   <si>
     <t>Materia</t>
   </si>
@@ -1303,6 +1303,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Profe en casa</t>
+  </si>
+  <si>
+    <t>anarquismo, biografías, departamento de Gestión y Producción de Recursos, estado, GESPRO, ideologías, liberalismo, socialcristianismo, socialdemocracia, socialismo</t>
   </si>
 </sst>
 </file>
@@ -21092,13 +21095,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:XED264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="A1:XED264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21127,7 +21129,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:16358" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16358" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>221</v>
       </c>
@@ -21136,7 +21138,7 @@
       <c r="D2" s="52"/>
       <c r="E2" s="53"/>
     </row>
-    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>181</v>
       </c>
@@ -21152,8 +21154,11 @@
       <c r="E3" s="32">
         <v>1</v>
       </c>
+      <c r="F3" s="9" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>176</v>
       </c>
@@ -21170,7 +21175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>174</v>
       </c>
@@ -21187,7 +21192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>180</v>
       </c>
@@ -21204,7 +21209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>174</v>
       </c>
@@ -21221,7 +21226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>176</v>
       </c>
@@ -21238,7 +21243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>176</v>
       </c>
@@ -21255,7 +21260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>172</v>
       </c>
@@ -21272,7 +21277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>178</v>
       </c>
@@ -21289,7 +21294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>178</v>
       </c>
@@ -21306,7 +21311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>178</v>
       </c>
@@ -37676,7 +37681,7 @@
       <c r="XEC13" s="7"/>
       <c r="XED13" s="7"/>
     </row>
-    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>178</v>
       </c>
@@ -37693,7 +37698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16358" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16358" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>176</v>
       </c>
@@ -37710,7 +37715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16358" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16358" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>176</v>
       </c>
@@ -37727,7 +37732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>189</v>
       </c>
@@ -37744,7 +37749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>173</v>
       </c>
@@ -37761,7 +37766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>173</v>
       </c>
@@ -37778,7 +37783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>173</v>
       </c>
@@ -37795,7 +37800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>173</v>
       </c>
@@ -37812,7 +37817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>188</v>
       </c>
@@ -37829,7 +37834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>188</v>
       </c>
@@ -37846,7 +37851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>188</v>
       </c>
@@ -37863,7 +37868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>177</v>
       </c>
@@ -37880,7 +37885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>177</v>
       </c>
@@ -37897,7 +37902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>174</v>
       </c>
@@ -37914,7 +37919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>173</v>
       </c>
@@ -37931,7 +37936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
         <v>188</v>
       </c>
@@ -37948,7 +37953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
         <v>188</v>
       </c>
@@ -37965,7 +37970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>173</v>
       </c>
@@ -37982,7 +37987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>188</v>
       </c>
@@ -37999,7 +38004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>173</v>
       </c>
@@ -38016,7 +38021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>180</v>
       </c>
@@ -38033,7 +38038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>180</v>
       </c>
@@ -38050,7 +38055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>181</v>
       </c>
@@ -38067,7 +38072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>217</v>
       </c>
@@ -38084,7 +38089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>180</v>
       </c>
@@ -38101,7 +38106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>177</v>
       </c>
@@ -38118,7 +38123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>188</v>
       </c>
@@ -38135,7 +38140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>181</v>
       </c>
@@ -38152,7 +38157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>181</v>
       </c>
@@ -38169,7 +38174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>181</v>
       </c>
@@ -38186,7 +38191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>172</v>
       </c>
@@ -38203,7 +38208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>173</v>
       </c>
@@ -38220,7 +38225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>172</v>
       </c>
@@ -38237,7 +38242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>176</v>
       </c>
@@ -38254,7 +38259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>175</v>
       </c>
@@ -38271,7 +38276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>174</v>
       </c>
@@ -38288,7 +38293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
         <v>181</v>
       </c>
@@ -38305,7 +38310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="37" t="s">
         <v>178</v>
       </c>
@@ -38322,7 +38327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="42" t="s">
         <v>178</v>
       </c>
@@ -38339,7 +38344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="37" t="s">
         <v>173</v>
       </c>
@@ -38356,7 +38361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
         <v>176</v>
       </c>
@@ -38373,7 +38378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
         <v>218</v>
       </c>
@@ -38390,7 +38395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="37" t="s">
         <v>218</v>
       </c>
@@ -38407,7 +38412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="37" t="s">
         <v>218</v>
       </c>
@@ -38424,7 +38429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="37" t="s">
         <v>218</v>
       </c>
@@ -38441,7 +38446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="37" t="s">
         <v>173</v>
       </c>
@@ -38458,7 +38463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="37" t="s">
         <v>173</v>
       </c>
@@ -38475,7 +38480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="37" t="s">
         <v>173</v>
       </c>
@@ -38492,7 +38497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="s">
         <v>173</v>
       </c>
@@ -38509,7 +38514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="37" t="s">
         <v>188</v>
       </c>
@@ -38526,7 +38531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="37" t="s">
         <v>188</v>
       </c>
@@ -38543,7 +38548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="37" t="s">
         <v>188</v>
       </c>
@@ -38560,7 +38565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
         <v>178</v>
       </c>
@@ -38577,7 +38582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="37" t="s">
         <v>174</v>
       </c>
@@ -38594,7 +38599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="37" t="s">
         <v>180</v>
       </c>
@@ -38611,7 +38616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="37" t="s">
         <v>174</v>
       </c>
@@ -38628,7 +38633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="37" t="s">
         <v>176</v>
       </c>
@@ -38645,7 +38650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="37" t="s">
         <v>174</v>
       </c>
@@ -38662,7 +38667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="37" t="s">
         <v>174</v>
       </c>
@@ -38679,7 +38684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
         <v>172</v>
       </c>
@@ -38696,7 +38701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>176</v>
       </c>
@@ -38713,7 +38718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>176</v>
       </c>
@@ -38730,7 +38735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
         <v>172</v>
       </c>
@@ -38747,7 +38752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="s">
         <v>181</v>
       </c>
@@ -38764,7 +38769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="37" t="s">
         <v>178</v>
       </c>
@@ -38781,7 +38786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="37" t="s">
         <v>174</v>
       </c>
@@ -38798,7 +38803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="37" t="s">
         <v>176</v>
       </c>
@@ -38815,7 +38820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="37" t="s">
         <v>181</v>
       </c>
@@ -38832,7 +38837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="37" t="s">
         <v>28</v>
       </c>
@@ -38849,7 +38854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="s">
         <v>190</v>
       </c>
@@ -38866,7 +38871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="37" t="s">
         <v>181</v>
       </c>
@@ -38883,7 +38888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="37" t="s">
         <v>173</v>
       </c>
@@ -38900,7 +38905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="37" t="s">
         <v>173</v>
       </c>
@@ -38917,7 +38922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="37" t="s">
         <v>173</v>
       </c>
@@ -38934,7 +38939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="37" t="s">
         <v>173</v>
       </c>
@@ -38951,7 +38956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="37" t="s">
         <v>188</v>
       </c>
@@ -38968,7 +38973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="37" t="s">
         <v>173</v>
       </c>
@@ -38985,7 +38990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="37" t="s">
         <v>173</v>
       </c>
@@ -39002,7 +39007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="37" t="s">
         <v>173</v>
       </c>
@@ -39019,7 +39024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="37" t="s">
         <v>174</v>
       </c>
@@ -39036,7 +39041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="37" t="s">
         <v>178</v>
       </c>
@@ -39053,7 +39058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="32" t="s">
         <v>28</v>
       </c>
@@ -39070,7 +39075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="37" t="s">
         <v>28</v>
       </c>
@@ -39087,7 +39092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="37" t="s">
         <v>28</v>
       </c>
@@ -39104,7 +39109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="37" t="s">
         <v>174</v>
       </c>
@@ -39121,7 +39126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="32" t="s">
         <v>28</v>
       </c>
@@ -39138,7 +39143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="32" t="s">
         <v>181</v>
       </c>
@@ -39155,7 +39160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="32" t="s">
         <v>220</v>
       </c>
@@ -39172,7 +39177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="32" t="s">
         <v>178</v>
       </c>
@@ -39189,7 +39194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
         <v>181</v>
       </c>
@@ -39206,7 +39211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="37" t="s">
         <v>217</v>
       </c>
@@ -39223,7 +39228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
         <v>213</v>
       </c>
@@ -39240,7 +39245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="45" t="s">
         <v>178</v>
       </c>
@@ -39257,7 +39262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="37" t="s">
         <v>227</v>
       </c>
@@ -39274,7 +39279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="9" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="37" t="s">
         <v>226</v>
       </c>
@@ -41857,13 +41862,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E257" s="31">
         <f>SUBTOTAL(9,E3:E256)</f>
-        <v>148</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="27" t="s">
         <v>205</v>
       </c>
@@ -41871,7 +41876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="27" t="s">
         <v>206</v>
       </c>
@@ -41879,7 +41884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="27" t="s">
         <v>207</v>
       </c>
@@ -41887,7 +41892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="27" t="s">
         <v>203</v>
       </c>
@@ -41895,7 +41900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="27" t="s">
         <v>204</v>
       </c>
@@ -41903,7 +41908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="27" t="s">
         <v>223</v>
       </c>
@@ -41917,17 +41922,11 @@
       </c>
       <c r="B264" s="28">
         <f>SUBTOTAL(9,B258:B263)</f>
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XED263">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Profe en casa"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:XED263"/>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>

--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -16,7 +16,7 @@
     <sheet name="COLECCION" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XED$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XED$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'recursos '!$A$1:$XEI$99</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="385">
   <si>
     <t>Materia</t>
   </si>
@@ -1307,6 +1307,12 @@
   <si>
     <t>anarquismo, biografías, departamento de Gestión y Producción de Recursos, estado, GESPRO, ideologías, liberalismo, socialcristianismo, socialdemocracia, socialismo</t>
   </si>
+  <si>
+    <t>Carretica</t>
+  </si>
+  <si>
+    <t>Tecnoaprender</t>
+  </si>
 </sst>
 </file>
 
@@ -1481,7 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1600,9 +1606,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1641,6 +1644,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21095,12 +21108,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XED264"/>
+  <dimension ref="A1:XED266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="A1:XED264"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21130,13 +21143,13 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:16358" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -21287,7 +21300,7 @@
       <c r="C11" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="54">
         <v>2017</v>
       </c>
       <c r="E11" s="32">
@@ -21304,7 +21317,7 @@
       <c r="C12" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="54">
         <v>2017</v>
       </c>
       <c r="E12" s="32">
@@ -21318,7 +21331,7 @@
       <c r="B13" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>191</v>
       </c>
       <c r="D13" s="39">
@@ -37736,7 +37749,7 @@
       <c r="A17" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -37753,7 +37766,7 @@
       <c r="A18" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -37770,7 +37783,7 @@
       <c r="A19" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -37787,7 +37800,7 @@
       <c r="A20" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -37804,7 +37817,7 @@
       <c r="A21" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -37821,7 +37834,7 @@
       <c r="A22" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -37838,7 +37851,7 @@
       <c r="A23" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="35" t="s">
@@ -37855,7 +37868,7 @@
       <c r="A24" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="35" t="s">
@@ -37872,7 +37885,7 @@
       <c r="A25" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -37889,7 +37902,7 @@
       <c r="A26" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -37906,13 +37919,13 @@
       <c r="A27" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="31" t="s">
         <v>203</v>
       </c>
       <c r="E27" s="32">
@@ -37923,7 +37936,7 @@
       <c r="A28" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -37940,7 +37953,7 @@
       <c r="A29" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="35" t="s">
@@ -37957,7 +37970,7 @@
       <c r="A30" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -37974,7 +37987,7 @@
       <c r="A31" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -37991,7 +38004,7 @@
       <c r="A32" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="35" t="s">
@@ -38008,7 +38021,7 @@
       <c r="A33" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="35" t="s">
@@ -38025,7 +38038,7 @@
       <c r="A34" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="35" t="s">
@@ -38042,7 +38055,7 @@
       <c r="A35" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="35" t="s">
@@ -38059,7 +38072,7 @@
       <c r="A36" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -38076,7 +38089,7 @@
       <c r="A37" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>139</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -38096,7 +38109,7 @@
       <c r="B38" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="42" t="s">
         <v>149</v>
       </c>
       <c r="D38" s="31" t="s">
@@ -38161,7 +38174,7 @@
       <c r="A42" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -38178,7 +38191,7 @@
       <c r="A43" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C43" s="35" t="s">
@@ -38195,7 +38208,7 @@
       <c r="A44" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="31" t="s">
         <v>215</v>
       </c>
       <c r="C44" s="35" t="s">
@@ -38212,7 +38225,7 @@
       <c r="A45" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -38229,7 +38242,7 @@
       <c r="A46" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -38246,13 +38259,13 @@
       <c r="A47" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C47" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="31">
         <v>2018</v>
       </c>
       <c r="E47" s="38">
@@ -38276,17 +38289,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B49" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="37" t="s">
+      <c r="C49" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="D49" s="34" t="s">
         <v>204</v>
       </c>
       <c r="E49" s="32">
@@ -38295,16 +38308,16 @@
     </row>
     <row r="50" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="27">
-        <v>2019</v>
+        <v>174</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>204</v>
       </c>
       <c r="E50" s="32">
         <v>1</v>
@@ -38312,30 +38325,30 @@
     </row>
     <row r="51" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>204</v>
+        <v>181</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="31">
+        <v>2019</v>
       </c>
       <c r="E51" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>204</v>
@@ -38345,31 +38358,31 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>46</v>
+      <c r="A53" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="37">
-        <v>2018</v>
-      </c>
-      <c r="E53" s="38">
+        <v>61</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D54" s="37">
         <v>2018</v>
@@ -38380,15 +38393,15 @@
     </row>
     <row r="55" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="27">
+        <v>62</v>
+      </c>
+      <c r="D55" s="37">
         <v>2018</v>
       </c>
       <c r="E55" s="38">
@@ -38399,16 +38412,16 @@
       <c r="A56" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E56" s="32">
+        <v>63</v>
+      </c>
+      <c r="D56" s="31">
+        <v>2018</v>
+      </c>
+      <c r="E56" s="38">
         <v>1</v>
       </c>
     </row>
@@ -38416,11 +38429,11 @@
       <c r="A57" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>203</v>
@@ -38433,11 +38446,11 @@
       <c r="A58" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="31" t="s">
         <v>203</v>
@@ -38448,16 +38461,16 @@
     </row>
     <row r="59" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="27">
-        <v>2019</v>
+        <v>67</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="E59" s="32">
         <v>1</v>
@@ -38467,14 +38480,14 @@
       <c r="A60" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>204</v>
+        <v>162</v>
+      </c>
+      <c r="D60" s="31">
+        <v>2019</v>
       </c>
       <c r="E60" s="32">
         <v>1</v>
@@ -38484,11 +38497,11 @@
       <c r="A61" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>204</v>
@@ -38501,11 +38514,11 @@
       <c r="A62" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>204</v>
@@ -38516,13 +38529,13 @@
     </row>
     <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B63" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="37" t="s">
         <v>204</v>
@@ -38535,11 +38548,11 @@
       <c r="A64" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="37" t="s">
         <v>204</v>
@@ -38552,11 +38565,11 @@
       <c r="A65" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>204</v>
@@ -38567,16 +38580,16 @@
     </row>
     <row r="66" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B66" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>203</v>
+        <v>73</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>204</v>
       </c>
       <c r="E66" s="32">
         <v>1</v>
@@ -38584,13 +38597,13 @@
     </row>
     <row r="67" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>203</v>
@@ -38601,50 +38614,50 @@
     </row>
     <row r="68" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B68" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" s="37">
-        <v>2018</v>
-      </c>
-      <c r="E68" s="38">
+        <v>74</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B69" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E69" s="32">
+        <v>153</v>
+      </c>
+      <c r="D69" s="37">
+        <v>2018</v>
+      </c>
+      <c r="E69" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" s="27">
-        <v>2019</v>
+        <v>174</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="E70" s="32">
         <v>1</v>
@@ -38652,18 +38665,18 @@
     </row>
     <row r="71" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B71" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" s="37">
-        <v>2018</v>
-      </c>
-      <c r="E71" s="38">
+      <c r="C71" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="31">
+        <v>2019</v>
+      </c>
+      <c r="E71" s="32">
         <v>1</v>
       </c>
     </row>
@@ -38671,11 +38684,11 @@
       <c r="A72" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="D72" s="37">
         <v>2018</v>
@@ -38686,15 +38699,15 @@
     </row>
     <row r="73" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>77</v>
+        <v>174</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" s="31">
+        <v>185</v>
+      </c>
+      <c r="D73" s="37">
         <v>2018</v>
       </c>
       <c r="E73" s="38">
@@ -38703,13 +38716,13 @@
     </row>
     <row r="74" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>182</v>
+        <v>172</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="D74" s="31">
         <v>2018</v>
@@ -38722,13 +38735,13 @@
       <c r="A75" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="37">
+      <c r="C75" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="31">
         <v>2018</v>
       </c>
       <c r="E75" s="38">
@@ -38737,13 +38750,13 @@
     </row>
     <row r="76" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D76" s="37">
         <v>2018</v>
@@ -38754,13 +38767,13 @@
     </row>
     <row r="77" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B77" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D77" s="37">
         <v>2018</v>
@@ -38771,13 +38784,13 @@
     </row>
     <row r="78" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="42" t="s">
-        <v>77</v>
+        <v>181</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D78" s="37">
         <v>2018</v>
@@ -38788,64 +38801,64 @@
     </row>
     <row r="79" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B79" s="42" t="s">
-        <v>51</v>
+        <v>178</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D79" s="37">
-        <v>2017</v>
-      </c>
-      <c r="E79" s="32">
+        <v>2018</v>
+      </c>
+      <c r="E79" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B80" s="42" t="s">
-        <v>77</v>
+        <v>174</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="31">
-        <v>2018</v>
-      </c>
-      <c r="E80" s="38">
+        <v>85</v>
+      </c>
+      <c r="D80" s="37">
+        <v>2017</v>
+      </c>
+      <c r="E80" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B81" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="32">
+        <v>83</v>
+      </c>
+      <c r="D81" s="31">
+        <v>2018</v>
+      </c>
+      <c r="E81" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="42" t="s">
-        <v>51</v>
+        <v>181</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>203</v>
@@ -38856,13 +38869,13 @@
     </row>
     <row r="83" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="B83" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D83" s="31" t="s">
         <v>203</v>
@@ -38873,13 +38886,13 @@
     </row>
     <row r="84" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B84" s="42" t="s">
-        <v>77</v>
+        <v>190</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="31" t="s">
         <v>203</v>
@@ -38890,15 +38903,15 @@
     </row>
     <row r="85" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D85" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="31" t="s">
         <v>203</v>
       </c>
       <c r="E85" s="32">
@@ -38909,13 +38922,13 @@
       <c r="A86" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" s="27" t="s">
+      <c r="B86" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="31" t="s">
         <v>203</v>
       </c>
       <c r="E86" s="32">
@@ -38926,13 +38939,13 @@
       <c r="A87" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="27" t="s">
         <v>203</v>
       </c>
       <c r="E87" s="32">
@@ -38943,11 +38956,11 @@
       <c r="A88" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="42" t="s">
-        <v>51</v>
+      <c r="B88" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D88" s="31" t="s">
         <v>203</v>
@@ -38958,13 +38971,13 @@
     </row>
     <row r="89" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D89" s="31" t="s">
         <v>203</v>
@@ -38975,13 +38988,13 @@
     </row>
     <row r="90" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B90" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D90" s="31" t="s">
         <v>203</v>
@@ -38994,13 +39007,13 @@
       <c r="A91" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="31" t="s">
         <v>203</v>
       </c>
       <c r="E91" s="32">
@@ -39011,11 +39024,11 @@
       <c r="A92" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D92" s="31" t="s">
         <v>203</v>
@@ -39026,16 +39039,16 @@
     </row>
     <row r="93" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="27">
-        <v>2019</v>
+      <c r="C93" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="E93" s="32">
         <v>1</v>
@@ -39043,132 +39056,132 @@
     </row>
     <row r="94" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B94" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>203</v>
+        <v>174</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" s="31">
+        <v>2019</v>
       </c>
       <c r="E94" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>138</v>
+    <row r="95" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D95" s="32">
-        <v>2017</v>
+        <v>119</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>203</v>
       </c>
       <c r="E95" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="37" t="s">
+    <row r="96" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C96" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D96" s="37">
+      <c r="C96" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96" s="32">
         <v>2017</v>
       </c>
       <c r="E96" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B97" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="37">
+        <v>2017</v>
+      </c>
+      <c r="E97" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="B98" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D97" s="31">
+      <c r="D98" s="31">
         <v>2018</v>
       </c>
-      <c r="E97" s="38">
+      <c r="E98" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="37" t="s">
+    <row r="99" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B99" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C99" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D99" s="27" t="s">
         <v>203</v>
-      </c>
-      <c r="E98" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D99" s="32">
-        <v>2017</v>
       </c>
       <c r="E99" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="32" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="B100" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C100" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="32">
+        <v>2017</v>
+      </c>
+      <c r="E100" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="35" t="s">
         <v>165</v>
-      </c>
-      <c r="D100" s="38">
-        <v>2018</v>
-      </c>
-      <c r="E100" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>219</v>
       </c>
       <c r="D101" s="38">
         <v>2018</v>
@@ -39177,168 +39190,170 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="38">
+        <v>2018</v>
+      </c>
+      <c r="E102" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B103" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C103" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D102" s="34">
-        <v>2019</v>
-      </c>
-      <c r="E102" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="34">
+      <c r="D103" s="38">
         <v>2019</v>
       </c>
       <c r="E103" s="32">
         <v>1</v>
       </c>
+      <c r="F103" s="55"/>
     </row>
-    <row r="104" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B104" s="42" t="s">
-        <v>139</v>
+    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104" s="34">
+        <v>210</v>
+      </c>
+      <c r="D104" s="38">
         <v>2019</v>
       </c>
       <c r="E104" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="B105" s="32" t="s">
-        <v>51</v>
+    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D105" s="34">
+        <v>211</v>
+      </c>
+      <c r="D105" s="38">
         <v>2019</v>
       </c>
       <c r="E105" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="45" t="s">
+    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" s="38">
+        <v>2019</v>
+      </c>
+      <c r="E106" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B106" s="46" t="s">
+      <c r="B107" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="D107" s="47">
+        <v>2019</v>
+      </c>
+      <c r="E107" s="45">
+        <v>1</v>
+      </c>
+      <c r="F107" s="55"/>
+    </row>
+    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="47" t="s">
+      <c r="C108" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="48">
+      <c r="D108" s="53">
         <v>2019</v>
       </c>
-      <c r="E106" s="46">
+      <c r="E108" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="37" t="s">
+    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B109" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="49" t="s">
+      <c r="C109" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D107" s="34">
+      <c r="D109" s="34">
         <v>2016</v>
       </c>
-      <c r="E107" s="46">
+      <c r="E109" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="37" t="s">
+    <row r="110" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B110" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C110" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="D108" s="34">
+      <c r="D110" s="34">
         <v>2016</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E110" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="32" t="s">
+    <row r="111" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="D109" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="E109" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="E110" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="B111" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D111" s="34" t="s">
         <v>381</v>
@@ -39347,7 +39362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="32" t="s">
         <v>174</v>
       </c>
@@ -39355,7 +39370,7 @@
         <v>31</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D112" s="34" t="s">
         <v>381</v>
@@ -39366,13 +39381,13 @@
     </row>
     <row r="113" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B113" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D113" s="34" t="s">
         <v>381</v>
@@ -39383,13 +39398,13 @@
     </row>
     <row r="114" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B114" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D114" s="34" t="s">
         <v>381</v>
@@ -39406,7 +39421,7 @@
         <v>31</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D115" s="34" t="s">
         <v>381</v>
@@ -39417,13 +39432,13 @@
     </row>
     <row r="116" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B116" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="50" t="s">
-        <v>235</v>
+      <c r="C116" s="35" t="s">
+        <v>233</v>
       </c>
       <c r="D116" s="34" t="s">
         <v>381</v>
@@ -39440,7 +39455,7 @@
         <v>31</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D117" s="34" t="s">
         <v>381</v>
@@ -39456,8 +39471,8 @@
       <c r="B118" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="35" t="s">
-        <v>237</v>
+      <c r="C118" s="49" t="s">
+        <v>235</v>
       </c>
       <c r="D118" s="34" t="s">
         <v>381</v>
@@ -39474,7 +39489,7 @@
         <v>31</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D119" s="34" t="s">
         <v>381</v>
@@ -39483,7 +39498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="32" t="s">
         <v>174</v>
       </c>
@@ -39491,7 +39506,7 @@
         <v>31</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D120" s="34" t="s">
         <v>381</v>
@@ -39499,66 +39514,16 @@
       <c r="E120" s="32">
         <v>1</v>
       </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="V120" s="1"/>
-      <c r="W120" s="1"/>
-      <c r="X120" s="1"/>
-      <c r="Y120" s="1"/>
-      <c r="Z120" s="1"/>
-      <c r="AA120" s="1"/>
-      <c r="AB120" s="1"/>
-      <c r="AC120" s="1"/>
-      <c r="AD120" s="1"/>
-      <c r="AE120" s="1"/>
-      <c r="AF120" s="1"/>
-      <c r="AG120" s="1"/>
-      <c r="AH120" s="1"/>
-      <c r="AI120" s="1"/>
-      <c r="AJ120" s="1"/>
-      <c r="AK120" s="1"/>
-      <c r="AL120" s="1"/>
-      <c r="AM120" s="1"/>
-      <c r="AN120" s="1"/>
-      <c r="AO120" s="1"/>
-      <c r="AP120" s="1"/>
-      <c r="AQ120" s="1"/>
-      <c r="AR120" s="1"/>
-      <c r="AS120" s="1"/>
-      <c r="AT120" s="1"/>
-      <c r="AU120" s="1"/>
-      <c r="AV120" s="1"/>
-      <c r="AW120" s="1"/>
-      <c r="AX120" s="1"/>
-      <c r="AY120" s="1"/>
-      <c r="AZ120" s="1"/>
-      <c r="BA120" s="1"/>
-      <c r="BB120" s="1"/>
-      <c r="BC120" s="1"/>
     </row>
-    <row r="121" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D121" s="34" t="s">
         <v>381</v>
@@ -39567,15 +39532,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:55" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D122" s="34" t="s">
         <v>381</v>
@@ -39583,6 +39548,56 @@
       <c r="E122" s="32">
         <v>1</v>
       </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1"/>
+      <c r="AH122" s="1"/>
+      <c r="AI122" s="1"/>
+      <c r="AJ122" s="1"/>
+      <c r="AK122" s="1"/>
+      <c r="AL122" s="1"/>
+      <c r="AM122" s="1"/>
+      <c r="AN122" s="1"/>
+      <c r="AO122" s="1"/>
+      <c r="AP122" s="1"/>
+      <c r="AQ122" s="1"/>
+      <c r="AR122" s="1"/>
+      <c r="AS122" s="1"/>
+      <c r="AT122" s="1"/>
+      <c r="AU122" s="1"/>
+      <c r="AV122" s="1"/>
+      <c r="AW122" s="1"/>
+      <c r="AX122" s="1"/>
+      <c r="AY122" s="1"/>
+      <c r="AZ122" s="1"/>
+      <c r="BA122" s="1"/>
+      <c r="BB122" s="1"/>
+      <c r="BC122" s="1"/>
     </row>
     <row r="123" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="32" t="s">
@@ -39592,7 +39607,7 @@
         <v>240</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D123" s="34" t="s">
         <v>381</v>
@@ -39609,7 +39624,7 @@
         <v>240</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D124" s="34" t="s">
         <v>381</v>
@@ -39623,10 +39638,10 @@
         <v>180</v>
       </c>
       <c r="B125" s="32" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D125" s="34" t="s">
         <v>381</v>
@@ -39643,7 +39658,7 @@
         <v>240</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D126" s="34" t="s">
         <v>381</v>
@@ -39657,10 +39672,10 @@
         <v>180</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D127" s="34" t="s">
         <v>381</v>
@@ -39670,14 +39685,14 @@
       </c>
     </row>
     <row r="128" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="39" t="s">
+      <c r="A128" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B128" s="39" t="s">
-        <v>106</v>
+      <c r="B128" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D128" s="34" t="s">
         <v>381</v>
@@ -39687,14 +39702,14 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B129" s="39" t="s">
-        <v>106</v>
+      <c r="A129" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D129" s="34" t="s">
         <v>381</v>
@@ -39705,13 +39720,13 @@
     </row>
     <row r="130" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="39" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B130" s="39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D130" s="34" t="s">
         <v>381</v>
@@ -39725,10 +39740,10 @@
         <v>174</v>
       </c>
       <c r="B131" s="39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D131" s="34" t="s">
         <v>381</v>
@@ -39742,10 +39757,10 @@
         <v>174</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C132" s="35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D132" s="34" t="s">
         <v>381</v>
@@ -39759,10 +39774,10 @@
         <v>174</v>
       </c>
       <c r="B133" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D133" s="34" t="s">
         <v>381</v>
@@ -39776,10 +39791,10 @@
         <v>174</v>
       </c>
       <c r="B134" s="39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D134" s="34" t="s">
         <v>381</v>
@@ -39795,8 +39810,8 @@
       <c r="B135" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C135" s="50" t="s">
-        <v>256</v>
+      <c r="C135" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="D135" s="34" t="s">
         <v>381</v>
@@ -39813,7 +39828,7 @@
         <v>111</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D136" s="34" t="s">
         <v>381</v>
@@ -39829,8 +39844,8 @@
       <c r="B137" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C137" s="35" t="s">
-        <v>258</v>
+      <c r="C137" s="49" t="s">
+        <v>256</v>
       </c>
       <c r="D137" s="34" t="s">
         <v>381</v>
@@ -39847,7 +39862,7 @@
         <v>111</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D138" s="34" t="s">
         <v>381</v>
@@ -39861,10 +39876,10 @@
         <v>174</v>
       </c>
       <c r="B139" s="39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D139" s="34" t="s">
         <v>381</v>
@@ -39881,7 +39896,7 @@
         <v>111</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D140" s="34" t="s">
         <v>381</v>
@@ -39898,7 +39913,7 @@
         <v>111</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D141" s="34" t="s">
         <v>381</v>
@@ -39908,14 +39923,14 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="37" t="s">
-        <v>180</v>
+      <c r="A142" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="B142" s="39" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D142" s="34" t="s">
         <v>381</v>
@@ -39925,14 +39940,14 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="37" t="s">
-        <v>180</v>
+      <c r="A143" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="B143" s="39" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D143" s="34" t="s">
         <v>381</v>
@@ -39942,14 +39957,14 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="32" t="s">
+      <c r="A144" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B144" s="32" t="s">
-        <v>8</v>
+      <c r="B144" s="39" t="s">
+        <v>263</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D144" s="34" t="s">
         <v>381</v>
@@ -39959,14 +39974,14 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="32" t="s">
+      <c r="A145" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B145" s="32" t="s">
-        <v>8</v>
+      <c r="B145" s="39" t="s">
+        <v>263</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D145" s="34" t="s">
         <v>381</v>
@@ -39983,7 +39998,7 @@
         <v>8</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D146" s="34" t="s">
         <v>381</v>
@@ -40000,7 +40015,7 @@
         <v>8</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D147" s="34" t="s">
         <v>381</v>
@@ -40010,14 +40025,14 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="37" t="s">
+      <c r="A148" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D148" s="34" t="s">
         <v>381</v>
@@ -40027,14 +40042,14 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="37" t="s">
+      <c r="A149" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="B149" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D149" s="34" t="s">
         <v>381</v>
@@ -40051,7 +40066,7 @@
         <v>8</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D150" s="34" t="s">
         <v>381</v>
@@ -40068,7 +40083,7 @@
         <v>8</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D151" s="34" t="s">
         <v>381</v>
@@ -40085,7 +40100,7 @@
         <v>8</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D152" s="34" t="s">
         <v>381</v>
@@ -40102,7 +40117,7 @@
         <v>8</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D153" s="34" t="s">
         <v>381</v>
@@ -40115,11 +40130,11 @@
       <c r="A154" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B154" s="42" t="s">
+      <c r="B154" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D154" s="34" t="s">
         <v>381</v>
@@ -40132,11 +40147,11 @@
       <c r="A155" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B155" s="42" t="s">
+      <c r="B155" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D155" s="34" t="s">
         <v>381</v>
@@ -40149,11 +40164,11 @@
       <c r="A156" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="42" t="s">
+      <c r="B156" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D156" s="34" t="s">
         <v>381</v>
@@ -40166,11 +40181,11 @@
       <c r="A157" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B157" s="42" t="s">
+      <c r="B157" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D157" s="34" t="s">
         <v>381</v>
@@ -40183,11 +40198,11 @@
       <c r="A158" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B158" s="42" t="s">
+      <c r="B158" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D158" s="34" t="s">
         <v>381</v>
@@ -40198,13 +40213,13 @@
     </row>
     <row r="159" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B159" s="42" t="s">
-        <v>281</v>
+        <v>180</v>
+      </c>
+      <c r="B159" s="41" t="s">
+        <v>8</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D159" s="34" t="s">
         <v>381</v>
@@ -40215,13 +40230,13 @@
     </row>
     <row r="160" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B160" s="42" t="s">
-        <v>281</v>
+        <v>180</v>
+      </c>
+      <c r="B160" s="41" t="s">
+        <v>8</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D160" s="34" t="s">
         <v>381</v>
@@ -40234,11 +40249,11 @@
       <c r="A161" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B161" s="42" t="s">
+      <c r="B161" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="C161" s="33" t="s">
-        <v>284</v>
+      <c r="C161" s="35" t="s">
+        <v>282</v>
       </c>
       <c r="D161" s="34" t="s">
         <v>381</v>
@@ -40251,11 +40266,11 @@
       <c r="A162" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B162" s="42" t="s">
+      <c r="B162" s="41" t="s">
         <v>281</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D162" s="34" t="s">
         <v>381</v>
@@ -40266,13 +40281,13 @@
     </row>
     <row r="163" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B163" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="35" t="s">
-        <v>286</v>
+        <v>174</v>
+      </c>
+      <c r="B163" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>284</v>
       </c>
       <c r="D163" s="34" t="s">
         <v>381</v>
@@ -40285,11 +40300,11 @@
       <c r="A164" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B164" s="42" t="s">
-        <v>7</v>
+      <c r="B164" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D164" s="34" t="s">
         <v>381</v>
@@ -40300,13 +40315,13 @@
     </row>
     <row r="165" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B165" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="36" t="s">
-        <v>288</v>
+      <c r="C165" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="D165" s="34" t="s">
         <v>381</v>
@@ -40319,11 +40334,11 @@
       <c r="A166" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B166" s="42" t="s">
+      <c r="B166" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="43" t="s">
-        <v>289</v>
+      <c r="C166" s="35" t="s">
+        <v>287</v>
       </c>
       <c r="D166" s="34" t="s">
         <v>381</v>
@@ -40336,11 +40351,11 @@
       <c r="A167" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B167" s="42" t="s">
+      <c r="B167" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="35" t="s">
-        <v>290</v>
+      <c r="C167" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="D167" s="34" t="s">
         <v>381</v>
@@ -40353,11 +40368,11 @@
       <c r="A168" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="42" t="s">
+      <c r="B168" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C168" s="35" t="s">
-        <v>291</v>
+      <c r="C168" s="42" t="s">
+        <v>289</v>
       </c>
       <c r="D168" s="34" t="s">
         <v>381</v>
@@ -40370,11 +40385,11 @@
       <c r="A169" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="42" t="s">
+      <c r="B169" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D169" s="34" t="s">
         <v>381</v>
@@ -40387,11 +40402,11 @@
       <c r="A170" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B170" s="42" t="s">
+      <c r="B170" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D170" s="34" t="s">
         <v>381</v>
@@ -40404,11 +40419,11 @@
       <c r="A171" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B171" s="32" t="s">
-        <v>29</v>
+      <c r="B171" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D171" s="34" t="s">
         <v>381</v>
@@ -40421,11 +40436,11 @@
       <c r="A172" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B172" s="32" t="s">
-        <v>29</v>
+      <c r="B172" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D172" s="34" t="s">
         <v>381</v>
@@ -40435,14 +40450,14 @@
       </c>
     </row>
     <row r="173" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="32" t="s">
-        <v>180</v>
+      <c r="A173" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="B173" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D173" s="34" t="s">
         <v>381</v>
@@ -40455,11 +40470,11 @@
       <c r="A174" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="42" t="s">
+      <c r="B174" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D174" s="34" t="s">
         <v>381</v>
@@ -40469,14 +40484,14 @@
       </c>
     </row>
     <row r="175" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="37" t="s">
+      <c r="A175" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="42" t="s">
+      <c r="B175" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D175" s="34" t="s">
         <v>381</v>
@@ -40487,13 +40502,13 @@
     </row>
     <row r="176" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B176" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D176" s="34" t="s">
         <v>381</v>
@@ -40503,14 +40518,14 @@
       </c>
     </row>
     <row r="177" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B177" s="32" t="s">
-        <v>118</v>
+      <c r="A177" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="41" t="s">
+        <v>29</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D177" s="34" t="s">
         <v>381</v>
@@ -40520,14 +40535,14 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B178" s="32" t="s">
-        <v>118</v>
+      <c r="A178" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B178" s="41" t="s">
+        <v>29</v>
       </c>
       <c r="C178" s="35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D178" s="34" t="s">
         <v>381</v>
@@ -40538,13 +40553,13 @@
     </row>
     <row r="179" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B179" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C179" s="50" t="s">
-        <v>302</v>
+      <c r="C179" s="35" t="s">
+        <v>300</v>
       </c>
       <c r="D179" s="34" t="s">
         <v>381</v>
@@ -40555,13 +40570,13 @@
     </row>
     <row r="180" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B180" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C180" s="35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D180" s="34" t="s">
         <v>381</v>
@@ -40572,13 +40587,13 @@
     </row>
     <row r="181" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B181" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C181" s="35" t="s">
-        <v>304</v>
+      <c r="C181" s="49" t="s">
+        <v>302</v>
       </c>
       <c r="D181" s="34" t="s">
         <v>381</v>
@@ -40595,7 +40610,7 @@
         <v>118</v>
       </c>
       <c r="C182" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D182" s="34" t="s">
         <v>381</v>
@@ -40606,13 +40621,13 @@
     </row>
     <row r="183" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B183" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C183" s="35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D183" s="34" t="s">
         <v>381</v>
@@ -40629,7 +40644,7 @@
         <v>118</v>
       </c>
       <c r="C184" s="35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D184" s="34" t="s">
         <v>381</v>
@@ -40646,7 +40661,7 @@
         <v>118</v>
       </c>
       <c r="C185" s="35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D185" s="34" t="s">
         <v>381</v>
@@ -40663,7 +40678,7 @@
         <v>118</v>
       </c>
       <c r="C186" s="35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D186" s="34" t="s">
         <v>381</v>
@@ -40674,13 +40689,13 @@
     </row>
     <row r="187" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B187" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D187" s="34" t="s">
         <v>381</v>
@@ -40696,8 +40711,8 @@
       <c r="B188" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C188" s="50" t="s">
-        <v>311</v>
+      <c r="C188" s="35" t="s">
+        <v>309</v>
       </c>
       <c r="D188" s="34" t="s">
         <v>381</v>
@@ -40708,13 +40723,13 @@
     </row>
     <row r="189" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B189" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C189" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D189" s="34" t="s">
         <v>381</v>
@@ -40725,13 +40740,13 @@
     </row>
     <row r="190" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B190" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C190" s="35" t="s">
-        <v>313</v>
+      <c r="C190" s="49" t="s">
+        <v>311</v>
       </c>
       <c r="D190" s="34" t="s">
         <v>381</v>
@@ -40742,13 +40757,13 @@
     </row>
     <row r="191" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B191" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C191" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D191" s="34" t="s">
         <v>381</v>
@@ -40759,13 +40774,13 @@
     </row>
     <row r="192" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B192" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C192" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D192" s="34" t="s">
         <v>381</v>
@@ -40782,7 +40797,7 @@
         <v>118</v>
       </c>
       <c r="C193" s="35" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D193" s="34" t="s">
         <v>381</v>
@@ -40793,13 +40808,13 @@
     </row>
     <row r="194" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B194" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C194" s="35" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D194" s="34" t="s">
         <v>381</v>
@@ -40816,7 +40831,7 @@
         <v>118</v>
       </c>
       <c r="C195" s="35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D195" s="34" t="s">
         <v>381</v>
@@ -40827,13 +40842,13 @@
     </row>
     <row r="196" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B196" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C196" s="35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D196" s="34" t="s">
         <v>381</v>
@@ -40843,14 +40858,14 @@
       </c>
     </row>
     <row r="197" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="37" t="s">
+      <c r="A197" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B197" s="42" t="s">
+      <c r="B197" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C197" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D197" s="34" t="s">
         <v>381</v>
@@ -40860,14 +40875,14 @@
       </c>
     </row>
     <row r="198" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="37" t="s">
+      <c r="A198" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B198" s="42" t="s">
+      <c r="B198" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C198" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D198" s="34" t="s">
         <v>381</v>
@@ -40878,13 +40893,13 @@
     </row>
     <row r="199" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B199" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B199" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C199" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D199" s="34" t="s">
         <v>381</v>
@@ -40897,11 +40912,11 @@
       <c r="A200" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B200" s="42" t="s">
+      <c r="B200" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C200" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D200" s="34" t="s">
         <v>381</v>
@@ -40912,13 +40927,13 @@
     </row>
     <row r="201" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B201" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B201" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C201" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D201" s="34" t="s">
         <v>381</v>
@@ -40929,13 +40944,13 @@
     </row>
     <row r="202" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B202" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B202" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C202" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D202" s="34" t="s">
         <v>381</v>
@@ -40948,11 +40963,11 @@
       <c r="A203" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B203" s="42" t="s">
-        <v>121</v>
+      <c r="B203" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="C203" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D203" s="34" t="s">
         <v>381</v>
@@ -40965,11 +40980,11 @@
       <c r="A204" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B204" s="42" t="s">
-        <v>327</v>
+      <c r="B204" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="C204" s="35" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D204" s="34" t="s">
         <v>381</v>
@@ -40980,13 +40995,13 @@
     </row>
     <row r="205" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B205" s="42" t="s">
-        <v>327</v>
+        <v>174</v>
+      </c>
+      <c r="B205" s="41" t="s">
+        <v>121</v>
       </c>
       <c r="C205" s="35" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D205" s="34" t="s">
         <v>381</v>
@@ -40999,11 +41014,11 @@
       <c r="A206" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B206" s="42" t="s">
+      <c r="B206" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C206" s="35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D206" s="34" t="s">
         <v>381</v>
@@ -41016,11 +41031,11 @@
       <c r="A207" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B207" s="42" t="s">
+      <c r="B207" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C207" s="35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D207" s="34" t="s">
         <v>381</v>
@@ -41033,11 +41048,11 @@
       <c r="A208" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B208" s="42" t="s">
+      <c r="B208" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C208" s="35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D208" s="34" t="s">
         <v>381</v>
@@ -41050,11 +41065,11 @@
       <c r="A209" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B209" s="42" t="s">
+      <c r="B209" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C209" s="35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D209" s="34" t="s">
         <v>381</v>
@@ -41067,11 +41082,11 @@
       <c r="A210" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B210" s="42" t="s">
+      <c r="B210" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D210" s="34" t="s">
         <v>381</v>
@@ -41084,11 +41099,11 @@
       <c r="A211" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B211" s="42" t="s">
+      <c r="B211" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C211" s="35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D211" s="34" t="s">
         <v>381</v>
@@ -41101,11 +41116,11 @@
       <c r="A212" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B212" s="42" t="s">
+      <c r="B212" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C212" s="35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D212" s="34" t="s">
         <v>381</v>
@@ -41118,11 +41133,11 @@
       <c r="A213" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B213" s="42" t="s">
+      <c r="B213" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C213" s="35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D213" s="34" t="s">
         <v>381</v>
@@ -41135,11 +41150,11 @@
       <c r="A214" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B214" s="42" t="s">
+      <c r="B214" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C214" s="35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D214" s="34" t="s">
         <v>381</v>
@@ -41152,11 +41167,11 @@
       <c r="A215" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B215" s="42" t="s">
+      <c r="B215" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C215" s="35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D215" s="34" t="s">
         <v>381</v>
@@ -41169,11 +41184,11 @@
       <c r="A216" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B216" s="42" t="s">
+      <c r="B216" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C216" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D216" s="34" t="s">
         <v>381</v>
@@ -41186,11 +41201,11 @@
       <c r="A217" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B217" s="42" t="s">
+      <c r="B217" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C217" s="35" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D217" s="34" t="s">
         <v>381</v>
@@ -41203,11 +41218,11 @@
       <c r="A218" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B218" s="42" t="s">
+      <c r="B218" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C218" s="35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D218" s="34" t="s">
         <v>381</v>
@@ -41218,13 +41233,13 @@
     </row>
     <row r="219" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B219" s="42" t="s">
-        <v>46</v>
+        <v>180</v>
+      </c>
+      <c r="B219" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D219" s="34" t="s">
         <v>381</v>
@@ -41235,13 +41250,13 @@
     </row>
     <row r="220" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B220" s="42" t="s">
-        <v>46</v>
+        <v>180</v>
+      </c>
+      <c r="B220" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D220" s="34" t="s">
         <v>381</v>
@@ -41252,13 +41267,13 @@
     </row>
     <row r="221" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B221" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B221" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D221" s="34" t="s">
         <v>381</v>
@@ -41271,11 +41286,11 @@
       <c r="A222" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B222" s="42" t="s">
+      <c r="B222" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C222" s="35" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D222" s="34" t="s">
         <v>381</v>
@@ -41286,13 +41301,13 @@
     </row>
     <row r="223" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B223" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B223" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C223" s="35" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D223" s="34" t="s">
         <v>381</v>
@@ -41305,11 +41320,11 @@
       <c r="A224" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B224" s="42" t="s">
+      <c r="B224" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C224" s="35" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D224" s="34" t="s">
         <v>381</v>
@@ -41322,11 +41337,11 @@
       <c r="A225" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B225" s="42" t="s">
+      <c r="B225" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C225" s="35" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D225" s="34" t="s">
         <v>381</v>
@@ -41339,11 +41354,11 @@
       <c r="A226" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B226" s="42" t="s">
+      <c r="B226" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C226" s="35" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D226" s="34" t="s">
         <v>381</v>
@@ -41356,11 +41371,11 @@
       <c r="A227" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B227" s="42" t="s">
+      <c r="B227" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C227" s="35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D227" s="34" t="s">
         <v>381</v>
@@ -41373,11 +41388,11 @@
       <c r="A228" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B228" s="42" t="s">
+      <c r="B228" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C228" s="35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D228" s="34" t="s">
         <v>381</v>
@@ -41388,13 +41403,13 @@
     </row>
     <row r="229" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B229" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B229" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C229" s="35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D229" s="34" t="s">
         <v>381</v>
@@ -41407,11 +41422,11 @@
       <c r="A230" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B230" s="42" t="s">
+      <c r="B230" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C230" s="35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D230" s="34" t="s">
         <v>381</v>
@@ -41424,11 +41439,11 @@
       <c r="A231" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B231" s="42" t="s">
+      <c r="B231" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C231" s="43" t="s">
-        <v>355</v>
+      <c r="C231" s="35" t="s">
+        <v>353</v>
       </c>
       <c r="D231" s="34" t="s">
         <v>381</v>
@@ -41441,11 +41456,11 @@
       <c r="A232" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B232" s="42" t="s">
+      <c r="B232" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D232" s="34" t="s">
         <v>381</v>
@@ -41458,11 +41473,11 @@
       <c r="A233" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B233" s="42" t="s">
+      <c r="B233" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C233" s="35" t="s">
-        <v>357</v>
+      <c r="C233" s="42" t="s">
+        <v>355</v>
       </c>
       <c r="D233" s="34" t="s">
         <v>381</v>
@@ -41475,11 +41490,11 @@
       <c r="A234" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B234" s="42" t="s">
+      <c r="B234" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C234" s="35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D234" s="34" t="s">
         <v>381</v>
@@ -41492,11 +41507,11 @@
       <c r="A235" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B235" s="42" t="s">
+      <c r="B235" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C235" s="35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D235" s="34" t="s">
         <v>381</v>
@@ -41507,13 +41522,13 @@
     </row>
     <row r="236" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B236" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B236" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C236" s="35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D236" s="34" t="s">
         <v>381</v>
@@ -41526,11 +41541,11 @@
       <c r="A237" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B237" s="42" t="s">
+      <c r="B237" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C237" s="35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D237" s="34" t="s">
         <v>381</v>
@@ -41543,11 +41558,11 @@
       <c r="A238" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B238" s="42" t="s">
+      <c r="B238" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C238" s="35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D238" s="34" t="s">
         <v>381</v>
@@ -41560,11 +41575,11 @@
       <c r="A239" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B239" s="42" t="s">
+      <c r="B239" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C239" s="35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D239" s="34" t="s">
         <v>381</v>
@@ -41577,11 +41592,11 @@
       <c r="A240" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B240" s="42" t="s">
+      <c r="B240" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C240" s="35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D240" s="34" t="s">
         <v>381</v>
@@ -41594,11 +41609,11 @@
       <c r="A241" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B241" s="42" t="s">
+      <c r="B241" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C241" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D241" s="34" t="s">
         <v>381</v>
@@ -41611,11 +41626,11 @@
       <c r="A242" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B242" s="42" t="s">
+      <c r="B242" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C242" s="35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D242" s="34" t="s">
         <v>381</v>
@@ -41626,13 +41641,13 @@
     </row>
     <row r="243" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B243" s="42" t="s">
-        <v>51</v>
+        <v>180</v>
+      </c>
+      <c r="B243" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="C243" s="35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D243" s="34" t="s">
         <v>381</v>
@@ -41645,11 +41660,11 @@
       <c r="A244" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B244" s="42" t="s">
-        <v>51</v>
+      <c r="B244" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="C244" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D244" s="34" t="s">
         <v>381</v>
@@ -41662,11 +41677,11 @@
       <c r="A245" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B245" s="42" t="s">
+      <c r="B245" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C245" s="35" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D245" s="34" t="s">
         <v>381</v>
@@ -41677,13 +41692,13 @@
     </row>
     <row r="246" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B246" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B246" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D246" s="34" t="s">
         <v>381</v>
@@ -41696,11 +41711,11 @@
       <c r="A247" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B247" s="42" t="s">
+      <c r="B247" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C247" s="35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D247" s="34" t="s">
         <v>381</v>
@@ -41711,13 +41726,13 @@
     </row>
     <row r="248" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B248" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B248" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C248" s="35" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D248" s="34" t="s">
         <v>381</v>
@@ -41730,11 +41745,11 @@
       <c r="A249" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B249" s="42" t="s">
+      <c r="B249" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C249" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D249" s="34" t="s">
         <v>381</v>
@@ -41745,13 +41760,13 @@
     </row>
     <row r="250" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B250" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B250" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C250" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D250" s="34" t="s">
         <v>381</v>
@@ -41762,13 +41777,13 @@
     </row>
     <row r="251" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B251" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B251" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C251" s="35" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D251" s="34" t="s">
         <v>381</v>
@@ -41779,13 +41794,13 @@
     </row>
     <row r="252" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B252" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B252" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C252" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D252" s="34" t="s">
         <v>381</v>
@@ -41796,13 +41811,13 @@
     </row>
     <row r="253" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B253" s="42" t="s">
-        <v>77</v>
+        <v>180</v>
+      </c>
+      <c r="B253" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="C253" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D253" s="34" t="s">
         <v>381</v>
@@ -41813,13 +41828,13 @@
     </row>
     <row r="254" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B254" s="42" t="s">
-        <v>77</v>
+        <v>180</v>
+      </c>
+      <c r="B254" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="C254" s="35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D254" s="34" t="s">
         <v>381</v>
@@ -41832,11 +41847,11 @@
       <c r="A255" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B255" s="42" t="s">
+      <c r="B255" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C255" s="35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D255" s="34" t="s">
         <v>381</v>
@@ -41849,11 +41864,11 @@
       <c r="A256" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B256" s="42" t="s">
+      <c r="B256" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C256" s="35" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D256" s="34" t="s">
         <v>381</v>
@@ -41863,70 +41878,108 @@
       </c>
     </row>
     <row r="257" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E257" s="31">
-        <f>SUBTOTAL(9,E3:E256)</f>
-        <v>254</v>
+      <c r="A257" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B257" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C257" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D257" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E257" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B258" s="27">
-        <v>12</v>
+      <c r="A258" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B258" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C258" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="D258" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E258" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B259" s="27">
-        <v>22</v>
+      <c r="E259" s="31">
+        <f>SUBTOTAL(9,E3:E258)</f>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B260" s="27">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B261" s="27">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B262" s="27">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="27" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B263" s="27">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="29" t="s">
+      <c r="A264" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B264" s="27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B265" s="27">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B264" s="28">
-        <f>SUBTOTAL(9,B258:B263)</f>
+      <c r="B266" s="28">
+        <f>SUBTOTAL(9,B260:B265)</f>
         <v>251</v>
+      </c>
+      <c r="E266" s="30">
+        <f>SUBTOTAL(9,E13:E108)</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XED263"/>
+  <autoFilter ref="A1:XED265"/>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
@@ -41940,7 +41993,7 @@
     <hyperlink ref="C32" r:id="rId7"/>
     <hyperlink ref="C33" r:id="rId8"/>
     <hyperlink ref="C25" r:id="rId9"/>
-    <hyperlink ref="C98" r:id="rId10"/>
+    <hyperlink ref="C99" r:id="rId10"/>
     <hyperlink ref="C5" r:id="rId11"/>
     <hyperlink ref="C6" r:id="rId12"/>
     <hyperlink ref="C4" r:id="rId13"/>
@@ -41949,39 +42002,39 @@
     <hyperlink ref="C12" r:id="rId16"/>
     <hyperlink ref="C15" r:id="rId17"/>
     <hyperlink ref="C16" r:id="rId18"/>
-    <hyperlink ref="C55" r:id="rId19" display="https://www.mep.go.cr/educatico/catalogo-educacion-abierta-alfabetizacion-matematicas"/>
-    <hyperlink ref="C54" r:id="rId20" display="https://www.mep.go.cr/educatico/olimpiadas-matematicas-cuadernillos"/>
-    <hyperlink ref="C73" r:id="rId21"/>
-    <hyperlink ref="C53" r:id="rId22"/>
+    <hyperlink ref="C56" r:id="rId19" display="https://www.mep.go.cr/educatico/catalogo-educacion-abierta-alfabetizacion-matematicas"/>
+    <hyperlink ref="C55" r:id="rId20" display="https://www.mep.go.cr/educatico/olimpiadas-matematicas-cuadernillos"/>
+    <hyperlink ref="C74" r:id="rId21"/>
+    <hyperlink ref="C54" r:id="rId22"/>
     <hyperlink ref="C46" r:id="rId23"/>
-    <hyperlink ref="C75" r:id="rId24"/>
-    <hyperlink ref="C76" r:id="rId25"/>
-    <hyperlink ref="C77" r:id="rId26"/>
+    <hyperlink ref="C76" r:id="rId24"/>
+    <hyperlink ref="C77" r:id="rId25"/>
+    <hyperlink ref="C78" r:id="rId26"/>
     <hyperlink ref="C45" r:id="rId27"/>
-    <hyperlink ref="C78" r:id="rId28"/>
-    <hyperlink ref="C80" r:id="rId29"/>
-    <hyperlink ref="C99" r:id="rId30"/>
+    <hyperlink ref="C79" r:id="rId28"/>
+    <hyperlink ref="C81" r:id="rId29"/>
+    <hyperlink ref="C100" r:id="rId30"/>
     <hyperlink ref="C43" r:id="rId31"/>
-    <hyperlink ref="C79" r:id="rId32"/>
-    <hyperlink ref="C96" r:id="rId33"/>
-    <hyperlink ref="C95" r:id="rId34"/>
+    <hyperlink ref="C80" r:id="rId32"/>
+    <hyperlink ref="C97" r:id="rId33"/>
+    <hyperlink ref="C96" r:id="rId34"/>
     <hyperlink ref="C42" r:id="rId35" display="https://www.mep.go.cr/educatico/videoteca-espanol-educacion-abierta"/>
-    <hyperlink ref="C81" r:id="rId36"/>
-    <hyperlink ref="C82" r:id="rId37"/>
-    <hyperlink ref="C56" r:id="rId38"/>
-    <hyperlink ref="C57" r:id="rId39"/>
-    <hyperlink ref="C58" r:id="rId40"/>
-    <hyperlink ref="C51" r:id="rId41"/>
-    <hyperlink ref="C52" r:id="rId42"/>
-    <hyperlink ref="C84" r:id="rId43"/>
+    <hyperlink ref="C82" r:id="rId36"/>
+    <hyperlink ref="C83" r:id="rId37"/>
+    <hyperlink ref="C57" r:id="rId38"/>
+    <hyperlink ref="C58" r:id="rId39"/>
+    <hyperlink ref="C59" r:id="rId40"/>
+    <hyperlink ref="C52" r:id="rId41"/>
+    <hyperlink ref="C53" r:id="rId42"/>
+    <hyperlink ref="C85" r:id="rId43"/>
     <hyperlink ref="C18" r:id="rId44"/>
-    <hyperlink ref="C49" r:id="rId45"/>
-    <hyperlink ref="C60" r:id="rId46"/>
-    <hyperlink ref="C61" r:id="rId47"/>
-    <hyperlink ref="C62" r:id="rId48"/>
-    <hyperlink ref="C63" r:id="rId49"/>
-    <hyperlink ref="C64" r:id="rId50"/>
-    <hyperlink ref="C65" r:id="rId51"/>
+    <hyperlink ref="C50" r:id="rId45"/>
+    <hyperlink ref="C61" r:id="rId46"/>
+    <hyperlink ref="C62" r:id="rId47"/>
+    <hyperlink ref="C63" r:id="rId48"/>
+    <hyperlink ref="C64" r:id="rId49"/>
+    <hyperlink ref="C65" r:id="rId50"/>
+    <hyperlink ref="C66" r:id="rId51"/>
     <hyperlink ref="C19" r:id="rId52"/>
     <hyperlink ref="C20" r:id="rId53"/>
     <hyperlink ref="C21" r:id="rId54"/>
@@ -41991,203 +42044,205 @@
     <hyperlink ref="C34" r:id="rId58"/>
     <hyperlink ref="C35" r:id="rId59"/>
     <hyperlink ref="C41" r:id="rId60"/>
-    <hyperlink ref="C94" r:id="rId61"/>
+    <hyperlink ref="C95" r:id="rId61"/>
     <hyperlink ref="C40" r:id="rId62"/>
-    <hyperlink ref="C67" r:id="rId63"/>
+    <hyperlink ref="C68" r:id="rId63"/>
     <hyperlink ref="C14" r:id="rId64"/>
     <hyperlink ref="C17" r:id="rId65"/>
     <hyperlink ref="C39" r:id="rId66"/>
-    <hyperlink ref="C69" r:id="rId67"/>
+    <hyperlink ref="C70" r:id="rId67"/>
     <hyperlink ref="C26" r:id="rId68"/>
-    <hyperlink ref="C66" r:id="rId69"/>
+    <hyperlink ref="C67" r:id="rId69"/>
     <hyperlink ref="C36" r:id="rId70"/>
     <hyperlink ref="C27" r:id="rId71"/>
-    <hyperlink ref="C87" r:id="rId72"/>
-    <hyperlink ref="C92" r:id="rId73"/>
-    <hyperlink ref="C91" r:id="rId74"/>
-    <hyperlink ref="C89" r:id="rId75"/>
-    <hyperlink ref="C90" r:id="rId76"/>
-    <hyperlink ref="C88" r:id="rId77"/>
+    <hyperlink ref="C88" r:id="rId72"/>
+    <hyperlink ref="C93" r:id="rId73"/>
+    <hyperlink ref="C92" r:id="rId74"/>
+    <hyperlink ref="C90" r:id="rId75"/>
+    <hyperlink ref="C91" r:id="rId76"/>
+    <hyperlink ref="C89" r:id="rId77"/>
     <hyperlink ref="C38" r:id="rId78"/>
     <hyperlink ref="C3" r:id="rId79"/>
-    <hyperlink ref="C68" r:id="rId80"/>
-    <hyperlink ref="C97" r:id="rId81"/>
-    <hyperlink ref="C71" r:id="rId82" display="https://www.mep.go.cr/educatico/recursos-guia-setimo-ano"/>
+    <hyperlink ref="C69" r:id="rId80"/>
+    <hyperlink ref="C98" r:id="rId81"/>
+    <hyperlink ref="C72" r:id="rId82" display="https://www.mep.go.cr/educatico/recursos-guia-setimo-ano"/>
     <hyperlink ref="C44" r:id="rId83"/>
-    <hyperlink ref="C59" r:id="rId84"/>
-    <hyperlink ref="C100" r:id="rId85"/>
+    <hyperlink ref="C60" r:id="rId84"/>
+    <hyperlink ref="C101" r:id="rId85"/>
     <hyperlink ref="C37" r:id="rId86"/>
     <hyperlink ref="C47" r:id="rId87"/>
-    <hyperlink ref="C72" r:id="rId88"/>
+    <hyperlink ref="C73" r:id="rId88"/>
     <hyperlink ref="C7" r:id="rId89"/>
     <hyperlink ref="C13" r:id="rId90"/>
     <hyperlink ref="C48" r:id="rId91"/>
-    <hyperlink ref="C50" r:id="rId92"/>
-    <hyperlink ref="C93" r:id="rId93"/>
-    <hyperlink ref="C102" r:id="rId94"/>
-    <hyperlink ref="C103" r:id="rId95"/>
-    <hyperlink ref="C104" r:id="rId96"/>
-    <hyperlink ref="C105" r:id="rId97"/>
-    <hyperlink ref="C106" r:id="rId98" display="Cientec-Tendencias"/>
-    <hyperlink ref="C70" r:id="rId99"/>
-    <hyperlink ref="C74" r:id="rId100"/>
-    <hyperlink ref="C101" r:id="rId101"/>
-    <hyperlink ref="C83" r:id="rId102"/>
-    <hyperlink ref="C85" r:id="rId103"/>
-    <hyperlink ref="C107" r:id="rId104"/>
-    <hyperlink ref="C108" r:id="rId105"/>
-    <hyperlink ref="A108" r:id="rId106" display="https://www.mep.go.cr/educatico/nivel/iii-ciclo"/>
-    <hyperlink ref="A107" r:id="rId107" display="https://www.mep.go.cr/educatico/nivel/educacion-diversificada"/>
-    <hyperlink ref="C109" r:id="rId108"/>
-    <hyperlink ref="C111" r:id="rId109"/>
-    <hyperlink ref="C110" r:id="rId110"/>
-    <hyperlink ref="C112" r:id="rId111"/>
-    <hyperlink ref="C115" r:id="rId112"/>
-    <hyperlink ref="C114" r:id="rId113"/>
-    <hyperlink ref="C113" r:id="rId114"/>
-    <hyperlink ref="C117" r:id="rId115"/>
-    <hyperlink ref="C116" r:id="rId116"/>
-    <hyperlink ref="C119" r:id="rId117"/>
-    <hyperlink ref="C120" r:id="rId118"/>
-    <hyperlink ref="C121" r:id="rId119"/>
-    <hyperlink ref="C122" r:id="rId120"/>
-    <hyperlink ref="C127" r:id="rId121"/>
-    <hyperlink ref="C123" r:id="rId122"/>
-    <hyperlink ref="C124" r:id="rId123"/>
-    <hyperlink ref="C125" r:id="rId124"/>
-    <hyperlink ref="C126" r:id="rId125"/>
-    <hyperlink ref="C128" r:id="rId126"/>
-    <hyperlink ref="C129" r:id="rId127"/>
-    <hyperlink ref="C130" r:id="rId128"/>
-    <hyperlink ref="C131" r:id="rId129"/>
-    <hyperlink ref="C132" r:id="rId130"/>
-    <hyperlink ref="C133" r:id="rId131"/>
-    <hyperlink ref="C134" r:id="rId132"/>
-    <hyperlink ref="C135" r:id="rId133"/>
-    <hyperlink ref="C136" r:id="rId134"/>
-    <hyperlink ref="C137" r:id="rId135"/>
-    <hyperlink ref="C138" r:id="rId136"/>
-    <hyperlink ref="C139" r:id="rId137"/>
-    <hyperlink ref="C140" r:id="rId138"/>
-    <hyperlink ref="C141" r:id="rId139"/>
-    <hyperlink ref="C142" r:id="rId140" display="Hidroestática"/>
-    <hyperlink ref="C148" r:id="rId141"/>
-    <hyperlink ref="C149" r:id="rId142"/>
-    <hyperlink ref="C143" r:id="rId143"/>
-    <hyperlink ref="C144" r:id="rId144"/>
-    <hyperlink ref="C145" r:id="rId145"/>
-    <hyperlink ref="C146" r:id="rId146"/>
-    <hyperlink ref="C147" r:id="rId147"/>
-    <hyperlink ref="C150" r:id="rId148"/>
-    <hyperlink ref="C151" r:id="rId149"/>
-    <hyperlink ref="C152" r:id="rId150"/>
-    <hyperlink ref="C153" r:id="rId151"/>
-    <hyperlink ref="C154" r:id="rId152"/>
-    <hyperlink ref="C162" r:id="rId153"/>
-    <hyperlink ref="C161" r:id="rId154"/>
-    <hyperlink ref="C160" r:id="rId155"/>
-    <hyperlink ref="C155" r:id="rId156"/>
-    <hyperlink ref="C156" r:id="rId157"/>
-    <hyperlink ref="C157" r:id="rId158"/>
-    <hyperlink ref="C158" r:id="rId159"/>
-    <hyperlink ref="C159" r:id="rId160"/>
-    <hyperlink ref="C163" r:id="rId161"/>
-    <hyperlink ref="C164" r:id="rId162"/>
-    <hyperlink ref="C166" r:id="rId163"/>
-    <hyperlink ref="C165" r:id="rId164"/>
-    <hyperlink ref="C167" r:id="rId165"/>
-    <hyperlink ref="C168" r:id="rId166"/>
-    <hyperlink ref="C169" r:id="rId167"/>
-    <hyperlink ref="C170" r:id="rId168"/>
-    <hyperlink ref="C174" r:id="rId169"/>
-    <hyperlink ref="C173" r:id="rId170"/>
-    <hyperlink ref="C172" r:id="rId171"/>
-    <hyperlink ref="C171" r:id="rId172"/>
-    <hyperlink ref="C175" r:id="rId173"/>
-    <hyperlink ref="C176" r:id="rId174"/>
-    <hyperlink ref="C185" r:id="rId175"/>
-    <hyperlink ref="C187" r:id="rId176"/>
-    <hyperlink ref="C186" r:id="rId177"/>
-    <hyperlink ref="C184" r:id="rId178"/>
-    <hyperlink ref="C183" r:id="rId179"/>
-    <hyperlink ref="C182" r:id="rId180"/>
-    <hyperlink ref="C181" r:id="rId181"/>
-    <hyperlink ref="C180" r:id="rId182"/>
-    <hyperlink ref="C179" r:id="rId183"/>
-    <hyperlink ref="C178" r:id="rId184"/>
-    <hyperlink ref="C177" r:id="rId185"/>
-    <hyperlink ref="C195" r:id="rId186"/>
-    <hyperlink ref="C194" r:id="rId187"/>
-    <hyperlink ref="C189" r:id="rId188"/>
-    <hyperlink ref="C188" r:id="rId189"/>
-    <hyperlink ref="C193" r:id="rId190"/>
-    <hyperlink ref="C192" r:id="rId191"/>
-    <hyperlink ref="C191" r:id="rId192"/>
-    <hyperlink ref="C190" r:id="rId193"/>
-    <hyperlink ref="C196" r:id="rId194"/>
-    <hyperlink ref="C198" r:id="rId195"/>
-    <hyperlink ref="C197" r:id="rId196"/>
-    <hyperlink ref="C202" r:id="rId197"/>
-    <hyperlink ref="C201" r:id="rId198"/>
-    <hyperlink ref="C200" r:id="rId199"/>
-    <hyperlink ref="C199" r:id="rId200"/>
-    <hyperlink ref="C203" r:id="rId201"/>
-    <hyperlink ref="C207" r:id="rId202"/>
-    <hyperlink ref="C208" r:id="rId203"/>
-    <hyperlink ref="C204" r:id="rId204"/>
-    <hyperlink ref="C209" r:id="rId205"/>
-    <hyperlink ref="C210" r:id="rId206"/>
-    <hyperlink ref="C211" r:id="rId207"/>
-    <hyperlink ref="C212" r:id="rId208"/>
-    <hyperlink ref="C214" r:id="rId209"/>
-    <hyperlink ref="C213" r:id="rId210"/>
-    <hyperlink ref="C206" r:id="rId211"/>
-    <hyperlink ref="C215" r:id="rId212"/>
-    <hyperlink ref="C216" r:id="rId213"/>
-    <hyperlink ref="C217" r:id="rId214"/>
-    <hyperlink ref="C218" r:id="rId215"/>
-    <hyperlink ref="C205" r:id="rId216"/>
-    <hyperlink ref="C219" r:id="rId217"/>
-    <hyperlink ref="C220" r:id="rId218"/>
-    <hyperlink ref="C221" r:id="rId219"/>
-    <hyperlink ref="C222" r:id="rId220"/>
-    <hyperlink ref="C223" r:id="rId221"/>
-    <hyperlink ref="C224" r:id="rId222"/>
-    <hyperlink ref="C225" r:id="rId223"/>
-    <hyperlink ref="C226" r:id="rId224"/>
-    <hyperlink ref="C227" r:id="rId225"/>
-    <hyperlink ref="C228" r:id="rId226"/>
-    <hyperlink ref="C229" r:id="rId227"/>
-    <hyperlink ref="C230" r:id="rId228"/>
-    <hyperlink ref="C231" r:id="rId229"/>
-    <hyperlink ref="C232" r:id="rId230"/>
-    <hyperlink ref="C233" r:id="rId231"/>
-    <hyperlink ref="C234" r:id="rId232"/>
-    <hyperlink ref="C235" r:id="rId233"/>
-    <hyperlink ref="C236" r:id="rId234"/>
-    <hyperlink ref="C237" r:id="rId235"/>
-    <hyperlink ref="C238" r:id="rId236"/>
-    <hyperlink ref="C239" r:id="rId237"/>
-    <hyperlink ref="C240" r:id="rId238"/>
-    <hyperlink ref="C241" r:id="rId239"/>
-    <hyperlink ref="C242" r:id="rId240"/>
-    <hyperlink ref="C243" r:id="rId241"/>
-    <hyperlink ref="C244" r:id="rId242"/>
-    <hyperlink ref="C245" r:id="rId243"/>
-    <hyperlink ref="C246" r:id="rId244"/>
-    <hyperlink ref="C247" r:id="rId245"/>
-    <hyperlink ref="C248" r:id="rId246"/>
-    <hyperlink ref="C249" r:id="rId247"/>
-    <hyperlink ref="C250" r:id="rId248"/>
-    <hyperlink ref="C251" r:id="rId249"/>
-    <hyperlink ref="C252" r:id="rId250"/>
-    <hyperlink ref="C253" r:id="rId251"/>
-    <hyperlink ref="C254" r:id="rId252"/>
-    <hyperlink ref="C255" r:id="rId253"/>
-    <hyperlink ref="C256" r:id="rId254"/>
+    <hyperlink ref="C51" r:id="rId92"/>
+    <hyperlink ref="C94" r:id="rId93"/>
+    <hyperlink ref="C103" r:id="rId94"/>
+    <hyperlink ref="C104" r:id="rId95"/>
+    <hyperlink ref="C105" r:id="rId96"/>
+    <hyperlink ref="C106" r:id="rId97"/>
+    <hyperlink ref="C108" r:id="rId98" display="Cientec-Tendencias"/>
+    <hyperlink ref="C71" r:id="rId99"/>
+    <hyperlink ref="C75" r:id="rId100"/>
+    <hyperlink ref="C102" r:id="rId101"/>
+    <hyperlink ref="C84" r:id="rId102"/>
+    <hyperlink ref="C86" r:id="rId103"/>
+    <hyperlink ref="C109" r:id="rId104"/>
+    <hyperlink ref="C110" r:id="rId105"/>
+    <hyperlink ref="A110" r:id="rId106" display="https://www.mep.go.cr/educatico/nivel/iii-ciclo"/>
+    <hyperlink ref="A109" r:id="rId107" display="https://www.mep.go.cr/educatico/nivel/educacion-diversificada"/>
+    <hyperlink ref="C111" r:id="rId108"/>
+    <hyperlink ref="C113" r:id="rId109"/>
+    <hyperlink ref="C112" r:id="rId110"/>
+    <hyperlink ref="C114" r:id="rId111"/>
+    <hyperlink ref="C117" r:id="rId112"/>
+    <hyperlink ref="C116" r:id="rId113"/>
+    <hyperlink ref="C115" r:id="rId114"/>
+    <hyperlink ref="C119" r:id="rId115"/>
+    <hyperlink ref="C118" r:id="rId116"/>
+    <hyperlink ref="C121" r:id="rId117"/>
+    <hyperlink ref="C122" r:id="rId118"/>
+    <hyperlink ref="C123" r:id="rId119"/>
+    <hyperlink ref="C124" r:id="rId120"/>
+    <hyperlink ref="C129" r:id="rId121"/>
+    <hyperlink ref="C125" r:id="rId122"/>
+    <hyperlink ref="C126" r:id="rId123"/>
+    <hyperlink ref="C127" r:id="rId124"/>
+    <hyperlink ref="C128" r:id="rId125"/>
+    <hyperlink ref="C130" r:id="rId126"/>
+    <hyperlink ref="C131" r:id="rId127"/>
+    <hyperlink ref="C132" r:id="rId128"/>
+    <hyperlink ref="C133" r:id="rId129"/>
+    <hyperlink ref="C134" r:id="rId130"/>
+    <hyperlink ref="C135" r:id="rId131"/>
+    <hyperlink ref="C136" r:id="rId132"/>
+    <hyperlink ref="C137" r:id="rId133"/>
+    <hyperlink ref="C138" r:id="rId134"/>
+    <hyperlink ref="C139" r:id="rId135"/>
+    <hyperlink ref="C140" r:id="rId136"/>
+    <hyperlink ref="C141" r:id="rId137"/>
+    <hyperlink ref="C142" r:id="rId138"/>
+    <hyperlink ref="C143" r:id="rId139"/>
+    <hyperlink ref="C144" r:id="rId140" display="Hidroestática"/>
+    <hyperlink ref="C150" r:id="rId141"/>
+    <hyperlink ref="C151" r:id="rId142"/>
+    <hyperlink ref="C145" r:id="rId143"/>
+    <hyperlink ref="C146" r:id="rId144"/>
+    <hyperlink ref="C147" r:id="rId145"/>
+    <hyperlink ref="C148" r:id="rId146"/>
+    <hyperlink ref="C149" r:id="rId147"/>
+    <hyperlink ref="C152" r:id="rId148"/>
+    <hyperlink ref="C153" r:id="rId149"/>
+    <hyperlink ref="C154" r:id="rId150"/>
+    <hyperlink ref="C155" r:id="rId151"/>
+    <hyperlink ref="C156" r:id="rId152"/>
+    <hyperlink ref="C164" r:id="rId153"/>
+    <hyperlink ref="C163" r:id="rId154"/>
+    <hyperlink ref="C162" r:id="rId155"/>
+    <hyperlink ref="C157" r:id="rId156"/>
+    <hyperlink ref="C158" r:id="rId157"/>
+    <hyperlink ref="C159" r:id="rId158"/>
+    <hyperlink ref="C160" r:id="rId159"/>
+    <hyperlink ref="C161" r:id="rId160"/>
+    <hyperlink ref="C165" r:id="rId161"/>
+    <hyperlink ref="C166" r:id="rId162"/>
+    <hyperlink ref="C168" r:id="rId163"/>
+    <hyperlink ref="C167" r:id="rId164"/>
+    <hyperlink ref="C169" r:id="rId165"/>
+    <hyperlink ref="C170" r:id="rId166"/>
+    <hyperlink ref="C171" r:id="rId167"/>
+    <hyperlink ref="C172" r:id="rId168"/>
+    <hyperlink ref="C176" r:id="rId169"/>
+    <hyperlink ref="C175" r:id="rId170"/>
+    <hyperlink ref="C174" r:id="rId171"/>
+    <hyperlink ref="C173" r:id="rId172"/>
+    <hyperlink ref="C177" r:id="rId173"/>
+    <hyperlink ref="C178" r:id="rId174"/>
+    <hyperlink ref="C187" r:id="rId175"/>
+    <hyperlink ref="C189" r:id="rId176"/>
+    <hyperlink ref="C188" r:id="rId177"/>
+    <hyperlink ref="C186" r:id="rId178"/>
+    <hyperlink ref="C185" r:id="rId179"/>
+    <hyperlink ref="C184" r:id="rId180"/>
+    <hyperlink ref="C183" r:id="rId181"/>
+    <hyperlink ref="C182" r:id="rId182"/>
+    <hyperlink ref="C181" r:id="rId183"/>
+    <hyperlink ref="C180" r:id="rId184"/>
+    <hyperlink ref="C179" r:id="rId185"/>
+    <hyperlink ref="C197" r:id="rId186"/>
+    <hyperlink ref="C196" r:id="rId187"/>
+    <hyperlink ref="C191" r:id="rId188"/>
+    <hyperlink ref="C190" r:id="rId189"/>
+    <hyperlink ref="C195" r:id="rId190"/>
+    <hyperlink ref="C194" r:id="rId191"/>
+    <hyperlink ref="C193" r:id="rId192"/>
+    <hyperlink ref="C192" r:id="rId193"/>
+    <hyperlink ref="C198" r:id="rId194"/>
+    <hyperlink ref="C200" r:id="rId195"/>
+    <hyperlink ref="C199" r:id="rId196"/>
+    <hyperlink ref="C204" r:id="rId197"/>
+    <hyperlink ref="C203" r:id="rId198"/>
+    <hyperlink ref="C202" r:id="rId199"/>
+    <hyperlink ref="C201" r:id="rId200"/>
+    <hyperlink ref="C205" r:id="rId201"/>
+    <hyperlink ref="C209" r:id="rId202"/>
+    <hyperlink ref="C210" r:id="rId203"/>
+    <hyperlink ref="C206" r:id="rId204"/>
+    <hyperlink ref="C211" r:id="rId205"/>
+    <hyperlink ref="C212" r:id="rId206"/>
+    <hyperlink ref="C213" r:id="rId207"/>
+    <hyperlink ref="C214" r:id="rId208"/>
+    <hyperlink ref="C216" r:id="rId209"/>
+    <hyperlink ref="C215" r:id="rId210"/>
+    <hyperlink ref="C208" r:id="rId211"/>
+    <hyperlink ref="C217" r:id="rId212"/>
+    <hyperlink ref="C218" r:id="rId213"/>
+    <hyperlink ref="C219" r:id="rId214"/>
+    <hyperlink ref="C220" r:id="rId215"/>
+    <hyperlink ref="C207" r:id="rId216"/>
+    <hyperlink ref="C221" r:id="rId217"/>
+    <hyperlink ref="C222" r:id="rId218"/>
+    <hyperlink ref="C223" r:id="rId219"/>
+    <hyperlink ref="C224" r:id="rId220"/>
+    <hyperlink ref="C225" r:id="rId221"/>
+    <hyperlink ref="C226" r:id="rId222"/>
+    <hyperlink ref="C227" r:id="rId223"/>
+    <hyperlink ref="C228" r:id="rId224"/>
+    <hyperlink ref="C229" r:id="rId225"/>
+    <hyperlink ref="C230" r:id="rId226"/>
+    <hyperlink ref="C231" r:id="rId227"/>
+    <hyperlink ref="C232" r:id="rId228"/>
+    <hyperlink ref="C233" r:id="rId229"/>
+    <hyperlink ref="C234" r:id="rId230"/>
+    <hyperlink ref="C235" r:id="rId231"/>
+    <hyperlink ref="C236" r:id="rId232"/>
+    <hyperlink ref="C237" r:id="rId233"/>
+    <hyperlink ref="C238" r:id="rId234"/>
+    <hyperlink ref="C239" r:id="rId235"/>
+    <hyperlink ref="C240" r:id="rId236"/>
+    <hyperlink ref="C241" r:id="rId237"/>
+    <hyperlink ref="C242" r:id="rId238"/>
+    <hyperlink ref="C243" r:id="rId239"/>
+    <hyperlink ref="C244" r:id="rId240"/>
+    <hyperlink ref="C245" r:id="rId241"/>
+    <hyperlink ref="C246" r:id="rId242"/>
+    <hyperlink ref="C247" r:id="rId243"/>
+    <hyperlink ref="C248" r:id="rId244"/>
+    <hyperlink ref="C249" r:id="rId245"/>
+    <hyperlink ref="C250" r:id="rId246"/>
+    <hyperlink ref="C251" r:id="rId247"/>
+    <hyperlink ref="C252" r:id="rId248"/>
+    <hyperlink ref="C253" r:id="rId249"/>
+    <hyperlink ref="C254" r:id="rId250"/>
+    <hyperlink ref="C255" r:id="rId251"/>
+    <hyperlink ref="C256" r:id="rId252"/>
+    <hyperlink ref="C257" r:id="rId253"/>
+    <hyperlink ref="C258" r:id="rId254"/>
+    <hyperlink ref="C49" r:id="rId255" display="https://www.mep.go.cr/educatico/carretica-cuentera"/>
+    <hyperlink ref="C107" r:id="rId256"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId255"/>
-  <drawing r:id="rId256"/>
+  <pageSetup orientation="portrait" r:id="rId257"/>
+  <drawing r:id="rId258"/>
 </worksheet>
 </file>
--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10836" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="recursos " sheetId="1" r:id="rId1"/>
     <sheet name="COLECCION" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XED$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XED$263</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'recursos '!$A$1:$XEI$99</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="379">
   <si>
     <t>Materia</t>
   </si>
@@ -825,22 +825,7 @@
     <t>En amarillo las imágenes que me hacen falta</t>
   </si>
   <si>
-    <t>Biotecnología: sus técnicas y aplicaciones</t>
-  </si>
-  <si>
     <t>Profe en casa</t>
-  </si>
-  <si>
-    <t>Afectividad y sexualidad integral</t>
-  </si>
-  <si>
-    <t>Ciencias, Afectividad y Sexualidad</t>
-  </si>
-  <si>
-    <t> III Ciclo</t>
-  </si>
-  <si>
-    <t>Educación Diversificada</t>
   </si>
   <si>
     <t>Campaña Nacional 1856-1857, redescubriendo nuestra historia</t>
@@ -1305,22 +1290,16 @@
     <t xml:space="preserve"> Profe en casa</t>
   </si>
   <si>
-    <t>anarquismo, biografías, departamento de Gestión y Producción de Recursos, estado, GESPRO, ideologías, liberalismo, socialcristianismo, socialdemocracia, socialismo</t>
-  </si>
-  <si>
     <t>Carretica</t>
   </si>
   <si>
     <t>Tecnoaprender</t>
   </si>
-  <si>
-    <t>ELIMINAR SON ENCUESTAS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1490,7 +1469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1632,9 +1611,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2055,7 +2031,7 @@
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="6"/>
     <col min="2" max="2" width="22" style="5"/>
@@ -2067,7 +2043,7 @@
     <col min="9" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
@@ -2090,7 +2066,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>181</v>
       </c>
@@ -2116,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>176</v>
       </c>
@@ -2142,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>174</v>
       </c>
@@ -2168,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>180</v>
       </c>
@@ -2194,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>174</v>
       </c>
@@ -2220,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>176</v>
       </c>
@@ -2246,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>176</v>
       </c>
@@ -2272,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>172</v>
       </c>
@@ -2298,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>178</v>
       </c>
@@ -2324,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>178</v>
       </c>
@@ -2350,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16363" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16363" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>178</v>
       </c>
@@ -18731,7 +18707,7 @@
       <c r="XEH12" s="7"/>
       <c r="XEI12" s="7"/>
     </row>
-    <row r="13" spans="1:16363" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16363" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>178</v>
       </c>
@@ -18757,7 +18733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>176</v>
       </c>
@@ -18783,7 +18759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>176</v>
       </c>
@@ -18809,7 +18785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16363" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16363" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>189</v>
       </c>
@@ -18835,7 +18811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>173</v>
       </c>
@@ -18861,7 +18837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>173</v>
       </c>
@@ -18887,7 +18863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>173</v>
       </c>
@@ -18913,7 +18889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>173</v>
       </c>
@@ -18939,7 +18915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>188</v>
       </c>
@@ -18965,7 +18941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>188</v>
       </c>
@@ -18991,7 +18967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>188</v>
       </c>
@@ -19017,7 +18993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>177</v>
       </c>
@@ -19043,7 +19019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>177</v>
       </c>
@@ -19069,7 +19045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>174</v>
       </c>
@@ -19095,7 +19071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>173</v>
       </c>
@@ -19121,7 +19097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>188</v>
       </c>
@@ -19147,7 +19123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>188</v>
       </c>
@@ -19173,7 +19149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>173</v>
       </c>
@@ -19199,7 +19175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>188</v>
       </c>
@@ -19225,7 +19201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>173</v>
       </c>
@@ -19251,7 +19227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>180</v>
       </c>
@@ -19277,7 +19253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>180</v>
       </c>
@@ -19303,7 +19279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>181</v>
       </c>
@@ -19329,7 +19305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>179</v>
       </c>
@@ -19355,7 +19331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>180</v>
       </c>
@@ -19381,7 +19357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>177</v>
       </c>
@@ -19407,7 +19383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>188</v>
       </c>
@@ -19433,7 +19409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>181</v>
       </c>
@@ -19459,7 +19435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>181</v>
       </c>
@@ -19485,7 +19461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
@@ -19511,7 +19487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>172</v>
       </c>
@@ -19537,7 +19513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>173</v>
       </c>
@@ -19563,7 +19539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>172</v>
       </c>
@@ -19589,7 +19565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>176</v>
       </c>
@@ -19615,7 +19591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>175</v>
       </c>
@@ -19641,7 +19617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>174</v>
       </c>
@@ -19667,7 +19643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>181</v>
       </c>
@@ -19693,7 +19669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>178</v>
       </c>
@@ -19719,7 +19695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>178</v>
       </c>
@@ -19745,7 +19721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>173</v>
       </c>
@@ -19771,7 +19747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>176</v>
       </c>
@@ -19797,7 +19773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>187</v>
       </c>
@@ -19823,7 +19799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>187</v>
       </c>
@@ -19849,7 +19825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>187</v>
       </c>
@@ -19875,7 +19851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>187</v>
       </c>
@@ -19901,7 +19877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>173</v>
       </c>
@@ -19927,7 +19903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>173</v>
       </c>
@@ -19953,7 +19929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>173</v>
       </c>
@@ -19979,7 +19955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>173</v>
       </c>
@@ -20005,7 +19981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>188</v>
       </c>
@@ -20031,7 +20007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>188</v>
       </c>
@@ -20057,7 +20033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>188</v>
       </c>
@@ -20083,7 +20059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>178</v>
       </c>
@@ -20109,7 +20085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>174</v>
       </c>
@@ -20135,7 +20111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>180</v>
       </c>
@@ -20161,7 +20137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>174</v>
       </c>
@@ -20187,7 +20163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>176</v>
       </c>
@@ -20213,7 +20189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>174</v>
       </c>
@@ -20239,7 +20215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>174</v>
       </c>
@@ -20265,7 +20241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>172</v>
       </c>
@@ -20291,7 +20267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>176</v>
       </c>
@@ -20317,7 +20293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>176</v>
       </c>
@@ -20343,7 +20319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>172</v>
       </c>
@@ -20369,7 +20345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>181</v>
       </c>
@@ -20395,7 +20371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>178</v>
       </c>
@@ -20421,7 +20397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>174</v>
       </c>
@@ -20447,7 +20423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>176</v>
       </c>
@@ -20473,7 +20449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>181</v>
       </c>
@@ -20499,7 +20475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>28</v>
       </c>
@@ -20525,7 +20501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>190</v>
       </c>
@@ -20551,7 +20527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>181</v>
       </c>
@@ -20577,7 +20553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>173</v>
       </c>
@@ -20603,7 +20579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>173</v>
       </c>
@@ -20629,7 +20605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>173</v>
       </c>
@@ -20655,7 +20631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>173</v>
       </c>
@@ -20681,7 +20657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>188</v>
       </c>
@@ -20707,7 +20683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>173</v>
       </c>
@@ -20733,7 +20709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>173</v>
       </c>
@@ -20759,7 +20735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>173</v>
       </c>
@@ -20785,7 +20761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>174</v>
       </c>
@@ -20811,7 +20787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>178</v>
       </c>
@@ -20837,7 +20813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>28</v>
       </c>
@@ -20863,7 +20839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>28</v>
       </c>
@@ -20889,7 +20865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>28</v>
       </c>
@@ -20915,7 +20891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>174</v>
       </c>
@@ -20941,7 +20917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>28</v>
       </c>
@@ -20967,7 +20943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>181</v>
       </c>
@@ -20993,7 +20969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="18" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -21001,7 +20977,7 @@
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
     </row>
-    <row r="104" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="26"/>
     </row>
   </sheetData>
@@ -21111,26 +21087,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XED266"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:XED264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="24"/>
-    <col min="2" max="2" width="17.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="22" style="24"/>
-    <col min="5" max="5" width="5.6640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="30" customWidth="1"/>
     <col min="6" max="6" width="47" style="1" customWidth="1"/>
     <col min="7" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16358" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
@@ -21145,16 +21124,16 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:16358" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
-    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>181</v>
       </c>
@@ -21170,11 +21149,8 @@
       <c r="E3" s="32">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>382</v>
-      </c>
     </row>
-    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>176</v>
       </c>
@@ -21191,7 +21167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>174</v>
       </c>
@@ -21208,7 +21184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>180</v>
       </c>
@@ -21225,7 +21201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>174</v>
       </c>
@@ -21242,7 +21218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>176</v>
       </c>
@@ -21259,7 +21235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>176</v>
       </c>
@@ -21276,7 +21252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>172</v>
       </c>
@@ -21293,7 +21269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>178</v>
       </c>
@@ -21303,14 +21279,14 @@
       <c r="C11" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="50">
         <v>2017</v>
       </c>
       <c r="E11" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>178</v>
       </c>
@@ -21320,14 +21296,14 @@
       <c r="C12" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <v>2017</v>
       </c>
       <c r="E12" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>178</v>
       </c>
@@ -37697,7 +37673,7 @@
       <c r="XEC13" s="7"/>
       <c r="XED13" s="7"/>
     </row>
-    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>178</v>
       </c>
@@ -37714,7 +37690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16358" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>176</v>
       </c>
@@ -37731,7 +37707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16358" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>176</v>
       </c>
@@ -37748,7 +37724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>189</v>
       </c>
@@ -37765,7 +37741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>173</v>
       </c>
@@ -37782,7 +37758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>173</v>
       </c>
@@ -37799,7 +37775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>173</v>
       </c>
@@ -37816,7 +37792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>173</v>
       </c>
@@ -37833,7 +37809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>188</v>
       </c>
@@ -37850,7 +37826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>188</v>
       </c>
@@ -37867,7 +37843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>188</v>
       </c>
@@ -37884,7 +37860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>177</v>
       </c>
@@ -37901,7 +37877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>177</v>
       </c>
@@ -37918,7 +37894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>174</v>
       </c>
@@ -37935,7 +37911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>173</v>
       </c>
@@ -37952,7 +37928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>188</v>
       </c>
@@ -37969,7 +37945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>188</v>
       </c>
@@ -37986,7 +37962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>173</v>
       </c>
@@ -38003,7 +37979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>188</v>
       </c>
@@ -38020,7 +37996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>173</v>
       </c>
@@ -38037,7 +38013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>180</v>
       </c>
@@ -38054,7 +38030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>180</v>
       </c>
@@ -38071,7 +38047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>181</v>
       </c>
@@ -38088,7 +38064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>217</v>
       </c>
@@ -38105,7 +38081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>180</v>
       </c>
@@ -38122,7 +38098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>177</v>
       </c>
@@ -38139,7 +38115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>188</v>
       </c>
@@ -38156,7 +38132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>181</v>
       </c>
@@ -38173,7 +38149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>181</v>
       </c>
@@ -38190,7 +38166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>181</v>
       </c>
@@ -38207,7 +38183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>172</v>
       </c>
@@ -38224,7 +38200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>173</v>
       </c>
@@ -38241,7 +38217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>172</v>
       </c>
@@ -38258,7 +38234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>176</v>
       </c>
@@ -38275,7 +38251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
         <v>175</v>
       </c>
@@ -38292,15 +38268,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>176</v>
       </c>
       <c r="B49" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="52" t="s">
-        <v>383</v>
+      <c r="C49" s="51" t="s">
+        <v>377</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>204</v>
@@ -38309,7 +38285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
         <v>174</v>
       </c>
@@ -38326,7 +38302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
         <v>181</v>
       </c>
@@ -38343,7 +38319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
         <v>178</v>
       </c>
@@ -38360,7 +38336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>178</v>
       </c>
@@ -38377,7 +38353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
         <v>173</v>
       </c>
@@ -38394,7 +38370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
         <v>176</v>
       </c>
@@ -38411,7 +38387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
         <v>218</v>
       </c>
@@ -38428,7 +38404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
         <v>218</v>
       </c>
@@ -38445,7 +38421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
         <v>218</v>
       </c>
@@ -38462,7 +38438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
         <v>218</v>
       </c>
@@ -38479,7 +38455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
         <v>173</v>
       </c>
@@ -38496,7 +38472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
         <v>173</v>
       </c>
@@ -38513,7 +38489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
         <v>173</v>
       </c>
@@ -38530,7 +38506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
         <v>173</v>
       </c>
@@ -38547,7 +38523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>188</v>
       </c>
@@ -38564,7 +38540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
         <v>188</v>
       </c>
@@ -38581,7 +38557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
         <v>188</v>
       </c>
@@ -38598,7 +38574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="37" t="s">
         <v>178</v>
       </c>
@@ -38615,7 +38591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
         <v>174</v>
       </c>
@@ -38632,7 +38608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="37" t="s">
         <v>180</v>
       </c>
@@ -38649,7 +38625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
         <v>174</v>
       </c>
@@ -38666,7 +38642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
         <v>176</v>
       </c>
@@ -38683,7 +38659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
         <v>174</v>
       </c>
@@ -38700,7 +38676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
         <v>174</v>
       </c>
@@ -38717,7 +38693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>172</v>
       </c>
@@ -38734,7 +38710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>176</v>
       </c>
@@ -38751,7 +38727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
         <v>176</v>
       </c>
@@ -38768,7 +38744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
         <v>172</v>
       </c>
@@ -38785,7 +38761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
         <v>181</v>
       </c>
@@ -38802,7 +38778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
         <v>178</v>
       </c>
@@ -38819,7 +38795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
         <v>174</v>
       </c>
@@ -38836,7 +38812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
         <v>176</v>
       </c>
@@ -38853,7 +38829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
         <v>181</v>
       </c>
@@ -38870,7 +38846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
         <v>28</v>
       </c>
@@ -38887,7 +38863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>190</v>
       </c>
@@ -38904,7 +38880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
         <v>181</v>
       </c>
@@ -38921,7 +38897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
         <v>173</v>
       </c>
@@ -38938,7 +38914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
         <v>173</v>
       </c>
@@ -38955,7 +38931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
         <v>173</v>
       </c>
@@ -38972,7 +38948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>173</v>
       </c>
@@ -38989,7 +38965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
         <v>188</v>
       </c>
@@ -39006,7 +38982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
         <v>173</v>
       </c>
@@ -39023,7 +38999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>173</v>
       </c>
@@ -39040,7 +39016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
         <v>173</v>
       </c>
@@ -39057,7 +39033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37" t="s">
         <v>174</v>
       </c>
@@ -39074,7 +39050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37" t="s">
         <v>178</v>
       </c>
@@ -39091,7 +39067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>28</v>
       </c>
@@ -39108,7 +39084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
         <v>28</v>
       </c>
@@ -39125,7 +39101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
         <v>28</v>
       </c>
@@ -39142,7 +39118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37" t="s">
         <v>174</v>
       </c>
@@ -39159,7 +39135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>28</v>
       </c>
@@ -39176,7 +39152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>181</v>
       </c>
@@ -39193,7 +39169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>220</v>
       </c>
@@ -39210,7 +39186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>178</v>
       </c>
@@ -39226,9 +39202,9 @@
       <c r="E103" s="32">
         <v>1</v>
       </c>
-      <c r="F103" s="52"/>
+      <c r="F103" s="51"/>
     </row>
-    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>181</v>
       </c>
@@ -39245,7 +39221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
         <v>217</v>
       </c>
@@ -39262,7 +39238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>213</v>
       </c>
@@ -39279,15 +39255,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>178</v>
       </c>
       <c r="B107" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="53" t="s">
-        <v>384</v>
+      <c r="C107" s="52" t="s">
+        <v>378</v>
       </c>
       <c r="D107" s="47">
         <v>2019</v>
@@ -39295,9 +39271,9 @@
       <c r="E107" s="45">
         <v>1</v>
       </c>
-      <c r="F107" s="52"/>
+      <c r="F107" s="51"/>
     </row>
-    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
         <v>178</v>
       </c>
@@ -39307,71 +39283,65 @@
       <c r="C108" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D108" s="50">
+      <c r="D108" s="49">
         <v>2019</v>
       </c>
       <c r="E108" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="37" t="s">
-        <v>227</v>
+    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="32" t="s">
+        <v>177</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D109" s="34">
-        <v>2016</v>
-      </c>
-      <c r="E109" s="45">
+        <v>31</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="E109" s="32">
         <v>1</v>
       </c>
-      <c r="F109" s="9" t="s">
-        <v>385</v>
-      </c>
     </row>
-    <row r="110" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="37" t="s">
-        <v>226</v>
+    <row r="110" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="32" t="s">
+        <v>174</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="34">
-        <v>2016</v>
-      </c>
-      <c r="E110" s="45">
+      <c r="D110" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="E110" s="32">
         <v>1</v>
       </c>
-      <c r="F110" s="9" t="s">
-        <v>385</v>
-      </c>
     </row>
-    <row r="111" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B111" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E111" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>174</v>
       </c>
@@ -39379,50 +39349,50 @@
         <v>31</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E112" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B113" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E113" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B114" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E114" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>174</v>
       </c>
@@ -39430,33 +39400,33 @@
         <v>31</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D115" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E115" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B116" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="35" t="s">
-        <v>233</v>
+      <c r="C116" s="48" t="s">
+        <v>230</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E116" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>174</v>
       </c>
@@ -39464,33 +39434,33 @@
         <v>31</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D117" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E117" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>174</v>
       </c>
       <c r="B118" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="49" t="s">
-        <v>235</v>
+      <c r="C118" s="35" t="s">
+        <v>232</v>
       </c>
       <c r="D118" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E118" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>174</v>
       </c>
@@ -39498,16 +39468,16 @@
         <v>31</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E119" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>174</v>
       </c>
@@ -39515,134 +39485,134 @@
         <v>31</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D120" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E120" s="32">
         <v>1</v>
       </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AJ120" s="1"/>
+      <c r="AK120" s="1"/>
+      <c r="AL120" s="1"/>
+      <c r="AM120" s="1"/>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
+      <c r="AP120" s="1"/>
+      <c r="AQ120" s="1"/>
+      <c r="AR120" s="1"/>
+      <c r="AS120" s="1"/>
+      <c r="AT120" s="1"/>
+      <c r="AU120" s="1"/>
+      <c r="AV120" s="1"/>
+      <c r="AW120" s="1"/>
+      <c r="AX120" s="1"/>
+      <c r="AY120" s="1"/>
+      <c r="AZ120" s="1"/>
+      <c r="BA120" s="1"/>
+      <c r="BB120" s="1"/>
+      <c r="BC120" s="1"/>
     </row>
-    <row r="121" spans="1:55" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D121" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E121" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:55" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D122" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E122" s="32">
         <v>1</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
-      <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
-      <c r="Y122" s="1"/>
-      <c r="Z122" s="1"/>
-      <c r="AA122" s="1"/>
-      <c r="AB122" s="1"/>
-      <c r="AC122" s="1"/>
-      <c r="AD122" s="1"/>
-      <c r="AE122" s="1"/>
-      <c r="AF122" s="1"/>
-      <c r="AG122" s="1"/>
-      <c r="AH122" s="1"/>
-      <c r="AI122" s="1"/>
-      <c r="AJ122" s="1"/>
-      <c r="AK122" s="1"/>
-      <c r="AL122" s="1"/>
-      <c r="AM122" s="1"/>
-      <c r="AN122" s="1"/>
-      <c r="AO122" s="1"/>
-      <c r="AP122" s="1"/>
-      <c r="AQ122" s="1"/>
-      <c r="AR122" s="1"/>
-      <c r="AS122" s="1"/>
-      <c r="AT122" s="1"/>
-      <c r="AU122" s="1"/>
-      <c r="AV122" s="1"/>
-      <c r="AW122" s="1"/>
-      <c r="AX122" s="1"/>
-      <c r="AY122" s="1"/>
-      <c r="AZ122" s="1"/>
-      <c r="BA122" s="1"/>
-      <c r="BB122" s="1"/>
-      <c r="BC122" s="1"/>
     </row>
-    <row r="123" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>180</v>
       </c>
       <c r="B123" s="32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D123" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E123" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>180</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D124" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E124" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>180</v>
       </c>
@@ -39650,186 +39620,186 @@
         <v>240</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D125" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E125" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>180</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D126" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E126" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>180</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D127" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E127" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:55" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="32" t="s">
+    <row r="128" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="B128" s="32" t="s">
-        <v>240</v>
+      <c r="B128" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D128" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E128" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B129" s="32" t="s">
-        <v>240</v>
+    <row r="129" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D129" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E129" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="39" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B130" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D130" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E130" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B131" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D131" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E131" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C132" s="35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D132" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E132" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B133" s="39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D133" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E133" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B134" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D134" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E134" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B135" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C135" s="35" t="s">
-        <v>254</v>
+      <c r="C135" s="48" t="s">
+        <v>251</v>
       </c>
       <c r="D135" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E135" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="39" t="s">
         <v>174</v>
       </c>
@@ -39837,33 +39807,33 @@
         <v>111</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D136" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E136" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B137" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C137" s="49" t="s">
-        <v>256</v>
+      <c r="C137" s="35" t="s">
+        <v>253</v>
       </c>
       <c r="D137" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E137" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="39" t="s">
         <v>174</v>
       </c>
@@ -39871,33 +39841,33 @@
         <v>111</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D138" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E138" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B139" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D139" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E139" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>174</v>
       </c>
@@ -39905,16 +39875,16 @@
         <v>111</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D140" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E140" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="39" t="s">
         <v>174</v>
       </c>
@@ -39922,84 +39892,84 @@
         <v>111</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D141" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E141" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="39" t="s">
-        <v>174</v>
+    <row r="142" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="B142" s="39" t="s">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D142" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E142" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="39" t="s">
-        <v>174</v>
+    <row r="143" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="B143" s="39" t="s">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D143" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E143" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="37" t="s">
+    <row r="144" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B144" s="39" t="s">
-        <v>263</v>
+      <c r="B144" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D144" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E144" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="37" t="s">
+    <row r="145" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B145" s="39" t="s">
-        <v>263</v>
+      <c r="B145" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D145" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E145" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>180</v>
       </c>
@@ -40007,16 +39977,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E146" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>180</v>
       </c>
@@ -40024,50 +39994,50 @@
         <v>8</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E147" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="32" t="s">
+    <row r="148" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B148" s="32" t="s">
+      <c r="B148" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E148" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="32" t="s">
+    <row r="149" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D149" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E149" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="37" t="s">
         <v>180</v>
       </c>
@@ -40075,16 +40045,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D150" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E150" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="37" t="s">
         <v>180</v>
       </c>
@@ -40092,16 +40062,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D151" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E151" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="37" t="s">
         <v>180</v>
       </c>
@@ -40109,16 +40079,16 @@
         <v>8</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D152" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E152" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="37" t="s">
         <v>180</v>
       </c>
@@ -40126,50 +40096,50 @@
         <v>8</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D153" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E153" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B154" s="39" t="s">
+      <c r="B154" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D154" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E154" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B155" s="39" t="s">
+      <c r="B155" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D155" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E155" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="37" t="s">
         <v>180</v>
       </c>
@@ -40177,16 +40147,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D156" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E156" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="37" t="s">
         <v>180</v>
       </c>
@@ -40194,16 +40164,16 @@
         <v>8</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D157" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E157" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="37" t="s">
         <v>180</v>
       </c>
@@ -40211,186 +40181,186 @@
         <v>8</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D158" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E158" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B159" s="41" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D159" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E159" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B160" s="41" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D160" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E160" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="37" t="s">
         <v>174</v>
       </c>
       <c r="B161" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="C161" s="35" t="s">
-        <v>282</v>
+        <v>276</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>279</v>
       </c>
       <c r="D161" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E161" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="37" t="s">
         <v>174</v>
       </c>
       <c r="B162" s="41" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D162" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E162" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B163" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C163" s="33" t="s">
-        <v>284</v>
-      </c>
       <c r="D163" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E163" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="37" t="s">
         <v>174</v>
       </c>
       <c r="B164" s="41" t="s">
-        <v>281</v>
+        <v>7</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D164" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E164" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B165" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="35" t="s">
-        <v>286</v>
+      <c r="C165" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="D165" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E165" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="37" t="s">
         <v>174</v>
       </c>
       <c r="B166" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="35" t="s">
-        <v>287</v>
+      <c r="C166" s="42" t="s">
+        <v>284</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E166" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="37" t="s">
         <v>174</v>
       </c>
       <c r="B167" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="36" t="s">
-        <v>288</v>
+      <c r="C167" s="35" t="s">
+        <v>285</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E167" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="37" t="s">
         <v>174</v>
       </c>
       <c r="B168" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C168" s="42" t="s">
-        <v>289</v>
+      <c r="C168" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="D168" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E168" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37" t="s">
         <v>174</v>
       </c>
@@ -40398,16 +40368,16 @@
         <v>7</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E169" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="37" t="s">
         <v>174</v>
       </c>
@@ -40415,203 +40385,203 @@
         <v>7</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D170" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E170" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B171" s="41" t="s">
-        <v>7</v>
+      <c r="B171" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E171" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B172" s="41" t="s">
-        <v>7</v>
+      <c r="B172" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D172" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E172" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="37" t="s">
-        <v>174</v>
+    <row r="173" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="32" t="s">
+        <v>180</v>
       </c>
       <c r="B173" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D173" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E173" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="B174" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D174" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E174" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="32" t="s">
+    <row r="175" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="32" t="s">
+      <c r="B175" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D175" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E175" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="37" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="B176" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D176" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E176" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B177" s="41" t="s">
-        <v>29</v>
+    <row r="177" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D177" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E177" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B178" s="41" t="s">
-        <v>29</v>
+    <row r="178" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="C178" s="35" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D178" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E178" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B179" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C179" s="35" t="s">
-        <v>300</v>
+      <c r="C179" s="48" t="s">
+        <v>297</v>
       </c>
       <c r="D179" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E179" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B180" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C180" s="35" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D180" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E180" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B181" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C181" s="49" t="s">
-        <v>302</v>
+      <c r="C181" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="D181" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E181" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>174</v>
       </c>
@@ -40619,33 +40589,33 @@
         <v>118</v>
       </c>
       <c r="C182" s="35" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D182" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E182" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B183" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C183" s="35" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D183" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E183" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>174</v>
       </c>
@@ -40653,16 +40623,16 @@
         <v>118</v>
       </c>
       <c r="C184" s="35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D184" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E184" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>180</v>
       </c>
@@ -40670,16 +40640,16 @@
         <v>118</v>
       </c>
       <c r="C185" s="35" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D185" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E185" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>174</v>
       </c>
@@ -40687,118 +40657,118 @@
         <v>118</v>
       </c>
       <c r="C186" s="35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D186" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E186" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B187" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D187" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E187" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>174</v>
       </c>
       <c r="B188" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C188" s="35" t="s">
-        <v>309</v>
+      <c r="C188" s="48" t="s">
+        <v>306</v>
       </c>
       <c r="D188" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E188" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B189" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C189" s="35" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D189" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E189" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B190" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C190" s="49" t="s">
-        <v>311</v>
+      <c r="C190" s="35" t="s">
+        <v>308</v>
       </c>
       <c r="D190" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E190" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B191" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C191" s="35" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D191" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E191" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B192" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C192" s="35" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D192" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E192" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>174</v>
       </c>
@@ -40806,33 +40776,33 @@
         <v>118</v>
       </c>
       <c r="C193" s="35" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D193" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E193" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B194" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C194" s="35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D194" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E194" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>174</v>
       </c>
@@ -40840,84 +40810,84 @@
         <v>118</v>
       </c>
       <c r="C195" s="35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D195" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E195" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B196" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C196" s="35" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D196" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E196" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="32" t="s">
+    <row r="197" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B197" s="32" t="s">
+      <c r="B197" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C197" s="35" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D197" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E197" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="32" t="s">
+    <row r="198" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B198" s="32" t="s">
+      <c r="B198" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C198" s="35" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D198" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E198" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B199" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C199" s="35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D199" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E199" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="37" t="s">
         <v>174</v>
       </c>
@@ -40925,373 +40895,373 @@
         <v>118</v>
       </c>
       <c r="C200" s="35" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D200" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E200" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B201" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C201" s="35" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D201" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E201" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B202" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C202" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D202" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E202" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="37" t="s">
         <v>174</v>
       </c>
       <c r="B203" s="41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C203" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D203" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E203" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B204" s="41" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="C204" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D204" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E204" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B205" s="41" t="s">
-        <v>121</v>
+        <v>322</v>
       </c>
       <c r="C205" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D205" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E205" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B206" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C206" s="35" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D206" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E206" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B207" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C207" s="35" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D207" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E207" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B208" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="C208" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C208" s="35" t="s">
-        <v>330</v>
-      </c>
       <c r="D208" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E208" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B209" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C209" s="35" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D209" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E209" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B210" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D210" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E210" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B211" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C211" s="35" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D211" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E211" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B212" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C212" s="35" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D212" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E212" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B213" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C213" s="35" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D213" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E213" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B214" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C214" s="35" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D214" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E214" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B215" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C215" s="35" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D215" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E215" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B216" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C216" s="35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D216" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E216" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B217" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C217" s="35" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D217" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E217" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B218" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C218" s="35" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D218" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E218" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B219" s="41" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D219" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E219" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B220" s="41" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D220" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E220" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B221" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D221" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E221" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="37" t="s">
         <v>174</v>
       </c>
@@ -41299,33 +41269,33 @@
         <v>46</v>
       </c>
       <c r="C222" s="35" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D222" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E222" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B223" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C223" s="35" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D223" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E223" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="37" t="s">
         <v>174</v>
       </c>
@@ -41333,16 +41303,16 @@
         <v>46</v>
       </c>
       <c r="C224" s="35" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D224" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E224" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="37" t="s">
         <v>174</v>
       </c>
@@ -41350,16 +41320,16 @@
         <v>46</v>
       </c>
       <c r="C225" s="35" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D225" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E225" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="37" t="s">
         <v>174</v>
       </c>
@@ -41367,16 +41337,16 @@
         <v>46</v>
       </c>
       <c r="C226" s="35" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D226" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E226" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="37" t="s">
         <v>174</v>
       </c>
@@ -41384,16 +41354,16 @@
         <v>46</v>
       </c>
       <c r="C227" s="35" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D227" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E227" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="37" t="s">
         <v>174</v>
       </c>
@@ -41401,33 +41371,33 @@
         <v>46</v>
       </c>
       <c r="C228" s="35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D228" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E228" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B229" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C229" s="35" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D229" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E229" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="37" t="s">
         <v>174</v>
       </c>
@@ -41435,33 +41405,33 @@
         <v>46</v>
       </c>
       <c r="C230" s="35" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D230" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E230" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B231" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C231" s="35" t="s">
-        <v>353</v>
+      <c r="C231" s="42" t="s">
+        <v>350</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E231" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="37" t="s">
         <v>174</v>
       </c>
@@ -41469,33 +41439,33 @@
         <v>46</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D232" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E232" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B233" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C233" s="42" t="s">
-        <v>355</v>
+      <c r="C233" s="35" t="s">
+        <v>352</v>
       </c>
       <c r="D233" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E233" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="37" t="s">
         <v>174</v>
       </c>
@@ -41503,16 +41473,16 @@
         <v>46</v>
       </c>
       <c r="C234" s="35" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D234" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E234" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="37" t="s">
         <v>180</v>
       </c>
@@ -41520,33 +41490,33 @@
         <v>46</v>
       </c>
       <c r="C235" s="35" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D235" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E235" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B236" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C236" s="35" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D236" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E236" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="37" t="s">
         <v>180</v>
       </c>
@@ -41554,16 +41524,16 @@
         <v>46</v>
       </c>
       <c r="C237" s="35" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D237" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E237" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="37" t="s">
         <v>180</v>
       </c>
@@ -41571,16 +41541,16 @@
         <v>46</v>
       </c>
       <c r="C238" s="35" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D238" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E238" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
         <v>180</v>
       </c>
@@ -41588,16 +41558,16 @@
         <v>46</v>
       </c>
       <c r="C239" s="35" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D239" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E239" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="37" t="s">
         <v>180</v>
       </c>
@@ -41605,16 +41575,16 @@
         <v>46</v>
       </c>
       <c r="C240" s="35" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D240" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E240" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="37" t="s">
         <v>180</v>
       </c>
@@ -41622,16 +41592,16 @@
         <v>46</v>
       </c>
       <c r="C241" s="35" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D241" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E241" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="37" t="s">
         <v>180</v>
       </c>
@@ -41639,50 +41609,50 @@
         <v>46</v>
       </c>
       <c r="C242" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D242" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E242" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B243" s="41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C243" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E243" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B244" s="41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C244" s="35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D244" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E244" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="37" t="s">
         <v>174</v>
       </c>
@@ -41690,33 +41660,33 @@
         <v>51</v>
       </c>
       <c r="C245" s="35" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D245" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E245" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B246" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D246" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E246" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="37" t="s">
         <v>174</v>
       </c>
@@ -41724,33 +41694,33 @@
         <v>51</v>
       </c>
       <c r="C247" s="35" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D247" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E247" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B248" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C248" s="35" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D248" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E248" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="37" t="s">
         <v>174</v>
       </c>
@@ -41758,101 +41728,101 @@
         <v>51</v>
       </c>
       <c r="C249" s="35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D249" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E249" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B250" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C250" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D250" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E250" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B251" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C251" s="35" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D251" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E251" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B252" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C252" s="35" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D252" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E252" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B253" s="41" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C253" s="35" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D253" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E253" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B254" s="41" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C254" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D254" s="34" t="s">
         <v>376</v>
-      </c>
-      <c r="D254" s="34" t="s">
-        <v>381</v>
       </c>
       <c r="E254" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="37" t="s">
         <v>174</v>
       </c>
@@ -41860,16 +41830,16 @@
         <v>77</v>
       </c>
       <c r="C255" s="35" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D255" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E255" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="37" t="s">
         <v>174</v>
       </c>
@@ -41877,118 +41847,84 @@
         <v>77</v>
       </c>
       <c r="C256" s="35" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D256" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E256" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B257" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C257" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="D257" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="E257" s="32">
-        <v>1</v>
+    <row r="257" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E257" s="31">
+        <f>SUBTOTAL(9,E3:E256)</f>
+        <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B258" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C258" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="D258" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="E258" s="32">
-        <v>1</v>
+    <row r="258" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B258" s="27">
+        <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E259" s="31">
-        <f>SUBTOTAL(9,E3:E258)</f>
-        <v>256</v>
+    <row r="259" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B259" s="27">
+        <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B260" s="27">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B261" s="27">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B262" s="27">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="27" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B263" s="27">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B264" s="27">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B265" s="27">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="29" t="s">
+    <row r="264" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B266" s="28">
-        <f>SUBTOTAL(9,B260:B265)</f>
+      <c r="B264" s="28">
+        <f>SUBTOTAL(9,B258:B263)</f>
         <v>251</v>
       </c>
-      <c r="E266" s="30">
+      <c r="E264" s="30">
         <f>SUBTOTAL(9,E13:E108)</f>
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XED265"/>
+  <autoFilter ref="A1:XED263"/>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
@@ -42097,161 +42033,157 @@
     <hyperlink ref="C84" r:id="rId102"/>
     <hyperlink ref="C86" r:id="rId103"/>
     <hyperlink ref="C109" r:id="rId104"/>
-    <hyperlink ref="C110" r:id="rId105"/>
-    <hyperlink ref="A110" r:id="rId106" display="https://www.mep.go.cr/educatico/nivel/iii-ciclo"/>
-    <hyperlink ref="A109" r:id="rId107" display="https://www.mep.go.cr/educatico/nivel/educacion-diversificada"/>
-    <hyperlink ref="C111" r:id="rId108"/>
-    <hyperlink ref="C113" r:id="rId109"/>
-    <hyperlink ref="C112" r:id="rId110"/>
-    <hyperlink ref="C114" r:id="rId111"/>
-    <hyperlink ref="C117" r:id="rId112"/>
-    <hyperlink ref="C116" r:id="rId113"/>
-    <hyperlink ref="C115" r:id="rId114"/>
-    <hyperlink ref="C119" r:id="rId115"/>
-    <hyperlink ref="C118" r:id="rId116"/>
-    <hyperlink ref="C121" r:id="rId117"/>
-    <hyperlink ref="C122" r:id="rId118"/>
-    <hyperlink ref="C123" r:id="rId119"/>
-    <hyperlink ref="C124" r:id="rId120"/>
-    <hyperlink ref="C129" r:id="rId121"/>
-    <hyperlink ref="C125" r:id="rId122"/>
-    <hyperlink ref="C126" r:id="rId123"/>
-    <hyperlink ref="C127" r:id="rId124"/>
-    <hyperlink ref="C128" r:id="rId125"/>
-    <hyperlink ref="C130" r:id="rId126"/>
-    <hyperlink ref="C131" r:id="rId127"/>
-    <hyperlink ref="C132" r:id="rId128"/>
-    <hyperlink ref="C133" r:id="rId129"/>
-    <hyperlink ref="C134" r:id="rId130"/>
-    <hyperlink ref="C135" r:id="rId131"/>
-    <hyperlink ref="C136" r:id="rId132"/>
-    <hyperlink ref="C137" r:id="rId133"/>
-    <hyperlink ref="C138" r:id="rId134"/>
-    <hyperlink ref="C139" r:id="rId135"/>
-    <hyperlink ref="C140" r:id="rId136"/>
-    <hyperlink ref="C141" r:id="rId137"/>
-    <hyperlink ref="C142" r:id="rId138"/>
+    <hyperlink ref="C111" r:id="rId105"/>
+    <hyperlink ref="C110" r:id="rId106"/>
+    <hyperlink ref="C112" r:id="rId107"/>
+    <hyperlink ref="C115" r:id="rId108"/>
+    <hyperlink ref="C114" r:id="rId109"/>
+    <hyperlink ref="C113" r:id="rId110"/>
+    <hyperlink ref="C117" r:id="rId111"/>
+    <hyperlink ref="C116" r:id="rId112"/>
+    <hyperlink ref="C119" r:id="rId113"/>
+    <hyperlink ref="C120" r:id="rId114"/>
+    <hyperlink ref="C121" r:id="rId115"/>
+    <hyperlink ref="C122" r:id="rId116"/>
+    <hyperlink ref="C127" r:id="rId117"/>
+    <hyperlink ref="C123" r:id="rId118"/>
+    <hyperlink ref="C124" r:id="rId119"/>
+    <hyperlink ref="C125" r:id="rId120"/>
+    <hyperlink ref="C126" r:id="rId121"/>
+    <hyperlink ref="C128" r:id="rId122"/>
+    <hyperlink ref="C129" r:id="rId123"/>
+    <hyperlink ref="C130" r:id="rId124"/>
+    <hyperlink ref="C131" r:id="rId125"/>
+    <hyperlink ref="C132" r:id="rId126"/>
+    <hyperlink ref="C133" r:id="rId127"/>
+    <hyperlink ref="C134" r:id="rId128"/>
+    <hyperlink ref="C135" r:id="rId129"/>
+    <hyperlink ref="C136" r:id="rId130"/>
+    <hyperlink ref="C137" r:id="rId131"/>
+    <hyperlink ref="C138" r:id="rId132"/>
+    <hyperlink ref="C139" r:id="rId133"/>
+    <hyperlink ref="C140" r:id="rId134"/>
+    <hyperlink ref="C141" r:id="rId135"/>
+    <hyperlink ref="C142" r:id="rId136" display="Hidroestática"/>
+    <hyperlink ref="C148" r:id="rId137"/>
+    <hyperlink ref="C149" r:id="rId138"/>
     <hyperlink ref="C143" r:id="rId139"/>
-    <hyperlink ref="C144" r:id="rId140" display="Hidroestática"/>
-    <hyperlink ref="C150" r:id="rId141"/>
-    <hyperlink ref="C151" r:id="rId142"/>
-    <hyperlink ref="C145" r:id="rId143"/>
-    <hyperlink ref="C146" r:id="rId144"/>
-    <hyperlink ref="C147" r:id="rId145"/>
-    <hyperlink ref="C148" r:id="rId146"/>
-    <hyperlink ref="C149" r:id="rId147"/>
-    <hyperlink ref="C152" r:id="rId148"/>
-    <hyperlink ref="C153" r:id="rId149"/>
-    <hyperlink ref="C154" r:id="rId150"/>
-    <hyperlink ref="C155" r:id="rId151"/>
-    <hyperlink ref="C156" r:id="rId152"/>
-    <hyperlink ref="C164" r:id="rId153"/>
-    <hyperlink ref="C163" r:id="rId154"/>
-    <hyperlink ref="C162" r:id="rId155"/>
-    <hyperlink ref="C157" r:id="rId156"/>
-    <hyperlink ref="C158" r:id="rId157"/>
-    <hyperlink ref="C159" r:id="rId158"/>
-    <hyperlink ref="C160" r:id="rId159"/>
-    <hyperlink ref="C161" r:id="rId160"/>
-    <hyperlink ref="C165" r:id="rId161"/>
-    <hyperlink ref="C166" r:id="rId162"/>
-    <hyperlink ref="C168" r:id="rId163"/>
-    <hyperlink ref="C167" r:id="rId164"/>
-    <hyperlink ref="C169" r:id="rId165"/>
-    <hyperlink ref="C170" r:id="rId166"/>
-    <hyperlink ref="C171" r:id="rId167"/>
-    <hyperlink ref="C172" r:id="rId168"/>
-    <hyperlink ref="C176" r:id="rId169"/>
-    <hyperlink ref="C175" r:id="rId170"/>
-    <hyperlink ref="C174" r:id="rId171"/>
-    <hyperlink ref="C173" r:id="rId172"/>
-    <hyperlink ref="C177" r:id="rId173"/>
-    <hyperlink ref="C178" r:id="rId174"/>
-    <hyperlink ref="C187" r:id="rId175"/>
-    <hyperlink ref="C189" r:id="rId176"/>
-    <hyperlink ref="C188" r:id="rId177"/>
-    <hyperlink ref="C186" r:id="rId178"/>
-    <hyperlink ref="C185" r:id="rId179"/>
-    <hyperlink ref="C184" r:id="rId180"/>
-    <hyperlink ref="C183" r:id="rId181"/>
-    <hyperlink ref="C182" r:id="rId182"/>
-    <hyperlink ref="C181" r:id="rId183"/>
-    <hyperlink ref="C180" r:id="rId184"/>
-    <hyperlink ref="C179" r:id="rId185"/>
-    <hyperlink ref="C197" r:id="rId186"/>
-    <hyperlink ref="C196" r:id="rId187"/>
+    <hyperlink ref="C144" r:id="rId140"/>
+    <hyperlink ref="C145" r:id="rId141"/>
+    <hyperlink ref="C146" r:id="rId142"/>
+    <hyperlink ref="C147" r:id="rId143"/>
+    <hyperlink ref="C150" r:id="rId144"/>
+    <hyperlink ref="C151" r:id="rId145"/>
+    <hyperlink ref="C152" r:id="rId146"/>
+    <hyperlink ref="C153" r:id="rId147"/>
+    <hyperlink ref="C154" r:id="rId148"/>
+    <hyperlink ref="C162" r:id="rId149"/>
+    <hyperlink ref="C161" r:id="rId150"/>
+    <hyperlink ref="C160" r:id="rId151"/>
+    <hyperlink ref="C155" r:id="rId152"/>
+    <hyperlink ref="C156" r:id="rId153"/>
+    <hyperlink ref="C157" r:id="rId154"/>
+    <hyperlink ref="C158" r:id="rId155"/>
+    <hyperlink ref="C159" r:id="rId156"/>
+    <hyperlink ref="C163" r:id="rId157"/>
+    <hyperlink ref="C164" r:id="rId158"/>
+    <hyperlink ref="C166" r:id="rId159"/>
+    <hyperlink ref="C165" r:id="rId160"/>
+    <hyperlink ref="C167" r:id="rId161"/>
+    <hyperlink ref="C168" r:id="rId162"/>
+    <hyperlink ref="C169" r:id="rId163"/>
+    <hyperlink ref="C170" r:id="rId164"/>
+    <hyperlink ref="C174" r:id="rId165"/>
+    <hyperlink ref="C173" r:id="rId166"/>
+    <hyperlink ref="C172" r:id="rId167"/>
+    <hyperlink ref="C171" r:id="rId168"/>
+    <hyperlink ref="C175" r:id="rId169"/>
+    <hyperlink ref="C176" r:id="rId170"/>
+    <hyperlink ref="C185" r:id="rId171"/>
+    <hyperlink ref="C187" r:id="rId172"/>
+    <hyperlink ref="C186" r:id="rId173"/>
+    <hyperlink ref="C184" r:id="rId174"/>
+    <hyperlink ref="C183" r:id="rId175"/>
+    <hyperlink ref="C182" r:id="rId176"/>
+    <hyperlink ref="C181" r:id="rId177"/>
+    <hyperlink ref="C180" r:id="rId178"/>
+    <hyperlink ref="C179" r:id="rId179"/>
+    <hyperlink ref="C178" r:id="rId180"/>
+    <hyperlink ref="C177" r:id="rId181"/>
+    <hyperlink ref="C195" r:id="rId182"/>
+    <hyperlink ref="C194" r:id="rId183"/>
+    <hyperlink ref="C189" r:id="rId184"/>
+    <hyperlink ref="C188" r:id="rId185"/>
+    <hyperlink ref="C193" r:id="rId186"/>
+    <hyperlink ref="C192" r:id="rId187"/>
     <hyperlink ref="C191" r:id="rId188"/>
     <hyperlink ref="C190" r:id="rId189"/>
-    <hyperlink ref="C195" r:id="rId190"/>
-    <hyperlink ref="C194" r:id="rId191"/>
-    <hyperlink ref="C193" r:id="rId192"/>
-    <hyperlink ref="C192" r:id="rId193"/>
-    <hyperlink ref="C198" r:id="rId194"/>
+    <hyperlink ref="C196" r:id="rId190"/>
+    <hyperlink ref="C198" r:id="rId191"/>
+    <hyperlink ref="C197" r:id="rId192"/>
+    <hyperlink ref="C202" r:id="rId193"/>
+    <hyperlink ref="C201" r:id="rId194"/>
     <hyperlink ref="C200" r:id="rId195"/>
     <hyperlink ref="C199" r:id="rId196"/>
-    <hyperlink ref="C204" r:id="rId197"/>
-    <hyperlink ref="C203" r:id="rId198"/>
-    <hyperlink ref="C202" r:id="rId199"/>
-    <hyperlink ref="C201" r:id="rId200"/>
-    <hyperlink ref="C205" r:id="rId201"/>
-    <hyperlink ref="C209" r:id="rId202"/>
-    <hyperlink ref="C210" r:id="rId203"/>
-    <hyperlink ref="C206" r:id="rId204"/>
-    <hyperlink ref="C211" r:id="rId205"/>
-    <hyperlink ref="C212" r:id="rId206"/>
-    <hyperlink ref="C213" r:id="rId207"/>
-    <hyperlink ref="C214" r:id="rId208"/>
+    <hyperlink ref="C203" r:id="rId197"/>
+    <hyperlink ref="C207" r:id="rId198"/>
+    <hyperlink ref="C208" r:id="rId199"/>
+    <hyperlink ref="C204" r:id="rId200"/>
+    <hyperlink ref="C209" r:id="rId201"/>
+    <hyperlink ref="C210" r:id="rId202"/>
+    <hyperlink ref="C211" r:id="rId203"/>
+    <hyperlink ref="C212" r:id="rId204"/>
+    <hyperlink ref="C214" r:id="rId205"/>
+    <hyperlink ref="C213" r:id="rId206"/>
+    <hyperlink ref="C206" r:id="rId207"/>
+    <hyperlink ref="C215" r:id="rId208"/>
     <hyperlink ref="C216" r:id="rId209"/>
-    <hyperlink ref="C215" r:id="rId210"/>
-    <hyperlink ref="C208" r:id="rId211"/>
-    <hyperlink ref="C217" r:id="rId212"/>
-    <hyperlink ref="C218" r:id="rId213"/>
-    <hyperlink ref="C219" r:id="rId214"/>
-    <hyperlink ref="C220" r:id="rId215"/>
-    <hyperlink ref="C207" r:id="rId216"/>
-    <hyperlink ref="C221" r:id="rId217"/>
-    <hyperlink ref="C222" r:id="rId218"/>
-    <hyperlink ref="C223" r:id="rId219"/>
-    <hyperlink ref="C224" r:id="rId220"/>
-    <hyperlink ref="C225" r:id="rId221"/>
-    <hyperlink ref="C226" r:id="rId222"/>
-    <hyperlink ref="C227" r:id="rId223"/>
-    <hyperlink ref="C228" r:id="rId224"/>
-    <hyperlink ref="C229" r:id="rId225"/>
-    <hyperlink ref="C230" r:id="rId226"/>
-    <hyperlink ref="C231" r:id="rId227"/>
-    <hyperlink ref="C232" r:id="rId228"/>
-    <hyperlink ref="C233" r:id="rId229"/>
-    <hyperlink ref="C234" r:id="rId230"/>
-    <hyperlink ref="C235" r:id="rId231"/>
-    <hyperlink ref="C236" r:id="rId232"/>
-    <hyperlink ref="C237" r:id="rId233"/>
-    <hyperlink ref="C238" r:id="rId234"/>
-    <hyperlink ref="C239" r:id="rId235"/>
-    <hyperlink ref="C240" r:id="rId236"/>
-    <hyperlink ref="C241" r:id="rId237"/>
-    <hyperlink ref="C242" r:id="rId238"/>
-    <hyperlink ref="C243" r:id="rId239"/>
-    <hyperlink ref="C244" r:id="rId240"/>
-    <hyperlink ref="C245" r:id="rId241"/>
-    <hyperlink ref="C246" r:id="rId242"/>
-    <hyperlink ref="C247" r:id="rId243"/>
-    <hyperlink ref="C248" r:id="rId244"/>
-    <hyperlink ref="C249" r:id="rId245"/>
-    <hyperlink ref="C250" r:id="rId246"/>
-    <hyperlink ref="C251" r:id="rId247"/>
-    <hyperlink ref="C252" r:id="rId248"/>
-    <hyperlink ref="C253" r:id="rId249"/>
-    <hyperlink ref="C254" r:id="rId250"/>
-    <hyperlink ref="C255" r:id="rId251"/>
-    <hyperlink ref="C256" r:id="rId252"/>
-    <hyperlink ref="C257" r:id="rId253"/>
-    <hyperlink ref="C258" r:id="rId254"/>
-    <hyperlink ref="C49" r:id="rId255" display="https://www.mep.go.cr/educatico/carretica-cuentera"/>
-    <hyperlink ref="C107" r:id="rId256"/>
+    <hyperlink ref="C217" r:id="rId210"/>
+    <hyperlink ref="C218" r:id="rId211"/>
+    <hyperlink ref="C205" r:id="rId212"/>
+    <hyperlink ref="C219" r:id="rId213"/>
+    <hyperlink ref="C220" r:id="rId214"/>
+    <hyperlink ref="C221" r:id="rId215"/>
+    <hyperlink ref="C222" r:id="rId216"/>
+    <hyperlink ref="C223" r:id="rId217"/>
+    <hyperlink ref="C224" r:id="rId218"/>
+    <hyperlink ref="C225" r:id="rId219"/>
+    <hyperlink ref="C226" r:id="rId220"/>
+    <hyperlink ref="C227" r:id="rId221"/>
+    <hyperlink ref="C228" r:id="rId222"/>
+    <hyperlink ref="C229" r:id="rId223"/>
+    <hyperlink ref="C230" r:id="rId224"/>
+    <hyperlink ref="C231" r:id="rId225"/>
+    <hyperlink ref="C232" r:id="rId226"/>
+    <hyperlink ref="C233" r:id="rId227"/>
+    <hyperlink ref="C234" r:id="rId228"/>
+    <hyperlink ref="C235" r:id="rId229"/>
+    <hyperlink ref="C236" r:id="rId230"/>
+    <hyperlink ref="C237" r:id="rId231"/>
+    <hyperlink ref="C238" r:id="rId232"/>
+    <hyperlink ref="C239" r:id="rId233"/>
+    <hyperlink ref="C240" r:id="rId234"/>
+    <hyperlink ref="C241" r:id="rId235"/>
+    <hyperlink ref="C242" r:id="rId236"/>
+    <hyperlink ref="C243" r:id="rId237"/>
+    <hyperlink ref="C244" r:id="rId238"/>
+    <hyperlink ref="C245" r:id="rId239"/>
+    <hyperlink ref="C246" r:id="rId240"/>
+    <hyperlink ref="C247" r:id="rId241"/>
+    <hyperlink ref="C248" r:id="rId242"/>
+    <hyperlink ref="C249" r:id="rId243"/>
+    <hyperlink ref="C250" r:id="rId244"/>
+    <hyperlink ref="C251" r:id="rId245"/>
+    <hyperlink ref="C252" r:id="rId246"/>
+    <hyperlink ref="C253" r:id="rId247"/>
+    <hyperlink ref="C254" r:id="rId248"/>
+    <hyperlink ref="C255" r:id="rId249"/>
+    <hyperlink ref="C256" r:id="rId250"/>
+    <hyperlink ref="C49" r:id="rId251" display="https://www.mep.go.cr/educatico/carretica-cuentera"/>
+    <hyperlink ref="C107" r:id="rId252"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId257"/>
-  <drawing r:id="rId258"/>
+  <pageSetup orientation="portrait" r:id="rId253"/>
+  <drawing r:id="rId254"/>
 </worksheet>
 </file>
--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -21087,15 +21087,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:XED264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21124,7 +21124,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>221</v>
       </c>
@@ -21133,7 +21133,7 @@
       <c r="D2" s="54"/>
       <c r="E2" s="55"/>
     </row>
-    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>181</v>
       </c>
@@ -21150,7 +21150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>176</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>174</v>
       </c>
@@ -21184,7 +21184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>180</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>174</v>
       </c>
@@ -21218,7 +21218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>176</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>176</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>172</v>
       </c>
@@ -21269,7 +21269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>178</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>178</v>
       </c>
@@ -21303,7 +21303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>178</v>
       </c>
@@ -37673,7 +37673,7 @@
       <c r="XEC13" s="7"/>
       <c r="XED13" s="7"/>
     </row>
-    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>178</v>
       </c>
@@ -37690,7 +37690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>176</v>
       </c>
@@ -37707,7 +37707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>176</v>
       </c>
@@ -37724,7 +37724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>189</v>
       </c>
@@ -37741,7 +37741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>173</v>
       </c>
@@ -37758,7 +37758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>173</v>
       </c>
@@ -37775,7 +37775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>173</v>
       </c>
@@ -37792,7 +37792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>173</v>
       </c>
@@ -37809,7 +37809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>188</v>
       </c>
@@ -37826,7 +37826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>188</v>
       </c>
@@ -37843,7 +37843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>188</v>
       </c>
@@ -37860,7 +37860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>177</v>
       </c>
@@ -37877,7 +37877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>177</v>
       </c>
@@ -37894,7 +37894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>174</v>
       </c>
@@ -37911,7 +37911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>173</v>
       </c>
@@ -37928,7 +37928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>188</v>
       </c>
@@ -37945,7 +37945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>188</v>
       </c>
@@ -37962,7 +37962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>173</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>188</v>
       </c>
@@ -37996,7 +37996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>173</v>
       </c>
@@ -38013,7 +38013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>180</v>
       </c>
@@ -38030,7 +38030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>180</v>
       </c>
@@ -38047,7 +38047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>181</v>
       </c>
@@ -38064,7 +38064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>217</v>
       </c>
@@ -38081,7 +38081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>180</v>
       </c>
@@ -38098,7 +38098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>177</v>
       </c>
@@ -38115,7 +38115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>188</v>
       </c>
@@ -38132,7 +38132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>181</v>
       </c>
@@ -38149,7 +38149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>181</v>
       </c>
@@ -38166,7 +38166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>181</v>
       </c>
@@ -38183,7 +38183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>172</v>
       </c>
@@ -38200,7 +38200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>173</v>
       </c>
@@ -38217,7 +38217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>172</v>
       </c>
@@ -38234,7 +38234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>176</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
         <v>175</v>
       </c>
@@ -38268,7 +38268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>176</v>
       </c>
@@ -38285,7 +38285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
         <v>174</v>
       </c>
@@ -38302,7 +38302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
         <v>181</v>
       </c>
@@ -38319,7 +38319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
         <v>178</v>
       </c>
@@ -38336,7 +38336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>178</v>
       </c>
@@ -38404,7 +38404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
         <v>218</v>
       </c>
@@ -38421,7 +38421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
         <v>218</v>
       </c>
@@ -38438,7 +38438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
         <v>218</v>
       </c>
@@ -38472,7 +38472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
         <v>173</v>
       </c>
@@ -38489,7 +38489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
         <v>173</v>
       </c>
@@ -38506,7 +38506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
         <v>173</v>
       </c>
@@ -38523,7 +38523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>188</v>
       </c>
@@ -38540,7 +38540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
         <v>188</v>
       </c>
@@ -38557,7 +38557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
         <v>188</v>
       </c>
@@ -38574,7 +38574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="37" t="s">
         <v>178</v>
       </c>
@@ -38591,7 +38591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
         <v>174</v>
       </c>
@@ -38625,7 +38625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
         <v>174</v>
       </c>
@@ -38642,7 +38642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
         <v>176</v>
       </c>
@@ -38659,7 +38659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
         <v>174</v>
       </c>
@@ -38676,7 +38676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
         <v>174</v>
       </c>
@@ -38693,7 +38693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>172</v>
       </c>
@@ -38710,7 +38710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>176</v>
       </c>
@@ -38727,7 +38727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
         <v>176</v>
       </c>
@@ -38744,7 +38744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
         <v>172</v>
       </c>
@@ -38761,7 +38761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
         <v>181</v>
       </c>
@@ -38778,7 +38778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
         <v>178</v>
       </c>
@@ -38795,7 +38795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
         <v>174</v>
       </c>
@@ -38812,7 +38812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
         <v>176</v>
       </c>
@@ -38829,7 +38829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
         <v>181</v>
       </c>
@@ -38846,7 +38846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
         <v>28</v>
       </c>
@@ -38863,7 +38863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>190</v>
       </c>
@@ -38880,7 +38880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
         <v>181</v>
       </c>
@@ -38897,7 +38897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
         <v>173</v>
       </c>
@@ -38914,7 +38914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
         <v>173</v>
       </c>
@@ -38931,7 +38931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
         <v>173</v>
       </c>
@@ -38948,7 +38948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>173</v>
       </c>
@@ -38965,7 +38965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
         <v>188</v>
       </c>
@@ -38982,7 +38982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
         <v>173</v>
       </c>
@@ -38999,7 +38999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>173</v>
       </c>
@@ -39016,7 +39016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
         <v>173</v>
       </c>
@@ -39033,7 +39033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37" t="s">
         <v>174</v>
       </c>
@@ -39050,7 +39050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37" t="s">
         <v>178</v>
       </c>
@@ -39067,7 +39067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>28</v>
       </c>
@@ -39084,7 +39084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
         <v>28</v>
       </c>
@@ -39101,7 +39101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
         <v>28</v>
       </c>
@@ -39118,7 +39118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37" t="s">
         <v>174</v>
       </c>
@@ -39135,7 +39135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>28</v>
       </c>
@@ -39152,7 +39152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>181</v>
       </c>
@@ -39169,7 +39169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>220</v>
       </c>
@@ -39186,7 +39186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>178</v>
       </c>
@@ -39204,7 +39204,7 @@
       </c>
       <c r="F103" s="51"/>
     </row>
-    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>181</v>
       </c>
@@ -39221,7 +39221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
         <v>217</v>
       </c>
@@ -39238,7 +39238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>213</v>
       </c>
@@ -39255,7 +39255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>178</v>
       </c>
@@ -39273,7 +39273,7 @@
       </c>
       <c r="F107" s="51"/>
     </row>
-    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
         <v>178</v>
       </c>
@@ -39290,7 +39290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>177</v>
       </c>
@@ -39307,7 +39307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>174</v>
       </c>
@@ -39324,7 +39324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>180</v>
       </c>
@@ -39341,7 +39341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>174</v>
       </c>
@@ -39358,7 +39358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>174</v>
       </c>
@@ -39375,7 +39375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>180</v>
       </c>
@@ -39392,7 +39392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>174</v>
       </c>
@@ -39409,7 +39409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>174</v>
       </c>
@@ -39426,7 +39426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>174</v>
       </c>
@@ -39443,7 +39443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>174</v>
       </c>
@@ -39460,7 +39460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>174</v>
       </c>
@@ -39477,7 +39477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>174</v>
       </c>
@@ -39544,7 +39544,7 @@
       <c r="BB120" s="1"/>
       <c r="BC120" s="1"/>
     </row>
-    <row r="121" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>180</v>
       </c>
@@ -39561,7 +39561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>180</v>
       </c>
@@ -39578,7 +39578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>180</v>
       </c>
@@ -39595,7 +39595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>180</v>
       </c>
@@ -39612,7 +39612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>180</v>
       </c>
@@ -39629,7 +39629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>180</v>
       </c>
@@ -39646,7 +39646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>180</v>
       </c>
@@ -39663,7 +39663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="39" t="s">
         <v>180</v>
       </c>
@@ -39680,7 +39680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="39" t="s">
         <v>174</v>
       </c>
@@ -39697,7 +39697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="39" t="s">
         <v>174</v>
       </c>
@@ -39714,7 +39714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="39" t="s">
         <v>174</v>
       </c>
@@ -39731,7 +39731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="39" t="s">
         <v>174</v>
       </c>
@@ -39748,7 +39748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>174</v>
       </c>
@@ -39765,7 +39765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="39" t="s">
         <v>174</v>
       </c>
@@ -39782,7 +39782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>174</v>
       </c>
@@ -39799,7 +39799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="39" t="s">
         <v>174</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>174</v>
       </c>
@@ -39833,7 +39833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="39" t="s">
         <v>174</v>
       </c>
@@ -39850,7 +39850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="39" t="s">
         <v>174</v>
       </c>
@@ -39867,7 +39867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>174</v>
       </c>
@@ -39884,7 +39884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="39" t="s">
         <v>174</v>
       </c>
@@ -39901,7 +39901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="37" t="s">
         <v>180</v>
       </c>
@@ -39918,7 +39918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="37" t="s">
         <v>180</v>
       </c>
@@ -39935,7 +39935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
         <v>180</v>
       </c>
@@ -39952,7 +39952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
         <v>180</v>
       </c>
@@ -39969,7 +39969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>180</v>
       </c>
@@ -39986,7 +39986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>180</v>
       </c>
@@ -40003,7 +40003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="37" t="s">
         <v>180</v>
       </c>
@@ -40020,7 +40020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="37" t="s">
         <v>180</v>
       </c>
@@ -40037,7 +40037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="37" t="s">
         <v>180</v>
       </c>
@@ -40054,7 +40054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="37" t="s">
         <v>180</v>
       </c>
@@ -40071,7 +40071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="37" t="s">
         <v>180</v>
       </c>
@@ -40088,7 +40088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="37" t="s">
         <v>180</v>
       </c>
@@ -40105,7 +40105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="37" t="s">
         <v>180</v>
       </c>
@@ -40122,7 +40122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="37" t="s">
         <v>180</v>
       </c>
@@ -40139,7 +40139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="37" t="s">
         <v>180</v>
       </c>
@@ -40156,7 +40156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="37" t="s">
         <v>180</v>
       </c>
@@ -40173,7 +40173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="37" t="s">
         <v>180</v>
       </c>
@@ -40190,7 +40190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="37" t="s">
         <v>174</v>
       </c>
@@ -40207,7 +40207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="37" t="s">
         <v>174</v>
       </c>
@@ -40224,7 +40224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="37" t="s">
         <v>174</v>
       </c>
@@ -40241,7 +40241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="37" t="s">
         <v>174</v>
       </c>
@@ -40258,7 +40258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="37" t="s">
         <v>175</v>
       </c>
@@ -40275,7 +40275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="37" t="s">
         <v>174</v>
       </c>
@@ -40292,7 +40292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="37" t="s">
         <v>174</v>
       </c>
@@ -40309,7 +40309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="37" t="s">
         <v>174</v>
       </c>
@@ -40326,7 +40326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="37" t="s">
         <v>174</v>
       </c>
@@ -40343,7 +40343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="37" t="s">
         <v>174</v>
       </c>
@@ -40360,7 +40360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37" t="s">
         <v>174</v>
       </c>
@@ -40377,7 +40377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="37" t="s">
         <v>174</v>
       </c>
@@ -40394,7 +40394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="37" t="s">
         <v>174</v>
       </c>
@@ -40411,7 +40411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="37" t="s">
         <v>174</v>
       </c>
@@ -40428,7 +40428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>180</v>
       </c>
@@ -40445,7 +40445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="37" t="s">
         <v>174</v>
       </c>
@@ -40462,7 +40462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="37" t="s">
         <v>180</v>
       </c>
@@ -40479,7 +40479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="37" t="s">
         <v>28</v>
       </c>
@@ -40496,7 +40496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>174</v>
       </c>
@@ -40513,7 +40513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>180</v>
       </c>
@@ -40530,7 +40530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>180</v>
       </c>
@@ -40547,7 +40547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>174</v>
       </c>
@@ -40564,7 +40564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>174</v>
       </c>
@@ -40581,7 +40581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>174</v>
       </c>
@@ -40598,7 +40598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>180</v>
       </c>
@@ -40615,7 +40615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>174</v>
       </c>
@@ -40632,7 +40632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>180</v>
       </c>
@@ -40649,7 +40649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>174</v>
       </c>
@@ -40666,7 +40666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>174</v>
       </c>
@@ -40683,7 +40683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>174</v>
       </c>
@@ -40700,7 +40700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>180</v>
       </c>
@@ -40717,7 +40717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>180</v>
       </c>
@@ -40734,7 +40734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>174</v>
       </c>
@@ -40751,7 +40751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>174</v>
       </c>
@@ -40768,7 +40768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>174</v>
       </c>
@@ -40785,7 +40785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>180</v>
       </c>
@@ -40802,7 +40802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>174</v>
       </c>
@@ -40819,7 +40819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>174</v>
       </c>
@@ -40836,7 +40836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="37" t="s">
         <v>174</v>
       </c>
@@ -40853,7 +40853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="37" t="s">
         <v>174</v>
       </c>
@@ -40870,7 +40870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="37" t="s">
         <v>180</v>
       </c>
@@ -40887,7 +40887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="37" t="s">
         <v>174</v>
       </c>
@@ -40904,7 +40904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="37" t="s">
         <v>174</v>
       </c>
@@ -40921,7 +40921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="37" t="s">
         <v>180</v>
       </c>
@@ -40938,7 +40938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="37" t="s">
         <v>174</v>
       </c>
@@ -40955,7 +40955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="37" t="s">
         <v>180</v>
       </c>
@@ -40972,7 +40972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="37" t="s">
         <v>180</v>
       </c>
@@ -40989,7 +40989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="37" t="s">
         <v>180</v>
       </c>
@@ -41006,7 +41006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="37" t="s">
         <v>180</v>
       </c>
@@ -41023,7 +41023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="37" t="s">
         <v>180</v>
       </c>
@@ -41040,7 +41040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="37" t="s">
         <v>180</v>
       </c>
@@ -41057,7 +41057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="37" t="s">
         <v>180</v>
       </c>
@@ -41074,7 +41074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="37" t="s">
         <v>180</v>
       </c>
@@ -41091,7 +41091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="37" t="s">
         <v>180</v>
       </c>
@@ -41108,7 +41108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="37" t="s">
         <v>180</v>
       </c>
@@ -41125,7 +41125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="37" t="s">
         <v>180</v>
       </c>
@@ -41142,7 +41142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="37" t="s">
         <v>180</v>
       </c>
@@ -41159,7 +41159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="37" t="s">
         <v>180</v>
       </c>
@@ -41176,7 +41176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="37" t="s">
         <v>180</v>
       </c>
@@ -41193,7 +41193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
         <v>180</v>
       </c>
@@ -41210,7 +41210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="37" t="s">
         <v>174</v>
       </c>
@@ -41227,7 +41227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="37" t="s">
         <v>174</v>
       </c>
@@ -41244,7 +41244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="37" t="s">
         <v>180</v>
       </c>
@@ -41261,7 +41261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="37" t="s">
         <v>174</v>
       </c>
@@ -41278,7 +41278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="37" t="s">
         <v>174</v>
       </c>
@@ -41295,7 +41295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="37" t="s">
         <v>174</v>
       </c>
@@ -41312,7 +41312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="37" t="s">
         <v>174</v>
       </c>
@@ -41329,7 +41329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="37" t="s">
         <v>174</v>
       </c>
@@ -41346,7 +41346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="37" t="s">
         <v>174</v>
       </c>
@@ -41363,7 +41363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="37" t="s">
         <v>174</v>
       </c>
@@ -41380,7 +41380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="37" t="s">
         <v>180</v>
       </c>
@@ -41397,7 +41397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="37" t="s">
         <v>174</v>
       </c>
@@ -41414,7 +41414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
         <v>180</v>
       </c>
@@ -41431,7 +41431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="37" t="s">
         <v>174</v>
       </c>
@@ -41448,7 +41448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
         <v>180</v>
       </c>
@@ -41465,7 +41465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="37" t="s">
         <v>174</v>
       </c>
@@ -41482,7 +41482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="37" t="s">
         <v>180</v>
       </c>
@@ -41499,7 +41499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="37" t="s">
         <v>180</v>
       </c>
@@ -41516,7 +41516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="37" t="s">
         <v>180</v>
       </c>
@@ -41533,7 +41533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="37" t="s">
         <v>180</v>
       </c>
@@ -41550,7 +41550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
         <v>180</v>
       </c>
@@ -41567,7 +41567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="37" t="s">
         <v>180</v>
       </c>
@@ -41584,7 +41584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="37" t="s">
         <v>180</v>
       </c>
@@ -41601,7 +41601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="37" t="s">
         <v>180</v>
       </c>
@@ -41618,7 +41618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
         <v>174</v>
       </c>
@@ -41635,7 +41635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="37" t="s">
         <v>180</v>
       </c>
@@ -41652,7 +41652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="37" t="s">
         <v>174</v>
       </c>
@@ -41669,7 +41669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="37" t="s">
         <v>174</v>
       </c>
@@ -41686,7 +41686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="37" t="s">
         <v>174</v>
       </c>
@@ -41703,7 +41703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="37" t="s">
         <v>180</v>
       </c>
@@ -41720,7 +41720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="37" t="s">
         <v>174</v>
       </c>
@@ -41737,7 +41737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="37" t="s">
         <v>174</v>
       </c>
@@ -41754,7 +41754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="37" t="s">
         <v>180</v>
       </c>
@@ -41771,7 +41771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="37" t="s">
         <v>180</v>
       </c>
@@ -41788,7 +41788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="37" t="s">
         <v>174</v>
       </c>
@@ -41805,7 +41805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="37" t="s">
         <v>174</v>
       </c>
@@ -41822,7 +41822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="37" t="s">
         <v>174</v>
       </c>
@@ -41839,7 +41839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="37" t="s">
         <v>174</v>
       </c>
@@ -41856,13 +41856,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E257" s="31">
         <f>SUBTOTAL(9,E3:E256)</f>
-        <v>254</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="27" t="s">
         <v>205</v>
       </c>
@@ -41870,7 +41870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="27" t="s">
         <v>206</v>
       </c>
@@ -41878,7 +41878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="27" t="s">
         <v>207</v>
       </c>
@@ -41886,7 +41886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="27" t="s">
         <v>203</v>
       </c>
@@ -41894,7 +41894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="27" t="s">
         <v>204</v>
       </c>
@@ -41902,7 +41902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="27" t="s">
         <v>222</v>
       </c>
@@ -41916,15 +41916,27 @@
       </c>
       <c r="B264" s="28">
         <f>SUBTOTAL(9,B258:B263)</f>
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="E264" s="30">
         <f>SUBTOTAL(9,E13:E108)</f>
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XED263"/>
+  <autoFilter ref="A1:XED263">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Matemática"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="2018"/>
+        <filter val="2019"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>

--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10830" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="recursos " sheetId="1" r:id="rId1"/>
     <sheet name="COLECCION" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XED$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XED$276</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'recursos '!$A$1:$XEI$99</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="386">
   <si>
     <t>Materia</t>
   </si>
@@ -1295,6 +1295,27 @@
   <si>
     <t>Tecnoaprender</t>
   </si>
+  <si>
+    <t>Avances</t>
+  </si>
+  <si>
+    <t>Arte contemporaneo</t>
+  </si>
+  <si>
+    <t>Apocalipsis Zombie</t>
+  </si>
+  <si>
+    <t>Educación Financiera</t>
+  </si>
+  <si>
+    <t>QR Codes</t>
+  </si>
+  <si>
+    <t>Traductor Ngabere</t>
+  </si>
+  <si>
+    <t>Mis primeros pasos</t>
+  </si>
 </sst>
 </file>
 
@@ -1391,7 +1412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1464,12 +1485,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1632,6 +1666,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21090,12 +21133,12 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:XED264"/>
+  <dimension ref="A1:XED277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21124,7 +21167,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>221</v>
       </c>
@@ -21133,7 +21176,7 @@
       <c r="D2" s="54"/>
       <c r="E2" s="55"/>
     </row>
-    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>181</v>
       </c>
@@ -21150,7 +21193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>176</v>
       </c>
@@ -21167,7 +21210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>174</v>
       </c>
@@ -21184,7 +21227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>180</v>
       </c>
@@ -21201,7 +21244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>174</v>
       </c>
@@ -21218,7 +21261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>176</v>
       </c>
@@ -21235,7 +21278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>176</v>
       </c>
@@ -21252,7 +21295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>172</v>
       </c>
@@ -21269,7 +21312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>178</v>
       </c>
@@ -21286,7 +21329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>178</v>
       </c>
@@ -21303,7 +21346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>178</v>
       </c>
@@ -37673,7 +37716,7 @@
       <c r="XEC13" s="7"/>
       <c r="XED13" s="7"/>
     </row>
-    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>178</v>
       </c>
@@ -37690,7 +37733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>176</v>
       </c>
@@ -37707,7 +37750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>176</v>
       </c>
@@ -37724,7 +37767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>189</v>
       </c>
@@ -37741,7 +37784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>173</v>
       </c>
@@ -37758,7 +37801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>173</v>
       </c>
@@ -37775,7 +37818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>173</v>
       </c>
@@ -37792,7 +37835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>173</v>
       </c>
@@ -37809,7 +37852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>188</v>
       </c>
@@ -37826,7 +37869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>188</v>
       </c>
@@ -37843,7 +37886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>188</v>
       </c>
@@ -37860,7 +37903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>177</v>
       </c>
@@ -37877,7 +37920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>177</v>
       </c>
@@ -37894,7 +37937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>174</v>
       </c>
@@ -37911,7 +37954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>173</v>
       </c>
@@ -37928,7 +37971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>188</v>
       </c>
@@ -37945,7 +37988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>188</v>
       </c>
@@ -37962,7 +38005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>173</v>
       </c>
@@ -37979,7 +38022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>188</v>
       </c>
@@ -37996,7 +38039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>173</v>
       </c>
@@ -38013,7 +38056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>180</v>
       </c>
@@ -38030,7 +38073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>180</v>
       </c>
@@ -38047,7 +38090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>181</v>
       </c>
@@ -38064,7 +38107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>217</v>
       </c>
@@ -38081,7 +38124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>180</v>
       </c>
@@ -38098,7 +38141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>177</v>
       </c>
@@ -38115,7 +38158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>188</v>
       </c>
@@ -38132,7 +38175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>181</v>
       </c>
@@ -38149,7 +38192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>181</v>
       </c>
@@ -38166,7 +38209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>181</v>
       </c>
@@ -38183,7 +38226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>172</v>
       </c>
@@ -38200,7 +38243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>173</v>
       </c>
@@ -38217,7 +38260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>172</v>
       </c>
@@ -38234,7 +38277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>176</v>
       </c>
@@ -38251,7 +38294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
         <v>175</v>
       </c>
@@ -38268,7 +38311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>176</v>
       </c>
@@ -38285,7 +38328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
         <v>174</v>
       </c>
@@ -38302,7 +38345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
         <v>181</v>
       </c>
@@ -38319,7 +38362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
         <v>178</v>
       </c>
@@ -38336,7 +38379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>178</v>
       </c>
@@ -38404,7 +38447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
         <v>218</v>
       </c>
@@ -38421,7 +38464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
         <v>218</v>
       </c>
@@ -38438,7 +38481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
         <v>218</v>
       </c>
@@ -38472,7 +38515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
         <v>173</v>
       </c>
@@ -38489,7 +38532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
         <v>173</v>
       </c>
@@ -38506,7 +38549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
         <v>173</v>
       </c>
@@ -38523,7 +38566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>188</v>
       </c>
@@ -38540,7 +38583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
         <v>188</v>
       </c>
@@ -38557,7 +38600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
         <v>188</v>
       </c>
@@ -38574,7 +38617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="37" t="s">
         <v>178</v>
       </c>
@@ -38591,7 +38634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
         <v>174</v>
       </c>
@@ -38625,7 +38668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
         <v>174</v>
       </c>
@@ -38642,7 +38685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
         <v>176</v>
       </c>
@@ -38659,7 +38702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
         <v>174</v>
       </c>
@@ -38676,7 +38719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
         <v>174</v>
       </c>
@@ -38693,7 +38736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>172</v>
       </c>
@@ -38710,7 +38753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>176</v>
       </c>
@@ -38727,7 +38770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
         <v>176</v>
       </c>
@@ -38744,7 +38787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
         <v>172</v>
       </c>
@@ -38761,7 +38804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
         <v>181</v>
       </c>
@@ -38778,7 +38821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
         <v>178</v>
       </c>
@@ -38795,7 +38838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
         <v>174</v>
       </c>
@@ -38812,7 +38855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
         <v>176</v>
       </c>
@@ -38829,7 +38872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
         <v>181</v>
       </c>
@@ -38846,7 +38889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
         <v>28</v>
       </c>
@@ -38863,7 +38906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>190</v>
       </c>
@@ -38880,7 +38923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
         <v>181</v>
       </c>
@@ -38897,7 +38940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
         <v>173</v>
       </c>
@@ -38914,7 +38957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
         <v>173</v>
       </c>
@@ -38931,7 +38974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
         <v>173</v>
       </c>
@@ -38948,7 +38991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>173</v>
       </c>
@@ -38965,7 +39008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
         <v>188</v>
       </c>
@@ -38982,7 +39025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
         <v>173</v>
       </c>
@@ -38999,7 +39042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>173</v>
       </c>
@@ -39016,7 +39059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
         <v>173</v>
       </c>
@@ -39033,7 +39076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37" t="s">
         <v>174</v>
       </c>
@@ -39050,7 +39093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37" t="s">
         <v>178</v>
       </c>
@@ -39067,7 +39110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>28</v>
       </c>
@@ -39084,7 +39127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
         <v>28</v>
       </c>
@@ -39101,7 +39144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
         <v>28</v>
       </c>
@@ -39118,7 +39161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37" t="s">
         <v>174</v>
       </c>
@@ -39135,7 +39178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>28</v>
       </c>
@@ -39152,7 +39195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>181</v>
       </c>
@@ -39169,7 +39212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>220</v>
       </c>
@@ -39186,7 +39229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>178</v>
       </c>
@@ -39204,7 +39247,7 @@
       </c>
       <c r="F103" s="51"/>
     </row>
-    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>181</v>
       </c>
@@ -39221,7 +39264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
         <v>217</v>
       </c>
@@ -39238,7 +39281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>213</v>
       </c>
@@ -39255,7 +39298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>178</v>
       </c>
@@ -39273,7 +39316,7 @@
       </c>
       <c r="F107" s="51"/>
     </row>
-    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
         <v>178</v>
       </c>
@@ -39290,7 +39333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>177</v>
       </c>
@@ -39307,7 +39350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>174</v>
       </c>
@@ -39324,7 +39367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>180</v>
       </c>
@@ -39341,7 +39384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>174</v>
       </c>
@@ -39358,7 +39401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>174</v>
       </c>
@@ -39375,7 +39418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>180</v>
       </c>
@@ -39392,7 +39435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>174</v>
       </c>
@@ -39409,7 +39452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>174</v>
       </c>
@@ -39426,7 +39469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>174</v>
       </c>
@@ -39443,7 +39486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>174</v>
       </c>
@@ -39460,7 +39503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>174</v>
       </c>
@@ -39477,7 +39520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>174</v>
       </c>
@@ -39544,7 +39587,7 @@
       <c r="BB120" s="1"/>
       <c r="BC120" s="1"/>
     </row>
-    <row r="121" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>180</v>
       </c>
@@ -39561,7 +39604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>180</v>
       </c>
@@ -39578,7 +39621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>180</v>
       </c>
@@ -39595,7 +39638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>180</v>
       </c>
@@ -39612,7 +39655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>180</v>
       </c>
@@ -39629,7 +39672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>180</v>
       </c>
@@ -39646,7 +39689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>180</v>
       </c>
@@ -39663,7 +39706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="39" t="s">
         <v>180</v>
       </c>
@@ -39680,7 +39723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="39" t="s">
         <v>174</v>
       </c>
@@ -39697,7 +39740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="39" t="s">
         <v>174</v>
       </c>
@@ -39714,7 +39757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="39" t="s">
         <v>174</v>
       </c>
@@ -39731,7 +39774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="39" t="s">
         <v>174</v>
       </c>
@@ -39748,7 +39791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>174</v>
       </c>
@@ -39765,7 +39808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="39" t="s">
         <v>174</v>
       </c>
@@ -39782,7 +39825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>174</v>
       </c>
@@ -39799,7 +39842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="39" t="s">
         <v>174</v>
       </c>
@@ -39816,7 +39859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>174</v>
       </c>
@@ -39833,7 +39876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="39" t="s">
         <v>174</v>
       </c>
@@ -39850,7 +39893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="39" t="s">
         <v>174</v>
       </c>
@@ -39867,7 +39910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>174</v>
       </c>
@@ -39884,7 +39927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="39" t="s">
         <v>174</v>
       </c>
@@ -39901,7 +39944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="37" t="s">
         <v>180</v>
       </c>
@@ -39918,7 +39961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="37" t="s">
         <v>180</v>
       </c>
@@ -39935,7 +39978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
         <v>180</v>
       </c>
@@ -39952,7 +39995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
         <v>180</v>
       </c>
@@ -39969,7 +40012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>180</v>
       </c>
@@ -39986,7 +40029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>180</v>
       </c>
@@ -40003,7 +40046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="37" t="s">
         <v>180</v>
       </c>
@@ -40020,7 +40063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="37" t="s">
         <v>180</v>
       </c>
@@ -40037,7 +40080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="37" t="s">
         <v>180</v>
       </c>
@@ -40054,7 +40097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="37" t="s">
         <v>180</v>
       </c>
@@ -40071,7 +40114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="37" t="s">
         <v>180</v>
       </c>
@@ -40088,7 +40131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="37" t="s">
         <v>180</v>
       </c>
@@ -40105,7 +40148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="37" t="s">
         <v>180</v>
       </c>
@@ -40122,7 +40165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="37" t="s">
         <v>180</v>
       </c>
@@ -40139,7 +40182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="37" t="s">
         <v>180</v>
       </c>
@@ -40156,7 +40199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="37" t="s">
         <v>180</v>
       </c>
@@ -40173,7 +40216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="37" t="s">
         <v>180</v>
       </c>
@@ -40190,7 +40233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="37" t="s">
         <v>174</v>
       </c>
@@ -40207,7 +40250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="37" t="s">
         <v>174</v>
       </c>
@@ -40224,7 +40267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="37" t="s">
         <v>174</v>
       </c>
@@ -40241,7 +40284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="37" t="s">
         <v>174</v>
       </c>
@@ -40258,7 +40301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="37" t="s">
         <v>175</v>
       </c>
@@ -40275,7 +40318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="37" t="s">
         <v>174</v>
       </c>
@@ -40292,7 +40335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="37" t="s">
         <v>174</v>
       </c>
@@ -40309,7 +40352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="37" t="s">
         <v>174</v>
       </c>
@@ -40326,7 +40369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="37" t="s">
         <v>174</v>
       </c>
@@ -40343,7 +40386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="37" t="s">
         <v>174</v>
       </c>
@@ -40360,7 +40403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37" t="s">
         <v>174</v>
       </c>
@@ -40377,7 +40420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="37" t="s">
         <v>174</v>
       </c>
@@ -40394,7 +40437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="37" t="s">
         <v>174</v>
       </c>
@@ -40411,7 +40454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="37" t="s">
         <v>174</v>
       </c>
@@ -40428,7 +40471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>180</v>
       </c>
@@ -40445,7 +40488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="37" t="s">
         <v>174</v>
       </c>
@@ -40462,7 +40505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="37" t="s">
         <v>180</v>
       </c>
@@ -40479,7 +40522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="37" t="s">
         <v>28</v>
       </c>
@@ -40496,7 +40539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>174</v>
       </c>
@@ -40513,7 +40556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>180</v>
       </c>
@@ -40530,7 +40573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>180</v>
       </c>
@@ -40547,7 +40590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>174</v>
       </c>
@@ -40564,7 +40607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>174</v>
       </c>
@@ -40581,7 +40624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>174</v>
       </c>
@@ -40598,7 +40641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>180</v>
       </c>
@@ -40615,7 +40658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>174</v>
       </c>
@@ -40632,7 +40675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>180</v>
       </c>
@@ -40649,7 +40692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>174</v>
       </c>
@@ -40666,7 +40709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>174</v>
       </c>
@@ -40683,7 +40726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>174</v>
       </c>
@@ -40700,7 +40743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>180</v>
       </c>
@@ -40717,7 +40760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>180</v>
       </c>
@@ -40734,7 +40777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>174</v>
       </c>
@@ -40751,7 +40794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>174</v>
       </c>
@@ -40768,7 +40811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>174</v>
       </c>
@@ -40785,7 +40828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>180</v>
       </c>
@@ -40802,7 +40845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>174</v>
       </c>
@@ -40819,7 +40862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>174</v>
       </c>
@@ -40836,7 +40879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="37" t="s">
         <v>174</v>
       </c>
@@ -40853,7 +40896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="37" t="s">
         <v>174</v>
       </c>
@@ -40870,7 +40913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="37" t="s">
         <v>180</v>
       </c>
@@ -40887,7 +40930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="37" t="s">
         <v>174</v>
       </c>
@@ -40904,7 +40947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="37" t="s">
         <v>174</v>
       </c>
@@ -40921,7 +40964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="37" t="s">
         <v>180</v>
       </c>
@@ -40938,7 +40981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="37" t="s">
         <v>174</v>
       </c>
@@ -40955,7 +40998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="37" t="s">
         <v>180</v>
       </c>
@@ -40972,7 +41015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="37" t="s">
         <v>180</v>
       </c>
@@ -40989,7 +41032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="37" t="s">
         <v>180</v>
       </c>
@@ -41006,7 +41049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="37" t="s">
         <v>180</v>
       </c>
@@ -41023,7 +41066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="37" t="s">
         <v>180</v>
       </c>
@@ -41040,7 +41083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="37" t="s">
         <v>180</v>
       </c>
@@ -41057,7 +41100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="37" t="s">
         <v>180</v>
       </c>
@@ -41074,7 +41117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="37" t="s">
         <v>180</v>
       </c>
@@ -41091,7 +41134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="37" t="s">
         <v>180</v>
       </c>
@@ -41108,7 +41151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="37" t="s">
         <v>180</v>
       </c>
@@ -41125,7 +41168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="37" t="s">
         <v>180</v>
       </c>
@@ -41142,7 +41185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="37" t="s">
         <v>180</v>
       </c>
@@ -41159,7 +41202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="37" t="s">
         <v>180</v>
       </c>
@@ -41176,7 +41219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="37" t="s">
         <v>180</v>
       </c>
@@ -41193,7 +41236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
         <v>180</v>
       </c>
@@ -41210,7 +41253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="37" t="s">
         <v>174</v>
       </c>
@@ -41227,7 +41270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="37" t="s">
         <v>174</v>
       </c>
@@ -41244,7 +41287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="37" t="s">
         <v>180</v>
       </c>
@@ -41261,7 +41304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="37" t="s">
         <v>174</v>
       </c>
@@ -41278,7 +41321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="37" t="s">
         <v>174</v>
       </c>
@@ -41295,7 +41338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="37" t="s">
         <v>174</v>
       </c>
@@ -41312,7 +41355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="37" t="s">
         <v>174</v>
       </c>
@@ -41329,7 +41372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="37" t="s">
         <v>174</v>
       </c>
@@ -41346,7 +41389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="37" t="s">
         <v>174</v>
       </c>
@@ -41363,7 +41406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="37" t="s">
         <v>174</v>
       </c>
@@ -41380,7 +41423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="37" t="s">
         <v>180</v>
       </c>
@@ -41397,7 +41440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="37" t="s">
         <v>174</v>
       </c>
@@ -41414,7 +41457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
         <v>180</v>
       </c>
@@ -41431,7 +41474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="37" t="s">
         <v>174</v>
       </c>
@@ -41448,7 +41491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
         <v>180</v>
       </c>
@@ -41465,7 +41508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="37" t="s">
         <v>174</v>
       </c>
@@ -41482,7 +41525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="37" t="s">
         <v>180</v>
       </c>
@@ -41499,7 +41542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="37" t="s">
         <v>180</v>
       </c>
@@ -41516,7 +41559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="37" t="s">
         <v>180</v>
       </c>
@@ -41533,7 +41576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="37" t="s">
         <v>180</v>
       </c>
@@ -41550,7 +41593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
         <v>180</v>
       </c>
@@ -41567,7 +41610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="37" t="s">
         <v>180</v>
       </c>
@@ -41584,7 +41627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="37" t="s">
         <v>180</v>
       </c>
@@ -41601,7 +41644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="37" t="s">
         <v>180</v>
       </c>
@@ -41618,7 +41661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
         <v>174</v>
       </c>
@@ -41635,7 +41678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="37" t="s">
         <v>180</v>
       </c>
@@ -41652,7 +41695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="37" t="s">
         <v>174</v>
       </c>
@@ -41669,7 +41712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="37" t="s">
         <v>174</v>
       </c>
@@ -41686,7 +41729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="37" t="s">
         <v>174</v>
       </c>
@@ -41703,7 +41746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="37" t="s">
         <v>180</v>
       </c>
@@ -41720,7 +41763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="37" t="s">
         <v>174</v>
       </c>
@@ -41737,7 +41780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="37" t="s">
         <v>174</v>
       </c>
@@ -41754,7 +41797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="37" t="s">
         <v>180</v>
       </c>
@@ -41771,7 +41814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="37" t="s">
         <v>180</v>
       </c>
@@ -41788,7 +41831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="37" t="s">
         <v>174</v>
       </c>
@@ -41805,7 +41848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="37" t="s">
         <v>174</v>
       </c>
@@ -41822,7 +41865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="37" t="s">
         <v>174</v>
       </c>
@@ -41839,7 +41882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="37" t="s">
         <v>174</v>
       </c>
@@ -41856,84 +41899,231 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E257" s="31">
-        <f>SUBTOTAL(9,E3:E256)</f>
-        <v>5</v>
+    <row r="257" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="37"/>
+      <c r="B257" s="41"/>
+      <c r="C257" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D257" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="E257" s="32">
+        <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B258" s="27">
-        <v>12</v>
+    <row r="258" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="37"/>
+      <c r="B258" s="41"/>
+      <c r="C258" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D258" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="E258" s="32">
+        <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B259" s="27">
-        <v>22</v>
+    <row r="259" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="37"/>
+      <c r="B259" s="41"/>
+      <c r="C259" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D259" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="E259" s="32">
+        <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B260" s="27">
-        <v>7</v>
+    <row r="260" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="37"/>
+      <c r="B260" s="41"/>
+      <c r="C260" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D260" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="E260" s="32">
+        <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B261" s="27">
-        <v>33</v>
+    <row r="261" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="37"/>
+      <c r="B261" s="41"/>
+      <c r="C261" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D261" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="E261" s="32">
+        <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B262" s="27">
-        <v>29</v>
+    <row r="262" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="37"/>
+      <c r="B262" s="41"/>
+      <c r="C262" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D262" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="E262" s="32">
+        <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B263" s="27">
-        <v>148</v>
+    <row r="263" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="37"/>
+      <c r="B263" s="41"/>
+      <c r="C263" s="58"/>
+      <c r="D263" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="E263" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="29" t="s">
+      <c r="A264" s="37"/>
+      <c r="B264" s="41"/>
+      <c r="C264" s="41"/>
+      <c r="D264" s="38"/>
+      <c r="E264" s="32"/>
+    </row>
+    <row r="265" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="37"/>
+      <c r="B265" s="41"/>
+      <c r="C265" s="41"/>
+      <c r="D265" s="38"/>
+      <c r="E265" s="32"/>
+    </row>
+    <row r="266" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="37"/>
+      <c r="B266" s="41"/>
+      <c r="C266" s="41"/>
+      <c r="D266" s="38"/>
+      <c r="E266" s="32"/>
+    </row>
+    <row r="267" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="37"/>
+      <c r="B267" s="41"/>
+      <c r="C267" s="41"/>
+      <c r="D267" s="38"/>
+      <c r="E267" s="32"/>
+    </row>
+    <row r="268" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="37"/>
+      <c r="B268" s="41"/>
+      <c r="C268" s="41"/>
+      <c r="D268" s="38"/>
+      <c r="E268" s="32"/>
+    </row>
+    <row r="269" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="57"/>
+      <c r="B269" s="57"/>
+      <c r="C269" s="41"/>
+      <c r="D269" s="57"/>
+      <c r="E269" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E270" s="56">
+        <f>SUBTOTAL(9,E3:E256)</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B271" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B272" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B273" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B274" s="27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B275" s="27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B276" s="27">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B264" s="28">
-        <f>SUBTOTAL(9,B258:B263)</f>
+      <c r="B277" s="28">
+        <f>SUBTOTAL(9,B271:B276)</f>
         <v>0</v>
       </c>
-      <c r="E264" s="30">
+      <c r="E277" s="30">
         <f>SUBTOTAL(9,E13:E108)</f>
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XED263">
+  <autoFilter ref="A1:XED276">
     <filterColumn colId="1">
-      <filters>
+      <filters blank="1">
+        <filter val="Artes Industriales"/>
+        <filter val="Artes Plásticas"/>
+        <filter val="Biologia"/>
+        <filter val="Ciencias"/>
+        <filter val="Educación Cívica"/>
+        <filter val="Educación para el hogar"/>
+        <filter val="Español"/>
+        <filter val="Estudios Sociales"/>
+        <filter val="Física"/>
+        <filter val="Francés"/>
+        <filter val="General"/>
+        <filter val="Inglés"/>
+        <filter val="Interculturalidad"/>
         <filter val="Matemática"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="2018"/>
-        <filter val="2019"/>
+        <filter val="Música"/>
+        <filter val="Orientación"/>
+        <filter val="Preescolar"/>
+        <filter val="Psicología"/>
+        <filter val="Química"/>
+        <filter val="Religión"/>
+        <filter val="Tecnología"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="386">
   <si>
     <t>Materia</t>
   </si>
@@ -1659,6 +1659,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1666,15 +1675,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21136,9 +21136,9 @@
   <dimension ref="A1:XED277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
+      <selection pane="bottomLeft" activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21168,13 +21168,13 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -41905,8 +41905,8 @@
       <c r="C257" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="D257" s="38" t="s">
-        <v>379</v>
+      <c r="D257" s="34">
+        <v>2020</v>
       </c>
       <c r="E257" s="32">
         <v>1</v>
@@ -41980,7 +41980,7 @@
     <row r="263" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="37"/>
       <c r="B263" s="41"/>
-      <c r="C263" s="58"/>
+      <c r="C263" s="55"/>
       <c r="D263" s="38" t="s">
         <v>379</v>
       </c>
@@ -42024,16 +42024,16 @@
       <c r="E268" s="32"/>
     </row>
     <row r="269" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="57"/>
-      <c r="B269" s="57"/>
+      <c r="A269" s="54"/>
+      <c r="B269" s="54"/>
       <c r="C269" s="41"/>
-      <c r="D269" s="57"/>
+      <c r="D269" s="54"/>
       <c r="E269" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E270" s="56">
+      <c r="E270" s="53">
         <f>SUBTOTAL(9,E3:E256)</f>
         <v>254</v>
       </c>

--- a/contenido/Filtro Gespro.xlsx
+++ b/contenido/Filtro Gespro.xlsx
@@ -16,7 +16,7 @@
     <sheet name="COLECCION" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XED$276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLECCION!$A$1:$XED$284</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'recursos '!$A$1:$XEI$99</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="411">
   <si>
     <t>Materia</t>
   </si>
@@ -1299,9 +1299,6 @@
     <t>Avances</t>
   </si>
   <si>
-    <t>Arte contemporaneo</t>
-  </si>
-  <si>
     <t>Apocalipsis Zombie</t>
   </si>
   <si>
@@ -1316,12 +1313,90 @@
   <si>
     <t>Mis primeros pasos</t>
   </si>
+  <si>
+    <t>Brigada Ecosónica</t>
+  </si>
+  <si>
+    <t>Caja de Herramientas</t>
+  </si>
+  <si>
+    <t>Aprendo en casa</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II </t>
+  </si>
+  <si>
+    <t>Waeather Wise</t>
+  </si>
+  <si>
+    <t>Natural Treasures</t>
+  </si>
+  <si>
+    <t>Family Celebrations in Costa Rica Minibook</t>
+  </si>
+  <si>
+    <t>Guía Décimo Año</t>
+  </si>
+  <si>
+    <t>Arte Contemporáneo Universal</t>
+  </si>
+  <si>
+    <t>Sitio de Artes Plásticas</t>
+  </si>
+  <si>
+    <t>III Ciclo Diversificada</t>
+  </si>
+  <si>
+    <t>Estilización y abstracción en el Arte Moderno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III Ciclo  </t>
+  </si>
+  <si>
+    <t>Objetos enigmáticos</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I, II,III </t>
+  </si>
+  <si>
+    <t>Todas</t>
+  </si>
+  <si>
+    <t>Apoyos procesos a distancia</t>
+  </si>
+  <si>
+    <t>MakeCode Arcade de Microsoft</t>
+  </si>
+  <si>
+    <t>II,III,Diversificada</t>
+  </si>
+  <si>
+    <t>Matrícula de Preescolar 2021</t>
+  </si>
+  <si>
+    <t>Recorrido Virtual de la Antorcha</t>
+  </si>
+  <si>
+    <t>Avances (Diseño redondo)</t>
+  </si>
+  <si>
+    <t>Colección 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,6 +1444,13 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1503,7 +1585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1586,9 +1668,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1656,16 +1735,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,6 +1745,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21130,25 +21224,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:XED277"/>
+  <dimension ref="A1:XED288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D263" sqref="D263"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="24"/>
     <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22" style="24"/>
-    <col min="5" max="5" width="5.7109375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="47" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
@@ -21168,198 +21262,198 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
     </row>
-    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>2018</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>2018</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>2018</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="49">
         <v>2017</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <v>2017</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:16358" s="8" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
         <v>2019</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>1</v>
       </c>
       <c r="F13" s="7"/>
@@ -37716,1824 +37810,1824 @@
       <c r="XEC13" s="7"/>
       <c r="XED13" s="7"/>
     </row>
-    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:16358" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16358" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:16358" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+    <row r="30" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+    <row r="32" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+    <row r="33" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+    <row r="37" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="36">
         <v>2018</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+    <row r="38" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+    <row r="39" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+    <row r="40" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+    <row r="42" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="36">
         <v>2017</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="36">
         <v>2019</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+    <row r="45" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="36">
         <v>2018</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+    <row r="46" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="36">
         <v>2018</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+    <row r="47" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="30">
         <v>2018</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="31">
         <v>2019</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="59" t="s">
         <v>377</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+    <row r="50" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+    <row r="51" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="30">
         <v>2019</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+    <row r="52" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+    <row r="53" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+    <row r="54" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="36">
         <v>2018</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+    <row r="55" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="36">
         <v>2018</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
+    <row r="56" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="30">
         <v>2018</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+    <row r="57" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
+    <row r="58" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+    <row r="59" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E59" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+    <row r="60" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="30">
         <v>2019</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E60" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
+    <row r="61" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
+    <row r="62" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
+    <row r="63" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
+    <row r="64" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E64" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+    <row r="65" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="32">
+      <c r="E65" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
+    <row r="66" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E66" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
+    <row r="67" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
+    <row r="68" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E68" s="32">
+      <c r="E68" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
+    <row r="69" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D69" s="37">
+      <c r="D69" s="36">
         <v>2018</v>
       </c>
-      <c r="E69" s="38">
+      <c r="E69" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="37" t="s">
+    <row r="70" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E70" s="32">
+      <c r="E70" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
+    <row r="71" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="31">
+      <c r="D71" s="30">
         <v>2019</v>
       </c>
-      <c r="E71" s="32">
+      <c r="E71" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
+    <row r="72" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D72" s="37">
+      <c r="D72" s="36">
         <v>2018</v>
       </c>
-      <c r="E72" s="38">
+      <c r="E72" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
+    <row r="73" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="37">
+      <c r="D73" s="36">
         <v>2018</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E73" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
+    <row r="74" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="31">
+      <c r="D74" s="30">
         <v>2018</v>
       </c>
-      <c r="E74" s="38">
+      <c r="E74" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
+    <row r="75" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="30">
         <v>2018</v>
       </c>
-      <c r="E75" s="38">
+      <c r="E75" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
+    <row r="76" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="37">
+      <c r="D76" s="36">
         <v>2018</v>
       </c>
-      <c r="E76" s="38">
+      <c r="E76" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="37" t="s">
+    <row r="77" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="37">
+      <c r="D77" s="36">
         <v>2018</v>
       </c>
-      <c r="E77" s="38">
+      <c r="E77" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
+    <row r="78" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D78" s="37">
+      <c r="D78" s="36">
         <v>2018</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
+    <row r="79" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="37">
+      <c r="D79" s="36">
         <v>2018</v>
       </c>
-      <c r="E79" s="38">
+      <c r="E79" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="37" t="s">
+    <row r="80" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="37">
+      <c r="D80" s="36">
         <v>2017</v>
       </c>
-      <c r="E80" s="32">
+      <c r="E80" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="37" t="s">
+    <row r="81" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="31">
+      <c r="D81" s="30">
         <v>2018</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="37" t="s">
+    <row r="82" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E82" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37" t="s">
+    <row r="83" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E83" s="32">
+      <c r="E83" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="37" t="s">
+    <row r="84" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E84" s="32">
+      <c r="E84" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="37" t="s">
+    <row r="85" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="32">
+      <c r="E85" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
+    <row r="86" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="32">
+      <c r="E86" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="34" t="s">
         <v>98</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="32">
+      <c r="E87" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="37" t="s">
+    <row r="88" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E88" s="32">
+      <c r="E88" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="37" t="s">
+    <row r="89" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="32">
+      <c r="E89" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="37" t="s">
+    <row r="90" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E90" s="32">
+      <c r="E90" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="37" t="s">
+    <row r="91" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E91" s="32">
+      <c r="E91" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
+    <row r="92" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E92" s="32">
+      <c r="E92" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="37" t="s">
+    <row r="93" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E93" s="32">
+      <c r="E93" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="37" t="s">
+    <row r="94" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C94" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D94" s="31">
+      <c r="D94" s="30">
         <v>2019</v>
       </c>
-      <c r="E94" s="32">
+      <c r="E94" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="37" t="s">
+    <row r="95" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E95" s="32">
+      <c r="E95" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="32" t="s">
+    <row r="96" spans="1:5" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="B96" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="C96" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D96" s="32">
+      <c r="D96" s="31">
         <v>2017</v>
       </c>
-      <c r="E96" s="32">
+      <c r="E96" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37" t="s">
+    <row r="97" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D97" s="37">
+      <c r="D97" s="36">
         <v>2017</v>
       </c>
-      <c r="E97" s="32">
+      <c r="E97" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="37" t="s">
+    <row r="98" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B98" s="37" t="s">
+      <c r="B98" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="42" t="s">
+      <c r="C98" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="D98" s="31">
+      <c r="D98" s="30">
         <v>2018</v>
       </c>
-      <c r="E98" s="38">
+      <c r="E98" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="37" t="s">
+      <c r="A99" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="32">
+      <c r="E99" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="32" t="s">
+    <row r="100" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D100" s="32">
+      <c r="D100" s="31">
         <v>2017</v>
       </c>
-      <c r="E100" s="32">
+      <c r="E100" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+    <row r="101" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D101" s="38">
+      <c r="D101" s="37">
         <v>2018</v>
       </c>
-      <c r="E101" s="38">
+      <c r="E101" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
+    <row r="102" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="D102" s="38">
+      <c r="D102" s="37">
         <v>2018</v>
       </c>
-      <c r="E102" s="38">
+      <c r="E102" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
+    <row r="103" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D103" s="38">
+      <c r="D103" s="37">
         <v>2019</v>
       </c>
-      <c r="E103" s="32">
+      <c r="E103" s="31">
         <v>1</v>
       </c>
-      <c r="F103" s="51"/>
+      <c r="F103" s="50"/>
     </row>
-    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="32" t="s">
+    <row r="104" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="D104" s="38">
+      <c r="D104" s="37">
         <v>2019</v>
       </c>
-      <c r="E104" s="32">
+      <c r="E104" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
+    <row r="105" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="D105" s="38">
+      <c r="D105" s="37">
         <v>2019</v>
       </c>
-      <c r="E105" s="32">
+      <c r="E105" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32" t="s">
+    <row r="106" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="D106" s="38">
+      <c r="D106" s="37">
         <v>2019</v>
       </c>
-      <c r="E106" s="32">
+      <c r="E106" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C107" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="D107" s="47">
+      <c r="D107" s="46">
         <v>2019</v>
       </c>
-      <c r="E107" s="45">
+      <c r="E107" s="44">
         <v>1</v>
       </c>
-      <c r="F107" s="51"/>
+      <c r="F107" s="50"/>
     </row>
-    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="44" t="s">
+    <row r="108" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C108" s="46" t="s">
+      <c r="C108" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="D108" s="49">
+      <c r="D108" s="48">
         <v>2019</v>
       </c>
-      <c r="E108" s="45">
+      <c r="E108" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="32" t="s">
+    <row r="109" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="D109" s="34" t="s">
+      <c r="D109" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E109" s="32">
+      <c r="E109" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="32" t="s">
+    <row r="110" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D110" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E110" s="32">
+      <c r="E110" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="32" t="s">
+    <row r="111" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B111" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="D111" s="34" t="s">
+      <c r="D111" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E111" s="32">
+      <c r="E111" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="32" t="s">
+    <row r="112" spans="1:6" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D112" s="34" t="s">
+      <c r="D112" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E112" s="32">
+      <c r="E112" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="32" t="s">
+    <row r="113" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="D113" s="34" t="s">
+      <c r="D113" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E113" s="32">
+      <c r="E113" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="32" t="s">
+    <row r="114" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E114" s="32">
+      <c r="E114" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="32" t="s">
+    <row r="115" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="D115" s="34" t="s">
+      <c r="D115" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E115" s="32">
+      <c r="E115" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="32" t="s">
+    <row r="116" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="48" t="s">
+      <c r="C116" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="D116" s="34" t="s">
+      <c r="D116" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E116" s="32">
+      <c r="E116" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="32" t="s">
+    <row r="117" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="D117" s="34" t="s">
+      <c r="D117" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E117" s="32">
+      <c r="E117" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="32" t="s">
+    <row r="118" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B118" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="D118" s="34" t="s">
+      <c r="D118" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E118" s="32">
+      <c r="E118" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="32" t="s">
+    <row r="119" spans="1:55" s="9" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B119" s="32" t="s">
+      <c r="B119" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="D119" s="34" t="s">
+      <c r="D119" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E119" s="32">
+      <c r="E119" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="32" t="s">
+    <row r="120" spans="1:55" s="18" customFormat="1" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B120" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="D120" s="34" t="s">
+      <c r="D120" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E120" s="32">
+      <c r="E120" s="31">
         <v>1</v>
       </c>
       <c r="F120" s="1"/>
@@ -39587,2546 +39681,2735 @@
       <c r="BB120" s="1"/>
       <c r="BC120" s="1"/>
     </row>
-    <row r="121" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="32" t="s">
+    <row r="121" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B121" s="32" t="s">
+      <c r="B121" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D121" s="34" t="s">
+      <c r="D121" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E121" s="32">
+      <c r="E121" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="32" t="s">
+    <row r="122" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="B122" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="C122" s="35" t="s">
+      <c r="C122" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="D122" s="34" t="s">
+      <c r="D122" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E122" s="32">
+      <c r="E122" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="32" t="s">
+    <row r="123" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="32" t="s">
+      <c r="B123" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E123" s="32">
+      <c r="E123" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="32" t="s">
+    <row r="124" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B124" s="32" t="s">
+      <c r="B124" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E124" s="32">
+      <c r="E124" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="32" t="s">
+    <row r="125" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B125" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E125" s="32">
+      <c r="E125" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="32" t="s">
+    <row r="126" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="C126" s="35" t="s">
+      <c r="C126" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="D126" s="34" t="s">
+      <c r="D126" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E126" s="32">
+      <c r="E126" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="32" t="s">
+    <row r="127" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B127" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="C127" s="35" t="s">
+      <c r="C127" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D127" s="34" t="s">
+      <c r="D127" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E127" s="32">
+      <c r="E127" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:55" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="s">
+    <row r="128" spans="1:55" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B128" s="39" t="s">
+      <c r="B128" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="35" t="s">
+      <c r="C128" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="D128" s="34" t="s">
+      <c r="D128" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E128" s="32">
+      <c r="E128" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="39" t="s">
+    <row r="129" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B129" s="39" t="s">
+      <c r="B129" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="D129" s="34" t="s">
+      <c r="D129" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E129" s="32">
+      <c r="E129" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="39" t="s">
+    <row r="130" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B130" s="39" t="s">
+      <c r="B130" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C130" s="35" t="s">
+      <c r="C130" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="D130" s="34" t="s">
+      <c r="D130" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E130" s="32">
+      <c r="E130" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="39" t="s">
+    <row r="131" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D131" s="34" t="s">
+      <c r="D131" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E131" s="32">
+      <c r="E131" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="39" t="s">
+    <row r="132" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C132" s="35" t="s">
+      <c r="C132" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="D132" s="34" t="s">
+      <c r="D132" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E132" s="32">
+      <c r="E132" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="39" t="s">
+    <row r="133" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="D133" s="34" t="s">
+      <c r="D133" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E133" s="32">
+      <c r="E133" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="39" t="s">
+    <row r="134" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="D134" s="34" t="s">
+      <c r="D134" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E134" s="32">
+      <c r="E134" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="39" t="s">
+    <row r="135" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B135" s="39" t="s">
+      <c r="B135" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C135" s="48" t="s">
+      <c r="C135" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="D135" s="34" t="s">
+      <c r="D135" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E135" s="32">
+      <c r="E135" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="39" t="s">
+    <row r="136" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D136" s="34" t="s">
+      <c r="D136" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E136" s="32">
+      <c r="E136" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="39" t="s">
+    <row r="137" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="D137" s="34" t="s">
+      <c r="D137" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E137" s="32">
+      <c r="E137" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="39" t="s">
+    <row r="138" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="D138" s="34" t="s">
+      <c r="D138" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E138" s="32">
+      <c r="E138" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="39" t="s">
+    <row r="139" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="39" t="s">
+      <c r="B139" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C139" s="35" t="s">
+      <c r="C139" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="D139" s="34" t="s">
+      <c r="D139" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E139" s="32">
+      <c r="E139" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="39" t="s">
+    <row r="140" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="39" t="s">
+      <c r="B140" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C140" s="35" t="s">
+      <c r="C140" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="D140" s="34" t="s">
+      <c r="D140" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E140" s="32">
+      <c r="E140" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="39" t="s">
+    <row r="141" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B141" s="39" t="s">
+      <c r="B141" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="D141" s="34" t="s">
+      <c r="D141" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E141" s="32">
+      <c r="E141" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="37" t="s">
+    <row r="142" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C142" s="35" t="s">
+      <c r="C142" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="D142" s="34" t="s">
+      <c r="D142" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E142" s="32">
+      <c r="E142" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="37" t="s">
+    <row r="143" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B143" s="39" t="s">
+      <c r="B143" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="D143" s="34" t="s">
+      <c r="D143" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E143" s="32">
+      <c r="E143" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="32" t="s">
+    <row r="144" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="B144" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="35" t="s">
+      <c r="C144" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="D144" s="34" t="s">
+      <c r="D144" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E144" s="32">
+      <c r="E144" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="32" t="s">
+    <row r="145" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B145" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="D145" s="34" t="s">
+      <c r="D145" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E145" s="32">
+      <c r="E145" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="32" t="s">
+    <row r="146" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="B146" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="35" t="s">
+      <c r="C146" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="D146" s="34" t="s">
+      <c r="D146" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E146" s="32">
+      <c r="E146" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="32" t="s">
+    <row r="147" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B147" s="32" t="s">
+      <c r="B147" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="35" t="s">
+      <c r="C147" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="D147" s="34" t="s">
+      <c r="D147" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E147" s="32">
+      <c r="E147" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="37" t="s">
+    <row r="148" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="35" t="s">
+      <c r="C148" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="D148" s="34" t="s">
+      <c r="D148" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E148" s="32">
+      <c r="E148" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="37" t="s">
+    <row r="149" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="B149" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="35" t="s">
+      <c r="C149" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="D149" s="34" t="s">
+      <c r="D149" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E149" s="32">
+      <c r="E149" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="37" t="s">
+    <row r="150" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B150" s="39" t="s">
+      <c r="B150" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="D150" s="34" t="s">
+      <c r="D150" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E150" s="32">
+      <c r="E150" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="37" t="s">
+    <row r="151" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B151" s="39" t="s">
+      <c r="B151" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="35" t="s">
+      <c r="C151" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="D151" s="34" t="s">
+      <c r="D151" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E151" s="32">
+      <c r="E151" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="37" t="s">
+    <row r="152" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B152" s="39" t="s">
+      <c r="B152" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="35" t="s">
+      <c r="C152" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D152" s="34" t="s">
+      <c r="D152" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E152" s="32">
+      <c r="E152" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="37" t="s">
+    <row r="153" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="35" t="s">
+      <c r="C153" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="D153" s="34" t="s">
+      <c r="D153" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E153" s="32">
+      <c r="E153" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="37" t="s">
+    <row r="154" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B154" s="41" t="s">
+      <c r="B154" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="35" t="s">
+      <c r="C154" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="D154" s="34" t="s">
+      <c r="D154" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E154" s="32">
+      <c r="E154" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="37" t="s">
+    <row r="155" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B155" s="41" t="s">
+      <c r="B155" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="35" t="s">
+      <c r="C155" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="D155" s="34" t="s">
+      <c r="D155" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E155" s="32">
+      <c r="E155" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="37" t="s">
+    <row r="156" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="41" t="s">
+      <c r="B156" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C156" s="35" t="s">
+      <c r="C156" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="D156" s="34" t="s">
+      <c r="D156" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E156" s="32">
+      <c r="E156" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="37" t="s">
+    <row r="157" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B157" s="41" t="s">
+      <c r="B157" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="35" t="s">
+      <c r="C157" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="D157" s="34" t="s">
+      <c r="D157" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E157" s="32">
+      <c r="E157" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="37" t="s">
+    <row r="158" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B158" s="41" t="s">
+      <c r="B158" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="35" t="s">
+      <c r="C158" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="D158" s="34" t="s">
+      <c r="D158" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E158" s="32">
+      <c r="E158" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="37" t="s">
+    <row r="159" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B159" s="41" t="s">
+      <c r="B159" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="C159" s="35" t="s">
+      <c r="C159" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="D159" s="34" t="s">
+      <c r="D159" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E159" s="32">
+      <c r="E159" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="37" t="s">
+    <row r="160" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B160" s="41" t="s">
+      <c r="B160" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="C160" s="35" t="s">
+      <c r="C160" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="D160" s="34" t="s">
+      <c r="D160" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E160" s="32">
+      <c r="E160" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="37" t="s">
+    <row r="161" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B161" s="41" t="s">
+      <c r="B161" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="D161" s="34" t="s">
+      <c r="D161" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E161" s="32">
+      <c r="E161" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="37" t="s">
+    <row r="162" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B162" s="41" t="s">
+      <c r="B162" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="C162" s="35" t="s">
+      <c r="C162" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="D162" s="34" t="s">
+      <c r="D162" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E162" s="32">
+      <c r="E162" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="37" t="s">
+    <row r="163" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="B163" s="39" t="s">
+      <c r="B163" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C163" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="D163" s="34" t="s">
+      <c r="D163" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E163" s="32">
+      <c r="E163" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="37" t="s">
+    <row r="164" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B164" s="41" t="s">
+      <c r="B164" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="35" t="s">
+      <c r="C164" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="D164" s="34" t="s">
+      <c r="D164" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E164" s="32">
+      <c r="E164" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="37" t="s">
+    <row r="165" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B165" s="41" t="s">
+      <c r="B165" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="36" t="s">
+      <c r="C165" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D165" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E165" s="32">
+      <c r="E165" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="37" t="s">
+    <row r="166" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B166" s="41" t="s">
+      <c r="B166" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="42" t="s">
+      <c r="C166" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="D166" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E166" s="32">
+      <c r="E166" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="37" t="s">
+    <row r="167" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B167" s="41" t="s">
+      <c r="B167" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="35" t="s">
+      <c r="C167" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="D167" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E167" s="32">
+      <c r="E167" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="37" t="s">
+    <row r="168" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="41" t="s">
+      <c r="B168" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C168" s="35" t="s">
+      <c r="C168" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="D168" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E168" s="32">
+      <c r="E168" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="37" t="s">
+    <row r="169" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="41" t="s">
+      <c r="B169" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C169" s="35" t="s">
+      <c r="C169" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="D169" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E169" s="32">
+      <c r="E169" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="37" t="s">
+    <row r="170" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B170" s="41" t="s">
+      <c r="B170" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="35" t="s">
+      <c r="C170" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="D170" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E170" s="32">
+      <c r="E170" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="37" t="s">
+    <row r="171" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B171" s="32" t="s">
+      <c r="B171" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C171" s="35" t="s">
+      <c r="C171" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="D171" s="34" t="s">
+      <c r="D171" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E171" s="32">
+      <c r="E171" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="37" t="s">
+    <row r="172" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B172" s="32" t="s">
+      <c r="B172" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C172" s="35" t="s">
+      <c r="C172" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="D172" s="34" t="s">
+      <c r="D172" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E172" s="32">
+      <c r="E172" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="32" t="s">
+    <row r="173" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B173" s="32" t="s">
+      <c r="B173" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C173" s="35" t="s">
+      <c r="C173" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="D173" s="34" t="s">
+      <c r="D173" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E173" s="32">
+      <c r="E173" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="37" t="s">
+    <row r="174" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="41" t="s">
+      <c r="B174" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="D174" s="34" t="s">
+      <c r="D174" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E174" s="32">
+      <c r="E174" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="37" t="s">
+    <row r="175" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="41" t="s">
+      <c r="B175" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C175" s="35" t="s">
+      <c r="C175" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="D175" s="34" t="s">
+      <c r="D175" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E175" s="32">
+      <c r="E175" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="37" t="s">
+    <row r="176" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B176" s="41" t="s">
+      <c r="B176" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C176" s="35" t="s">
+      <c r="C176" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="D176" s="34" t="s">
+      <c r="D176" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E176" s="32">
+      <c r="E176" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="32" t="s">
+    <row r="177" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B177" s="32" t="s">
+      <c r="B177" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C177" s="35" t="s">
+      <c r="C177" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="D177" s="34" t="s">
+      <c r="D177" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E177" s="32">
+      <c r="E177" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="32" t="s">
+    <row r="178" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B178" s="32" t="s">
+      <c r="B178" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C178" s="35" t="s">
+      <c r="C178" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="D178" s="34" t="s">
+      <c r="D178" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E178" s="32">
+      <c r="E178" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="32" t="s">
+    <row r="179" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="32" t="s">
+      <c r="B179" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C179" s="48" t="s">
+      <c r="C179" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="D179" s="34" t="s">
+      <c r="D179" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E179" s="32">
+      <c r="E179" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="32" t="s">
+    <row r="180" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="B180" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C180" s="35" t="s">
+      <c r="C180" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="D180" s="34" t="s">
+      <c r="D180" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E180" s="32">
+      <c r="E180" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="32" t="s">
+    <row r="181" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B181" s="32" t="s">
+      <c r="B181" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C181" s="35" t="s">
+      <c r="C181" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="D181" s="34" t="s">
+      <c r="D181" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E181" s="32">
+      <c r="E181" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="32" t="s">
+    <row r="182" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B182" s="32" t="s">
+      <c r="B182" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C182" s="35" t="s">
+      <c r="C182" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D182" s="34" t="s">
+      <c r="D182" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E182" s="32">
+      <c r="E182" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="32" t="s">
+    <row r="183" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B183" s="32" t="s">
+      <c r="B183" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C183" s="35" t="s">
+      <c r="C183" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D183" s="34" t="s">
+      <c r="D183" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E183" s="32">
+      <c r="E183" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="32" t="s">
+    <row r="184" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B184" s="32" t="s">
+      <c r="B184" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C184" s="35" t="s">
+      <c r="C184" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="D184" s="34" t="s">
+      <c r="D184" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E184" s="32">
+      <c r="E184" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="32" t="s">
+    <row r="185" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B185" s="32" t="s">
+      <c r="B185" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C185" s="35" t="s">
+      <c r="C185" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="D185" s="34" t="s">
+      <c r="D185" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E185" s="32">
+      <c r="E185" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="32" t="s">
+    <row r="186" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B186" s="32" t="s">
+      <c r="B186" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C186" s="35" t="s">
+      <c r="C186" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="D186" s="34" t="s">
+      <c r="D186" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E186" s="32">
+      <c r="E186" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="32" t="s">
+    <row r="187" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B187" s="32" t="s">
+      <c r="B187" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C187" s="35" t="s">
+      <c r="C187" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="D187" s="34" t="s">
+      <c r="D187" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E187" s="32">
+      <c r="E187" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="32" t="s">
+    <row r="188" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B188" s="32" t="s">
+      <c r="B188" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C188" s="48" t="s">
+      <c r="C188" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="D188" s="34" t="s">
+      <c r="D188" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E188" s="32">
+      <c r="E188" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="32" t="s">
+    <row r="189" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B189" s="32" t="s">
+      <c r="B189" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C189" s="35" t="s">
+      <c r="C189" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="D189" s="34" t="s">
+      <c r="D189" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E189" s="32">
+      <c r="E189" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="32" t="s">
+    <row r="190" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B190" s="32" t="s">
+      <c r="B190" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C190" s="35" t="s">
+      <c r="C190" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="D190" s="34" t="s">
+      <c r="D190" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E190" s="32">
+      <c r="E190" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="32" t="s">
+    <row r="191" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B191" s="32" t="s">
+      <c r="B191" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C191" s="35" t="s">
+      <c r="C191" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="D191" s="34" t="s">
+      <c r="D191" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E191" s="32">
+      <c r="E191" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="32" t="s">
+    <row r="192" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B192" s="32" t="s">
+      <c r="B192" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C192" s="35" t="s">
+      <c r="C192" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="D192" s="34" t="s">
+      <c r="D192" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E192" s="32">
+      <c r="E192" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="32" t="s">
+    <row r="193" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="32" t="s">
+      <c r="B193" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C193" s="35" t="s">
+      <c r="C193" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="D193" s="34" t="s">
+      <c r="D193" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E193" s="32">
+      <c r="E193" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="32" t="s">
+    <row r="194" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B194" s="32" t="s">
+      <c r="B194" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C194" s="35" t="s">
+      <c r="C194" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="D194" s="34" t="s">
+      <c r="D194" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E194" s="32">
+      <c r="E194" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="32" t="s">
+    <row r="195" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B195" s="32" t="s">
+      <c r="B195" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C195" s="35" t="s">
+      <c r="C195" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="D195" s="34" t="s">
+      <c r="D195" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E195" s="32">
+      <c r="E195" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="32" t="s">
+    <row r="196" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="B196" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C196" s="35" t="s">
+      <c r="C196" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="D196" s="34" t="s">
+      <c r="D196" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E196" s="32">
+      <c r="E196" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="37" t="s">
+    <row r="197" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B197" s="41" t="s">
+      <c r="B197" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C197" s="35" t="s">
+      <c r="C197" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="D197" s="34" t="s">
+      <c r="D197" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E197" s="32">
+      <c r="E197" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="37" t="s">
+    <row r="198" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B198" s="41" t="s">
+      <c r="B198" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C198" s="35" t="s">
+      <c r="C198" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="D198" s="34" t="s">
+      <c r="D198" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E198" s="32">
+      <c r="E198" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="37" t="s">
+    <row r="199" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B199" s="41" t="s">
+      <c r="B199" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C199" s="35" t="s">
+      <c r="C199" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="D199" s="34" t="s">
+      <c r="D199" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E199" s="32">
+      <c r="E199" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="37" t="s">
+    <row r="200" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B200" s="41" t="s">
+      <c r="B200" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C200" s="35" t="s">
+      <c r="C200" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="D200" s="34" t="s">
+      <c r="D200" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E200" s="32">
+      <c r="E200" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="37" t="s">
+    <row r="201" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B201" s="41" t="s">
+      <c r="B201" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C201" s="35" t="s">
+      <c r="C201" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="D201" s="34" t="s">
+      <c r="D201" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E201" s="32">
+      <c r="E201" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="37" t="s">
+    <row r="202" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B202" s="41" t="s">
+      <c r="B202" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C202" s="35" t="s">
+      <c r="C202" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="D202" s="34" t="s">
+      <c r="D202" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E202" s="32">
+      <c r="E202" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="37" t="s">
+    <row r="203" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B203" s="41" t="s">
+      <c r="B203" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C203" s="35" t="s">
+      <c r="C203" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="D203" s="34" t="s">
+      <c r="D203" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E203" s="32">
+      <c r="E203" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="37" t="s">
+    <row r="204" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B204" s="41" t="s">
+      <c r="B204" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C204" s="35" t="s">
+      <c r="C204" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="D204" s="34" t="s">
+      <c r="D204" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E204" s="32">
+      <c r="E204" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="37" t="s">
+    <row r="205" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B205" s="41" t="s">
+      <c r="B205" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C205" s="35" t="s">
+      <c r="C205" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="D205" s="34" t="s">
+      <c r="D205" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E205" s="32">
+      <c r="E205" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="37" t="s">
+    <row r="206" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B206" s="41" t="s">
+      <c r="B206" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C206" s="35" t="s">
+      <c r="C206" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="D206" s="34" t="s">
+      <c r="D206" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E206" s="32">
+      <c r="E206" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="37" t="s">
+    <row r="207" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B207" s="41" t="s">
+      <c r="B207" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C207" s="35" t="s">
+      <c r="C207" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="D207" s="34" t="s">
+      <c r="D207" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E207" s="32">
+      <c r="E207" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="37" t="s">
+    <row r="208" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B208" s="41" t="s">
+      <c r="B208" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C208" s="35" t="s">
+      <c r="C208" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="D208" s="34" t="s">
+      <c r="D208" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E208" s="32">
+      <c r="E208" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="37" t="s">
+    <row r="209" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B209" s="41" t="s">
+      <c r="B209" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C209" s="35" t="s">
+      <c r="C209" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="D209" s="34" t="s">
+      <c r="D209" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E209" s="32">
+      <c r="E209" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="37" t="s">
+    <row r="210" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B210" s="41" t="s">
+      <c r="B210" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C210" s="35" t="s">
+      <c r="C210" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="D210" s="34" t="s">
+      <c r="D210" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E210" s="32">
+      <c r="E210" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="37" t="s">
+    <row r="211" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B211" s="41" t="s">
+      <c r="B211" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C211" s="35" t="s">
+      <c r="C211" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="D211" s="34" t="s">
+      <c r="D211" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E211" s="32">
+      <c r="E211" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="37" t="s">
+    <row r="212" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B212" s="41" t="s">
+      <c r="B212" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C212" s="35" t="s">
+      <c r="C212" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="D212" s="34" t="s">
+      <c r="D212" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E212" s="32">
+      <c r="E212" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="37" t="s">
+    <row r="213" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B213" s="41" t="s">
+      <c r="B213" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C213" s="35" t="s">
+      <c r="C213" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="D213" s="34" t="s">
+      <c r="D213" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E213" s="32">
+      <c r="E213" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="37" t="s">
+    <row r="214" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B214" s="41" t="s">
+      <c r="B214" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C214" s="35" t="s">
+      <c r="C214" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="D214" s="34" t="s">
+      <c r="D214" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E214" s="32">
+      <c r="E214" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="37" t="s">
+    <row r="215" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B215" s="41" t="s">
+      <c r="B215" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C215" s="35" t="s">
+      <c r="C215" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="D215" s="34" t="s">
+      <c r="D215" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E215" s="32">
+      <c r="E215" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="37" t="s">
+    <row r="216" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B216" s="41" t="s">
+      <c r="B216" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C216" s="35" t="s">
+      <c r="C216" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="D216" s="34" t="s">
+      <c r="D216" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E216" s="32">
+      <c r="E216" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="37" t="s">
+    <row r="217" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B217" s="41" t="s">
+      <c r="B217" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C217" s="35" t="s">
+      <c r="C217" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="D217" s="34" t="s">
+      <c r="D217" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E217" s="32">
+      <c r="E217" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="37" t="s">
+    <row r="218" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B218" s="41" t="s">
+      <c r="B218" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C218" s="35" t="s">
+      <c r="C218" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="D218" s="34" t="s">
+      <c r="D218" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E218" s="32">
+      <c r="E218" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="37" t="s">
+    <row r="219" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B219" s="41" t="s">
+      <c r="B219" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C219" s="35" t="s">
+      <c r="C219" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="D219" s="34" t="s">
+      <c r="D219" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E219" s="32">
+      <c r="E219" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="37" t="s">
+    <row r="220" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B220" s="41" t="s">
+      <c r="B220" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C220" s="35" t="s">
+      <c r="C220" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="D220" s="34" t="s">
+      <c r="D220" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E220" s="32">
+      <c r="E220" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="37" t="s">
+    <row r="221" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B221" s="41" t="s">
+      <c r="B221" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C221" s="35" t="s">
+      <c r="C221" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="D221" s="34" t="s">
+      <c r="D221" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E221" s="32">
+      <c r="E221" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="37" t="s">
+    <row r="222" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B222" s="41" t="s">
+      <c r="B222" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C222" s="35" t="s">
+      <c r="C222" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="D222" s="34" t="s">
+      <c r="D222" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="32">
+      <c r="E222" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="37" t="s">
+    <row r="223" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B223" s="41" t="s">
+      <c r="B223" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C223" s="35" t="s">
+      <c r="C223" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="D223" s="34" t="s">
+      <c r="D223" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E223" s="32">
+      <c r="E223" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="37" t="s">
+    <row r="224" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B224" s="41" t="s">
+      <c r="B224" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C224" s="35" t="s">
+      <c r="C224" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="D224" s="34" t="s">
+      <c r="D224" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E224" s="32">
+      <c r="E224" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="37" t="s">
+    <row r="225" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B225" s="41" t="s">
+      <c r="B225" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C225" s="35" t="s">
+      <c r="C225" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="D225" s="34" t="s">
+      <c r="D225" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E225" s="32">
+      <c r="E225" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="37" t="s">
+    <row r="226" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B226" s="41" t="s">
+      <c r="B226" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C226" s="35" t="s">
+      <c r="C226" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="D226" s="34" t="s">
+      <c r="D226" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E226" s="32">
+      <c r="E226" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="37" t="s">
+    <row r="227" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B227" s="41" t="s">
+      <c r="B227" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C227" s="35" t="s">
+      <c r="C227" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="D227" s="34" t="s">
+      <c r="D227" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E227" s="32">
+      <c r="E227" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="37" t="s">
+    <row r="228" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B228" s="41" t="s">
+      <c r="B228" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C228" s="35" t="s">
+      <c r="C228" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="D228" s="34" t="s">
+      <c r="D228" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E228" s="32">
+      <c r="E228" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="37" t="s">
+    <row r="229" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B229" s="41" t="s">
+      <c r="B229" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C229" s="35" t="s">
+      <c r="C229" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="D229" s="34" t="s">
+      <c r="D229" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E229" s="32">
+      <c r="E229" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="37" t="s">
+    <row r="230" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B230" s="41" t="s">
+      <c r="B230" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C230" s="35" t="s">
+      <c r="C230" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="D230" s="34" t="s">
+      <c r="D230" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E230" s="32">
+      <c r="E230" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="37" t="s">
+    <row r="231" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B231" s="41" t="s">
+      <c r="B231" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C231" s="42" t="s">
+      <c r="C231" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="D231" s="34" t="s">
+      <c r="D231" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E231" s="32">
+      <c r="E231" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="37" t="s">
+    <row r="232" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B232" s="41" t="s">
+      <c r="B232" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C232" s="35" t="s">
+      <c r="C232" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="D232" s="34" t="s">
+      <c r="D232" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E232" s="32">
+      <c r="E232" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="37" t="s">
+    <row r="233" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B233" s="41" t="s">
+      <c r="B233" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C233" s="35" t="s">
+      <c r="C233" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="D233" s="34" t="s">
+      <c r="D233" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E233" s="32">
+      <c r="E233" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="37" t="s">
+    <row r="234" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B234" s="41" t="s">
+      <c r="B234" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C234" s="35" t="s">
+      <c r="C234" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="D234" s="34" t="s">
+      <c r="D234" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E234" s="32">
+      <c r="E234" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="37" t="s">
+    <row r="235" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B235" s="41" t="s">
+      <c r="B235" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C235" s="35" t="s">
+      <c r="C235" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="D235" s="34" t="s">
+      <c r="D235" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E235" s="32">
+      <c r="E235" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="37" t="s">
+    <row r="236" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B236" s="41" t="s">
+      <c r="B236" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C236" s="35" t="s">
+      <c r="C236" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="D236" s="34" t="s">
+      <c r="D236" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E236" s="32">
+      <c r="E236" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="37" t="s">
+    <row r="237" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B237" s="41" t="s">
+      <c r="B237" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C237" s="35" t="s">
+      <c r="C237" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="D237" s="34" t="s">
+      <c r="D237" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E237" s="32">
+      <c r="E237" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="37" t="s">
+    <row r="238" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B238" s="41" t="s">
+      <c r="B238" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C238" s="35" t="s">
+      <c r="C238" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="D238" s="34" t="s">
+      <c r="D238" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E238" s="32">
+      <c r="E238" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="37" t="s">
+    <row r="239" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B239" s="41" t="s">
+      <c r="B239" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C239" s="35" t="s">
+      <c r="C239" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="D239" s="34" t="s">
+      <c r="D239" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E239" s="32">
+      <c r="E239" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="37" t="s">
+    <row r="240" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B240" s="41" t="s">
+      <c r="B240" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C240" s="35" t="s">
+      <c r="C240" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="D240" s="34" t="s">
+      <c r="D240" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E240" s="32">
+      <c r="E240" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="37" t="s">
+    <row r="241" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B241" s="41" t="s">
+      <c r="B241" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C241" s="35" t="s">
+      <c r="C241" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="D241" s="34" t="s">
+      <c r="D241" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E241" s="32">
+      <c r="E241" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="37" t="s">
+    <row r="242" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B242" s="41" t="s">
+      <c r="B242" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C242" s="35" t="s">
+      <c r="C242" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="D242" s="34" t="s">
+      <c r="D242" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E242" s="32">
+      <c r="E242" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="37" t="s">
+    <row r="243" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B243" s="41" t="s">
+      <c r="B243" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C243" s="35" t="s">
+      <c r="C243" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="D243" s="34" t="s">
+      <c r="D243" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E243" s="32">
+      <c r="E243" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="37" t="s">
+    <row r="244" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B244" s="41" t="s">
+      <c r="B244" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C244" s="35" t="s">
+      <c r="C244" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="D244" s="34" t="s">
+      <c r="D244" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E244" s="32">
+      <c r="E244" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="37" t="s">
+    <row r="245" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B245" s="41" t="s">
+      <c r="B245" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C245" s="35" t="s">
+      <c r="C245" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="D245" s="34" t="s">
+      <c r="D245" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E245" s="32">
+      <c r="E245" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="37" t="s">
+    <row r="246" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B246" s="41" t="s">
+      <c r="B246" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C246" s="35" t="s">
+      <c r="C246" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="D246" s="34" t="s">
+      <c r="D246" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E246" s="32">
+      <c r="E246" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="37" t="s">
+    <row r="247" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B247" s="41" t="s">
+      <c r="B247" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C247" s="35" t="s">
+      <c r="C247" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="D247" s="34" t="s">
+      <c r="D247" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E247" s="32">
+      <c r="E247" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="37" t="s">
+    <row r="248" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B248" s="41" t="s">
+      <c r="B248" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C248" s="35" t="s">
+      <c r="C248" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="D248" s="34" t="s">
+      <c r="D248" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E248" s="32">
+      <c r="E248" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="37" t="s">
+    <row r="249" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B249" s="41" t="s">
+      <c r="B249" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C249" s="35" t="s">
+      <c r="C249" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="D249" s="34" t="s">
+      <c r="D249" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E249" s="32">
+      <c r="E249" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="37" t="s">
+    <row r="250" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B250" s="41" t="s">
+      <c r="B250" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C250" s="35" t="s">
+      <c r="C250" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="D250" s="34" t="s">
+      <c r="D250" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E250" s="32">
+      <c r="E250" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="37" t="s">
+    <row r="251" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B251" s="41" t="s">
+      <c r="B251" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C251" s="35" t="s">
+      <c r="C251" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="D251" s="34" t="s">
+      <c r="D251" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E251" s="32">
+      <c r="E251" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="37" t="s">
+    <row r="252" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B252" s="41" t="s">
+      <c r="B252" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C252" s="35" t="s">
+      <c r="C252" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="D252" s="34" t="s">
+      <c r="D252" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E252" s="32">
+      <c r="E252" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="37" t="s">
+    <row r="253" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B253" s="41" t="s">
+      <c r="B253" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C253" s="35" t="s">
+      <c r="C253" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="D253" s="34" t="s">
+      <c r="D253" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E253" s="32">
+      <c r="E253" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="37" t="s">
+    <row r="254" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B254" s="41" t="s">
+      <c r="B254" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C254" s="35" t="s">
+      <c r="C254" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="D254" s="34" t="s">
+      <c r="D254" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E254" s="32">
+      <c r="E254" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="37" t="s">
+    <row r="255" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B255" s="41" t="s">
+      <c r="B255" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C255" s="35" t="s">
+      <c r="C255" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="D255" s="34" t="s">
+      <c r="D255" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E255" s="32">
+      <c r="E255" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="37" t="s">
+    <row r="256" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B256" s="41" t="s">
+      <c r="B256" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C256" s="35" t="s">
+      <c r="C256" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="D256" s="34" t="s">
+      <c r="D256" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E256" s="32">
+      <c r="E256" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="37"/>
-      <c r="B257" s="41"/>
-      <c r="C257" s="41" t="s">
+    <row r="257" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="36"/>
+      <c r="B257" s="55"/>
+      <c r="C257" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="D257" s="34">
+      <c r="D257" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="E257" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="36"/>
+      <c r="B258" s="55"/>
+      <c r="C258" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D258" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="E258" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="36"/>
+      <c r="B259" s="55"/>
+      <c r="C259" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D259" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="E259" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="36"/>
+      <c r="B260" s="55"/>
+      <c r="C260" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="D260" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="E260" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="36"/>
+      <c r="B261" s="55"/>
+      <c r="C261" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="D261" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="E261" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="36"/>
+      <c r="B262" s="55"/>
+      <c r="C262" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D262" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E262" s="31">
+        <v>1</v>
+      </c>
+      <c r="F262" s="61"/>
+    </row>
+    <row r="263" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B263" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="C263" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="D263" s="33">
         <v>2020</v>
       </c>
-      <c r="E257" s="32">
+      <c r="E263" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="37"/>
-      <c r="B258" s="41"/>
-      <c r="C258" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="D258" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="E258" s="32">
+    <row r="264" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="B264" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="D264" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E264" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="37"/>
-      <c r="B259" s="41"/>
-      <c r="C259" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="D259" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="E259" s="32">
+    <row r="265" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="B265" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="C265" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="D265" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E265" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="37"/>
-      <c r="B260" s="41"/>
-      <c r="C260" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="D260" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="E260" s="32">
+    <row r="266" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="B266" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D266" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E266" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="37"/>
-      <c r="B261" s="41"/>
-      <c r="C261" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="D261" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="E261" s="32">
+    <row r="267" spans="1:6" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="B267" s="55" t="s">
+        <v>388</v>
+      </c>
+      <c r="C267" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="D267" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E267" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="37"/>
-      <c r="B262" s="41"/>
-      <c r="C262" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="D262" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="E262" s="32">
+    <row r="268" spans="1:6" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B268" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="D268" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E268" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="37"/>
-      <c r="B263" s="41"/>
-      <c r="C263" s="55"/>
-      <c r="D263" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="E263" s="32">
+    <row r="269" spans="1:6" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B269" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C269" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D269" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E269" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="37"/>
-      <c r="B264" s="41"/>
-      <c r="C264" s="41"/>
-      <c r="D264" s="38"/>
-      <c r="E264" s="32"/>
+    <row r="270" spans="1:6" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B270" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C270" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="D270" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E270" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="265" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="37"/>
-      <c r="B265" s="41"/>
-      <c r="C265" s="41"/>
-      <c r="D265" s="38"/>
-      <c r="E265" s="32"/>
+    <row r="271" spans="1:6" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="B271" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="C271" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="D271" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E271" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="266" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="37"/>
-      <c r="B266" s="41"/>
-      <c r="C266" s="41"/>
-      <c r="D266" s="38"/>
-      <c r="E266" s="32"/>
+    <row r="272" spans="1:6" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B272" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C272" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="D272" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E272" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="267" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="37"/>
-      <c r="B267" s="41"/>
-      <c r="C267" s="41"/>
-      <c r="D267" s="38"/>
-      <c r="E267" s="32"/>
+    <row r="273" spans="1:5" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B273" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="D273" s="57">
+        <v>2020</v>
+      </c>
+      <c r="E273" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="268" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="37"/>
-      <c r="B268" s="41"/>
-      <c r="C268" s="41"/>
-      <c r="D268" s="38"/>
-      <c r="E268" s="32"/>
+    <row r="274" spans="1:5" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B274" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="C274" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="D274" s="57">
+        <v>2020</v>
+      </c>
+      <c r="E274" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="269" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="54"/>
-      <c r="B269" s="54"/>
-      <c r="C269" s="41"/>
-      <c r="D269" s="54"/>
-      <c r="E269" s="32">
+    <row r="275" spans="1:5" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B275" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="C275" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="D275" s="57">
+        <v>2020</v>
+      </c>
+      <c r="E275" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E270" s="53">
+    <row r="276" spans="1:5" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="B276" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C276" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="D276" s="57">
+        <v>2020</v>
+      </c>
+      <c r="E276" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B277" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C277" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="D277" s="58">
+        <v>2020</v>
+      </c>
+      <c r="E277" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C278" s="38"/>
+      <c r="E278" s="51">
         <f>SUBTOTAL(9,E3:E256)</f>
         <v>254</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="27" t="s">
+    <row r="279" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B271" s="27">
+      <c r="B279" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="27" t="s">
+    <row r="280" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B272" s="27">
+      <c r="B280" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="27" t="s">
+    <row r="281" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B273" s="27">
+      <c r="B281" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="27" t="s">
+    <row r="282" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B274" s="27">
+      <c r="B282" s="27">
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="27" t="s">
+    <row r="283" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B275" s="27">
+      <c r="B283" s="27">
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="27" t="s">
+    <row r="284" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B276" s="27">
+      <c r="B284" s="27">
         <v>148</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="29" t="s">
+    <row r="285" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="B285" s="27"/>
+    </row>
+    <row r="286" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B286" s="27"/>
+    </row>
+    <row r="287" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B277" s="28">
-        <f>SUBTOTAL(9,B271:B276)</f>
-        <v>0</v>
-      </c>
-      <c r="E277" s="30">
+      <c r="B287" s="62">
+        <f>SUBTOTAL(9,B279:B284)</f>
+        <v>251</v>
+      </c>
+      <c r="E287" s="29">
         <f>SUBTOTAL(9,E13:E108)</f>
         <v>96</v>
       </c>
     </row>
+    <row r="288" spans="1:5" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:XED276">
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="Artes Industriales"/>
-        <filter val="Artes Plásticas"/>
-        <filter val="Biologia"/>
-        <filter val="Ciencias"/>
-        <filter val="Educación Cívica"/>
-        <filter val="Educación para el hogar"/>
-        <filter val="Español"/>
-        <filter val="Estudios Sociales"/>
-        <filter val="Física"/>
-        <filter val="Francés"/>
-        <filter val="General"/>
-        <filter val="Inglés"/>
-        <filter val="Interculturalidad"/>
-        <filter val="Matemática"/>
-        <filter val="Música"/>
-        <filter val="Orientación"/>
-        <filter val="Preescolar"/>
-        <filter val="Psicología"/>
-        <filter val="Química"/>
-        <filter val="Religión"/>
-        <filter val="Tecnología"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:XED284"/>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
@@ -42383,9 +42666,25 @@
     <hyperlink ref="C256" r:id="rId250"/>
     <hyperlink ref="C49" r:id="rId251" display="https://www.mep.go.cr/educatico/carretica-cuentera"/>
     <hyperlink ref="C107" r:id="rId252"/>
+    <hyperlink ref="C267" r:id="rId253"/>
+    <hyperlink ref="C269" r:id="rId254"/>
+    <hyperlink ref="C277" r:id="rId255"/>
+    <hyperlink ref="C265" r:id="rId256"/>
+    <hyperlink ref="C263" r:id="rId257"/>
+    <hyperlink ref="C272" r:id="rId258"/>
+    <hyperlink ref="C273" r:id="rId259"/>
+    <hyperlink ref="C266" r:id="rId260"/>
+    <hyperlink ref="C264" r:id="rId261"/>
+    <hyperlink ref="C268" r:id="rId262"/>
+    <hyperlink ref="C274" r:id="rId263"/>
+    <hyperlink ref="C275" r:id="rId264"/>
+    <hyperlink ref="C276" r:id="rId265"/>
+    <hyperlink ref="C270" r:id="rId266"/>
+    <hyperlink ref="C271" r:id="rId267"/>
+    <hyperlink ref="C262" r:id="rId268"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId253"/>
-  <drawing r:id="rId254"/>
+  <pageSetup orientation="portrait" r:id="rId269"/>
+  <drawing r:id="rId270"/>
 </worksheet>
 </file>